--- a/BackTest/2020-01-16 BackTest NPXS.xlsx
+++ b/BackTest/2020-01-16 BackTest NPXS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1501</v>
+        <v>0.151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1501</v>
+        <v>0.151</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1501</v>
+        <v>0.151</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1501</v>
+        <v>0.151</v>
       </c>
       <c r="F2" t="n">
-        <v>1696348.5</v>
+        <v>350000</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1503216666666665</v>
+        <v>0.1503199999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,16 +474,16 @@
         <v>0.1501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1511</v>
+        <v>0.1501</v>
       </c>
       <c r="E3" t="n">
         <v>0.1501</v>
       </c>
       <c r="F3" t="n">
-        <v>4082995.3415</v>
+        <v>1696348.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1503233333333331</v>
+        <v>0.1503216666666665</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1502</v>
+        <v>0.1501</v>
       </c>
       <c r="C4" t="n">
         <v>0.1501</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1502</v>
+        <v>0.1511</v>
       </c>
       <c r="E4" t="n">
         <v>0.1501</v>
       </c>
       <c r="F4" t="n">
-        <v>264784.5766</v>
+        <v>4082995.3415</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1503249999999998</v>
+        <v>0.1503233333333331</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1501</v>
+        <v>0.1502</v>
       </c>
       <c r="C5" t="n">
         <v>0.1501</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1501</v>
+        <v>0.1502</v>
       </c>
       <c r="E5" t="n">
         <v>0.1501</v>
       </c>
       <c r="F5" t="n">
-        <v>1728083.7381</v>
+        <v>264784.5766</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1503266666666665</v>
+        <v>0.1503249999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.151</v>
+        <v>0.1501</v>
       </c>
       <c r="C6" t="n">
         <v>0.1501</v>
       </c>
       <c r="D6" t="n">
-        <v>0.151</v>
+        <v>0.1501</v>
       </c>
       <c r="E6" t="n">
         <v>0.1501</v>
       </c>
       <c r="F6" t="n">
-        <v>902382.9999000001</v>
+        <v>1728083.7381</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1503283333333331</v>
+        <v>0.1503266666666665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1511</v>
+        <v>0.151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1511</v>
+        <v>0.1501</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1511</v>
+        <v>0.151</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1511</v>
+        <v>0.1501</v>
       </c>
       <c r="F7" t="n">
-        <v>8630340.3178</v>
+        <v>902382.9999000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1503033333333331</v>
+        <v>0.1503283333333331</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0.1511</v>
       </c>
       <c r="F8" t="n">
-        <v>7123200.9999</v>
+        <v>8630340.3178</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1503149999999998</v>
+        <v>0.1503033333333331</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1512</v>
+        <v>0.1511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1512</v>
+        <v>0.1511</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1512</v>
+        <v>0.1511</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1512</v>
+        <v>0.1511</v>
       </c>
       <c r="F9" t="n">
-        <v>3500</v>
+        <v>7123200.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1503299999999998</v>
+        <v>0.1503149999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1511</v>
+        <v>0.1512</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1511</v>
+        <v>0.1512</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1511</v>
+        <v>0.1512</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1511</v>
+        <v>0.1512</v>
       </c>
       <c r="F10" t="n">
-        <v>1530692.3253</v>
+        <v>3500</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1503449999999998</v>
+        <v>0.1503299999999998</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.15</v>
+        <v>0.1511</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1512</v>
+        <v>0.1511</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1512</v>
+        <v>0.1511</v>
       </c>
       <c r="E11" t="n">
-        <v>0.15</v>
+        <v>0.1511</v>
       </c>
       <c r="F11" t="n">
-        <v>226062.6187</v>
+        <v>1530692.3253</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1503616666666664</v>
+        <v>0.1503449999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="C12" t="n">
         <v>0.1512</v>
@@ -792,13 +792,13 @@
         <v>0.1512</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="F12" t="n">
-        <v>659994.9201</v>
+        <v>226062.6187</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1503299999999998</v>
+        <v>0.1503616666666664</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0.1512</v>
       </c>
       <c r="F13" t="n">
-        <v>50000</v>
+        <v>659994.9201</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1504599999999998</v>
+        <v>0.1503299999999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0.1512</v>
       </c>
       <c r="F14" t="n">
-        <v>6569331.7387</v>
+        <v>50000</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1504799999999998</v>
+        <v>0.1504599999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0.1512</v>
       </c>
       <c r="C15" t="n">
-        <v>0.152</v>
+        <v>0.1512</v>
       </c>
       <c r="D15" t="n">
-        <v>0.152</v>
+        <v>0.1512</v>
       </c>
       <c r="E15" t="n">
         <v>0.1512</v>
       </c>
       <c r="F15" t="n">
-        <v>3550</v>
+        <v>6569331.7387</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1505166666666664</v>
+        <v>0.1504799999999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1502</v>
+        <v>0.1512</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1502</v>
+        <v>0.152</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1502</v>
+        <v>0.152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1502</v>
+        <v>0.1512</v>
       </c>
       <c r="F16" t="n">
-        <v>542019</v>
+        <v>3550</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1505366666666664</v>
+        <v>0.1505166666666664</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0.1502</v>
       </c>
       <c r="F17" t="n">
-        <v>5080674.1026</v>
+        <v>542019</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1505566666666664</v>
+        <v>0.1505366666666664</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.152</v>
+        <v>0.1502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.152</v>
+        <v>0.1502</v>
       </c>
       <c r="D18" t="n">
-        <v>0.152</v>
+        <v>0.1502</v>
       </c>
       <c r="E18" t="n">
-        <v>0.152</v>
+        <v>0.1502</v>
       </c>
       <c r="F18" t="n">
-        <v>3550</v>
+        <v>5080674.1026</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1505916666666664</v>
+        <v>0.1505566666666664</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1505</v>
+        <v>0.152</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1505</v>
+        <v>0.152</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1505</v>
+        <v>0.152</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1505</v>
+        <v>0.152</v>
       </c>
       <c r="F19" t="n">
-        <v>5060423.7924</v>
+        <v>3550</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1506016666666664</v>
+        <v>0.1505916666666664</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1506</v>
+        <v>0.1505</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1506</v>
+        <v>0.1505</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1506</v>
+        <v>0.1505</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1506</v>
+        <v>0.1505</v>
       </c>
       <c r="F20" t="n">
-        <v>21151</v>
+        <v>5060423.7924</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1506116666666664</v>
+        <v>0.1506016666666664</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0.1506</v>
       </c>
       <c r="F21" t="n">
-        <v>1374819.6034</v>
+        <v>21151</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1506216666666664</v>
+        <v>0.1506116666666664</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1512</v>
+        <v>0.1506</v>
       </c>
       <c r="C22" t="n">
-        <v>0.152</v>
+        <v>0.1506</v>
       </c>
       <c r="D22" t="n">
-        <v>0.152</v>
+        <v>0.1506</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1507</v>
+        <v>0.1506</v>
       </c>
       <c r="F22" t="n">
-        <v>20163003.5294</v>
+        <v>1374819.6034</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1506549999999997</v>
+        <v>0.1506216666666664</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="C23" t="n">
         <v>0.152</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.1508</v>
-      </c>
       <c r="D23" t="n">
-        <v>0.1532</v>
+        <v>0.152</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1508</v>
+        <v>0.1507</v>
       </c>
       <c r="F23" t="n">
-        <v>5936895.167</v>
+        <v>20163003.5294</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1506249999999997</v>
+        <v>0.1506549999999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="C24" t="n">
         <v>0.1508</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.1518</v>
-      </c>
       <c r="D24" t="n">
-        <v>0.1518</v>
+        <v>0.1532</v>
       </c>
       <c r="E24" t="n">
         <v>0.1508</v>
       </c>
       <c r="F24" t="n">
-        <v>10187777.8422</v>
+        <v>5936895.167</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1506549999999997</v>
+        <v>0.1506249999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>0.1508</v>
+      </c>
+      <c r="C25" t="n">
         <v>0.1518</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.1532</v>
-      </c>
       <c r="D25" t="n">
-        <v>0.1532</v>
+        <v>0.1518</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1518</v>
+        <v>0.1508</v>
       </c>
       <c r="F25" t="n">
-        <v>16406</v>
+        <v>10187777.8422</v>
       </c>
       <c r="G25" t="n">
-        <v>0.150708333333333</v>
+        <v>0.1506549999999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1532</v>
+        <v>0.1518</v>
       </c>
       <c r="C26" t="n">
         <v>0.1532</v>
@@ -1282,13 +1282,13 @@
         <v>0.1532</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1532</v>
+        <v>0.1518</v>
       </c>
       <c r="F26" t="n">
-        <v>1349975.1817</v>
+        <v>16406</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1507216666666663</v>
+        <v>0.150708333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1545</v>
+        <v>0.1532</v>
       </c>
       <c r="C27" t="n">
         <v>0.1532</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1545</v>
+        <v>0.1532</v>
       </c>
       <c r="E27" t="n">
         <v>0.1532</v>
       </c>
       <c r="F27" t="n">
-        <v>56022.6022</v>
+        <v>1349975.1817</v>
       </c>
       <c r="G27" t="n">
-        <v>0.150768333333333</v>
+        <v>0.1507216666666663</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1531</v>
+        <v>0.1545</v>
       </c>
       <c r="C28" t="n">
         <v>0.1532</v>
       </c>
       <c r="D28" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.1532</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.1531</v>
-      </c>
       <c r="F28" t="n">
-        <v>4498569.6696</v>
+        <v>56022.6022</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1507816666666663</v>
+        <v>0.150768333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1544</v>
+        <v>0.1531</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1544</v>
+        <v>0.1532</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1544</v>
+        <v>0.1532</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1544</v>
+        <v>0.1531</v>
       </c>
       <c r="F29" t="n">
-        <v>14630055.5444</v>
+        <v>4498569.6696</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1508966666666663</v>
+        <v>0.1507816666666663</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.154</v>
+        <v>0.1544</v>
       </c>
       <c r="C30" t="n">
-        <v>0.154</v>
+        <v>0.1544</v>
       </c>
       <c r="D30" t="n">
-        <v>0.154</v>
+        <v>0.1544</v>
       </c>
       <c r="E30" t="n">
-        <v>0.154</v>
+        <v>0.1544</v>
       </c>
       <c r="F30" t="n">
-        <v>2043661.0983</v>
+        <v>14630055.5444</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1509216666666663</v>
+        <v>0.1508966666666663</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1515</v>
+        <v>0.154</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1515</v>
+        <v>0.154</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1515</v>
+        <v>0.154</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1515</v>
+        <v>0.154</v>
       </c>
       <c r="F31" t="n">
-        <v>1114742.6348</v>
+        <v>2043661.0983</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1509049999999997</v>
+        <v>0.1509216666666663</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.151</v>
+        <v>0.1515</v>
       </c>
       <c r="C32" t="n">
-        <v>0.151</v>
+        <v>0.1515</v>
       </c>
       <c r="D32" t="n">
-        <v>0.151</v>
+        <v>0.1515</v>
       </c>
       <c r="E32" t="n">
-        <v>0.151</v>
+        <v>0.1515</v>
       </c>
       <c r="F32" t="n">
-        <v>50000</v>
+        <v>1114742.6348</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1508799999999997</v>
+        <v>0.1509049999999997</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>0.151</v>
       </c>
       <c r="C33" t="n">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="D33" t="n">
         <v>0.151</v>
       </c>
       <c r="E33" t="n">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="F33" t="n">
-        <v>6970841.3598</v>
+        <v>50000</v>
       </c>
       <c r="G33" t="n">
-        <v>0.150838333333333</v>
+        <v>0.1508799999999997</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1452</v>
+        <v>0.151</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1452</v>
+        <v>0.15</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1452</v>
+        <v>0.151</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1452</v>
+        <v>0.15</v>
       </c>
       <c r="F34" t="n">
-        <v>88158.3836</v>
+        <v>6970841.3598</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1507066666666664</v>
+        <v>0.150838333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>0.1452</v>
       </c>
       <c r="F35" t="n">
-        <v>97073.519</v>
+        <v>88158.3836</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1505766666666664</v>
+        <v>0.1507066666666664</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1453</v>
+        <v>0.1452</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1453</v>
+        <v>0.1452</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1453</v>
+        <v>0.1452</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1453</v>
+        <v>0.1452</v>
       </c>
       <c r="F36" t="n">
-        <v>665341.5285</v>
+        <v>97073.519</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1504616666666664</v>
+        <v>0.1505766666666664</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1454</v>
+        <v>0.1453</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1499</v>
+        <v>0.1453</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1499</v>
+        <v>0.1453</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1454</v>
+        <v>0.1453</v>
       </c>
       <c r="F37" t="n">
-        <v>3370144.0502</v>
+        <v>665341.5285</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1504399999999997</v>
+        <v>0.1504616666666664</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1492</v>
+        <v>0.1454</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1492</v>
+        <v>0.1499</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1492</v>
+        <v>0.1499</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1492</v>
+        <v>0.1454</v>
       </c>
       <c r="F38" t="n">
-        <v>322111.6334</v>
+        <v>3370144.0502</v>
       </c>
       <c r="G38" t="n">
-        <v>0.150413333333333</v>
+        <v>0.1504399999999997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1488</v>
+        <v>0.1492</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1488</v>
+        <v>0.1492</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1488</v>
+        <v>0.1492</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1488</v>
+        <v>0.1492</v>
       </c>
       <c r="F39" t="n">
-        <v>3178572.4651</v>
+        <v>322111.6334</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1503816666666664</v>
+        <v>0.150413333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>0.1488</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1511</v>
+        <v>0.1488</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1511</v>
+        <v>0.1488</v>
       </c>
       <c r="E40" t="n">
         <v>0.1488</v>
       </c>
       <c r="F40" t="n">
-        <v>1004474.5497</v>
+        <v>3178572.4651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1503916666666664</v>
+        <v>0.1503816666666664</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>0.1488</v>
       </c>
       <c r="C41" t="n">
-        <v>0.15</v>
+        <v>0.1511</v>
       </c>
       <c r="D41" t="n">
-        <v>0.15</v>
+        <v>0.1511</v>
       </c>
       <c r="E41" t="n">
         <v>0.1488</v>
       </c>
       <c r="F41" t="n">
-        <v>376312.888</v>
+        <v>1004474.5497</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1503866666666664</v>
+        <v>0.1503916666666664</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.15</v>
+        <v>0.1488</v>
       </c>
       <c r="C42" t="n">
         <v>0.15</v>
@@ -1842,13 +1842,13 @@
         <v>0.15</v>
       </c>
       <c r="E42" t="n">
-        <v>0.15</v>
+        <v>0.1488</v>
       </c>
       <c r="F42" t="n">
         <v>376312.888</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1504049999999997</v>
+        <v>0.1503866666666664</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1522</v>
+        <v>0.15</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1522</v>
+        <v>0.15</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="F43" t="n">
-        <v>145578.0423280423</v>
+        <v>376312.888</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1504399999999997</v>
+        <v>0.1504049999999997</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1506</v>
+        <v>0.1522</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1507</v>
+        <v>0.1512</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1507</v>
+        <v>0.1522</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1506</v>
+        <v>0.1512</v>
       </c>
       <c r="F44" t="n">
-        <v>650298.6066000001</v>
+        <v>145578.0423280423</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1504699999999997</v>
+        <v>0.1504399999999997</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1505</v>
+        <v>0.1506</v>
       </c>
       <c r="C45" t="n">
+        <v>0.1507</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1507</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.1506</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.1506</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.1505</v>
-      </c>
       <c r="F45" t="n">
-        <v>397830.3491</v>
+        <v>650298.6066000001</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1504983333333331</v>
+        <v>0.1504699999999997</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1502</v>
+        <v>0.1505</v>
       </c>
       <c r="C46" t="n">
-        <v>0.15</v>
+        <v>0.1506</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1502</v>
+        <v>0.1506</v>
       </c>
       <c r="E46" t="n">
-        <v>0.15</v>
+        <v>0.1505</v>
       </c>
       <c r="F46" t="n">
-        <v>100000</v>
+        <v>397830.3491</v>
       </c>
       <c r="G46" t="n">
         <v>0.1504983333333331</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.15</v>
+        <v>0.1502</v>
       </c>
       <c r="C47" t="n">
         <v>0.15</v>
       </c>
       <c r="D47" t="n">
-        <v>0.15</v>
+        <v>0.1502</v>
       </c>
       <c r="E47" t="n">
         <v>0.15</v>
       </c>
       <c r="F47" t="n">
-        <v>945046.5882</v>
+        <v>100000</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1504966666666664</v>
+        <v>0.1504983333333331</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0.15</v>
       </c>
       <c r="F48" t="n">
-        <v>765678.2585</v>
+        <v>945046.5882</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1505149999999998</v>
+        <v>0.1504966666666664</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1499</v>
+        <v>0.15</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1499</v>
+        <v>0.15</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1499</v>
+        <v>0.15</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1499</v>
+        <v>0.15</v>
       </c>
       <c r="F49" t="n">
-        <v>221471.4447</v>
+        <v>765678.2585</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1505316666666665</v>
+        <v>0.1505149999999998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1498</v>
+        <v>0.1499</v>
       </c>
       <c r="C50" t="n">
         <v>0.1499</v>
@@ -2122,13 +2122,13 @@
         <v>0.1499</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1498</v>
+        <v>0.1499</v>
       </c>
       <c r="F50" t="n">
-        <v>155452.8715</v>
+        <v>221471.4447</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1505483333333331</v>
+        <v>0.1505316666666665</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.15</v>
+        <v>0.1498</v>
       </c>
       <c r="C51" t="n">
-        <v>0.15</v>
+        <v>0.1499</v>
       </c>
       <c r="D51" t="n">
-        <v>0.15</v>
+        <v>0.1499</v>
       </c>
       <c r="E51" t="n">
-        <v>0.15</v>
+        <v>0.1498</v>
       </c>
       <c r="F51" t="n">
-        <v>4843.4912</v>
+        <v>155452.8715</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1505666666666665</v>
+        <v>0.1505483333333331</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1466</v>
+        <v>0.15</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1465</v>
+        <v>0.15</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1466</v>
+        <v>0.15</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1465</v>
+        <v>0.15</v>
       </c>
       <c r="F52" t="n">
-        <v>9068668.197699999</v>
+        <v>4843.4912</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1505266666666665</v>
+        <v>0.1505666666666665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1496</v>
+        <v>0.1466</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1496</v>
+        <v>0.1465</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1496</v>
+        <v>0.1466</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1496</v>
+        <v>0.1465</v>
       </c>
       <c r="F53" t="n">
-        <v>1673910.2839</v>
+        <v>9068668.197699999</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1505383333333332</v>
+        <v>0.1505266666666665</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,19 +2253,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1497</v>
+        <v>0.1496</v>
       </c>
       <c r="C54" t="n">
-        <v>0.15</v>
+        <v>0.1496</v>
       </c>
       <c r="D54" t="n">
-        <v>0.15</v>
+        <v>0.1496</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1497</v>
+        <v>0.1496</v>
       </c>
       <c r="F54" t="n">
-        <v>303057.9173</v>
+        <v>1673910.2839</v>
       </c>
       <c r="G54" t="n">
         <v>0.1505383333333332</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1472</v>
+        <v>0.1497</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1472</v>
+        <v>0.15</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1472</v>
+        <v>0.15</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1472</v>
+        <v>0.1497</v>
       </c>
       <c r="F55" t="n">
-        <v>138578.0423</v>
+        <v>303057.9173</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1504733333333332</v>
+        <v>0.1505383333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1469</v>
+        <v>0.1472</v>
       </c>
       <c r="C56" t="n">
-        <v>0.15</v>
+        <v>0.1472</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15</v>
+        <v>0.1472</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1469</v>
+        <v>0.1472</v>
       </c>
       <c r="F56" t="n">
-        <v>3156638.1621</v>
+        <v>138578.0423</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1504533333333332</v>
+        <v>0.1504733333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.15</v>
+        <v>0.1469</v>
       </c>
       <c r="C57" t="n">
         <v>0.15</v>
@@ -2367,13 +2367,13 @@
         <v>0.15</v>
       </c>
       <c r="E57" t="n">
-        <v>0.15</v>
+        <v>0.1469</v>
       </c>
       <c r="F57" t="n">
-        <v>380036.5594</v>
+        <v>3156638.1621</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1504333333333332</v>
+        <v>0.1504533333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,35 +2396,29 @@
         <v>0.15</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1506</v>
+        <v>0.15</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1506</v>
+        <v>0.15</v>
       </c>
       <c r="E58" t="n">
         <v>0.15</v>
       </c>
       <c r="F58" t="n">
-        <v>234423.220578486</v>
+        <v>380036.5594</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1504399999999999</v>
+        <v>0.1504333333333332</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2434,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1506</v>
+        <v>0.15</v>
       </c>
       <c r="C59" t="n">
         <v>0.1506</v>
@@ -2443,13 +2437,13 @@
         <v>0.1506</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1506</v>
+        <v>0.15</v>
       </c>
       <c r="F59" t="n">
-        <v>82941.45110000001</v>
+        <v>234423.220578486</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1504466666666666</v>
+        <v>0.1504399999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2459,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2485,10 +2475,10 @@
         <v>0.1506</v>
       </c>
       <c r="F60" t="n">
-        <v>1458225.3402</v>
+        <v>82941.45110000001</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1504549999999999</v>
+        <v>0.1504466666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2524,10 +2510,10 @@
         <v>0.1506</v>
       </c>
       <c r="F61" t="n">
-        <v>1261622.0533</v>
+        <v>1458225.3402</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1504483333333333</v>
+        <v>0.1504549999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2537,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2551,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1501</v>
+        <v>0.1506</v>
       </c>
       <c r="C62" t="n">
-        <v>0.15</v>
+        <v>0.1506</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1501</v>
+        <v>0.1506</v>
       </c>
       <c r="E62" t="n">
-        <v>0.15</v>
+        <v>0.1506</v>
       </c>
       <c r="F62" t="n">
-        <v>2047342.5728</v>
+        <v>1261622.0533</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1504466666666666</v>
+        <v>0.1504483333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2576,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2590,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1506</v>
+        <v>0.1501</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1506</v>
+        <v>0.15</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1506</v>
+        <v>0.1501</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1506</v>
+        <v>0.15</v>
       </c>
       <c r="F63" t="n">
-        <v>2.1513944223108e-05</v>
+        <v>2047342.5728</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1504549999999999</v>
+        <v>0.1504466666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2629,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.153</v>
+        <v>0.1506</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1529</v>
+        <v>0.1506</v>
       </c>
       <c r="D64" t="n">
-        <v>0.153</v>
+        <v>0.1506</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1529</v>
+        <v>0.1506</v>
       </c>
       <c r="F64" t="n">
-        <v>614383.3596224624</v>
+        <v>2.1513944223108e-05</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1505016666666666</v>
+        <v>0.1504549999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2654,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2668,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1506</v>
+        <v>0.153</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1505</v>
+        <v>0.1529</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1506</v>
+        <v>0.153</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1505</v>
+        <v>0.1529</v>
       </c>
       <c r="F65" t="n">
-        <v>1825228.5787</v>
+        <v>614383.3596224624</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1505083333333333</v>
+        <v>0.1505016666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2693,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2707,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1526</v>
+        <v>0.1506</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1526</v>
+        <v>0.1505</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1526</v>
+        <v>0.1506</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1526</v>
+        <v>0.1505</v>
       </c>
       <c r="F66" t="n">
-        <v>14666.7407</v>
+        <v>1825228.5787</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1505499999999999</v>
+        <v>0.1505083333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2732,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2746,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1503</v>
+        <v>0.1526</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1503</v>
+        <v>0.1526</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1503</v>
+        <v>0.1526</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1503</v>
+        <v>0.1526</v>
       </c>
       <c r="F67" t="n">
-        <v>252714</v>
+        <v>14666.7407</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1505366666666666</v>
+        <v>0.1505499999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2771,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2797,10 +2755,10 @@
         <v>0.1503</v>
       </c>
       <c r="F68" t="n">
-        <v>167005.7308</v>
+        <v>252714</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1505233333333333</v>
+        <v>0.1505366666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2810,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2824,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1519</v>
+        <v>0.1503</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1519</v>
+        <v>0.1503</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1519</v>
+        <v>0.1503</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1519</v>
+        <v>0.1503</v>
       </c>
       <c r="F69" t="n">
-        <v>19834578.267</v>
+        <v>167005.7308</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1505349999999999</v>
+        <v>0.1505233333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2849,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2875,10 +2825,10 @@
         <v>0.1519</v>
       </c>
       <c r="F70" t="n">
-        <v>5187376</v>
+        <v>19834578.267</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1505483333333333</v>
+        <v>0.1505349999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2888,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2905,19 +2851,19 @@
         <v>0.1519</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1503</v>
+        <v>0.1519</v>
       </c>
       <c r="D71" t="n">
         <v>0.1519</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1503</v>
+        <v>0.1519</v>
       </c>
       <c r="F71" t="n">
-        <v>1407734.25</v>
+        <v>5187376</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1505333333333333</v>
+        <v>0.1505483333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2927,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2941,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1504</v>
+        <v>0.1519</v>
       </c>
       <c r="C72" t="n">
-        <v>0.15</v>
+        <v>0.1503</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1504</v>
+        <v>0.1519</v>
       </c>
       <c r="E72" t="n">
-        <v>0.15</v>
+        <v>0.1503</v>
       </c>
       <c r="F72" t="n">
-        <v>1030000</v>
+        <v>1407734.25</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1505133333333333</v>
+        <v>0.1505333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2966,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2980,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1483</v>
+        <v>0.1504</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1481</v>
+        <v>0.15</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1483</v>
+        <v>0.1504</v>
       </c>
       <c r="E73" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="F73" t="n">
-        <v>6512888.0793</v>
+        <v>1030000</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1504616666666666</v>
+        <v>0.1505133333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3005,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3019,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.148</v>
+        <v>0.1483</v>
       </c>
       <c r="C74" t="n">
-        <v>0.148</v>
+        <v>0.1481</v>
       </c>
       <c r="D74" t="n">
-        <v>0.148</v>
+        <v>0.1483</v>
       </c>
       <c r="E74" t="n">
         <v>0.148</v>
       </c>
       <c r="F74" t="n">
-        <v>2896014</v>
+        <v>6512888.0793</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1504083333333333</v>
+        <v>0.1504616666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3044,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3070,10 +3000,10 @@
         <v>0.148</v>
       </c>
       <c r="F75" t="n">
-        <v>881009.3478</v>
+        <v>2896014</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1503416666666667</v>
+        <v>0.1504083333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3083,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3109,10 +3035,10 @@
         <v>0.148</v>
       </c>
       <c r="F76" t="n">
-        <v>15307571.5703</v>
+        <v>881009.3478</v>
       </c>
       <c r="G76" t="n">
-        <v>0.150305</v>
+        <v>0.1503416666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3122,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3148,10 +3070,10 @@
         <v>0.148</v>
       </c>
       <c r="F77" t="n">
-        <v>22469261.0919</v>
+        <v>15307571.5703</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1502683333333333</v>
+        <v>0.150305</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3161,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3187,10 +3105,10 @@
         <v>0.148</v>
       </c>
       <c r="F78" t="n">
-        <v>336710</v>
+        <v>22469261.0919</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1502016666666667</v>
+        <v>0.1502683333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3200,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3226,10 +3140,10 @@
         <v>0.148</v>
       </c>
       <c r="F79" t="n">
-        <v>20212.981</v>
+        <v>336710</v>
       </c>
       <c r="G79" t="n">
-        <v>0.15016</v>
+        <v>0.1502016666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3239,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3265,10 +3175,10 @@
         <v>0.148</v>
       </c>
       <c r="F80" t="n">
-        <v>2009875.0243</v>
+        <v>20212.981</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1501166666666666</v>
+        <v>0.15016</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3278,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3292,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="C81" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="D81" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="E81" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="F81" t="n">
-        <v>66712.9509</v>
+        <v>2009875.0243</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1501066666666666</v>
+        <v>0.1501166666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3317,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3343,10 +3245,10 @@
         <v>0.15</v>
       </c>
       <c r="F82" t="n">
-        <v>212465.8354</v>
+        <v>66712.9509</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1500733333333333</v>
+        <v>0.1501066666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3356,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3370,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1482</v>
+        <v>0.15</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1482</v>
+        <v>0.15</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1482</v>
+        <v>0.15</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1482</v>
+        <v>0.15</v>
       </c>
       <c r="F83" t="n">
-        <v>7711.7271</v>
+        <v>212465.8354</v>
       </c>
       <c r="G83" t="n">
-        <v>0.15003</v>
+        <v>0.1500733333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3395,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3409,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.15</v>
+        <v>0.1482</v>
       </c>
       <c r="C84" t="n">
-        <v>0.15</v>
+        <v>0.1482</v>
       </c>
       <c r="D84" t="n">
-        <v>0.15</v>
+        <v>0.1482</v>
       </c>
       <c r="E84" t="n">
-        <v>0.15</v>
+        <v>0.1482</v>
       </c>
       <c r="F84" t="n">
-        <v>137000.0994</v>
+        <v>7711.7271</v>
       </c>
       <c r="G84" t="n">
-        <v>0.15</v>
+        <v>0.15003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3434,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3451,19 +3341,19 @@
         <v>0.15</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1482</v>
+        <v>0.15</v>
       </c>
       <c r="D85" t="n">
         <v>0.15</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1482</v>
+        <v>0.15</v>
       </c>
       <c r="F85" t="n">
-        <v>746675.8636</v>
+        <v>137000.0994</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1499166666666666</v>
+        <v>0.15</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3473,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3487,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1482</v>
+        <v>0.15</v>
       </c>
       <c r="C86" t="n">
         <v>0.1482</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1482</v>
+        <v>0.15</v>
       </c>
       <c r="E86" t="n">
         <v>0.1482</v>
       </c>
       <c r="F86" t="n">
-        <v>8412.690399999999</v>
+        <v>746675.8636</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1498333333333333</v>
+        <v>0.1499166666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3512,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3529,19 +3411,19 @@
         <v>0.1482</v>
       </c>
       <c r="C87" t="n">
-        <v>0.148</v>
+        <v>0.1482</v>
       </c>
       <c r="D87" t="n">
         <v>0.1482</v>
       </c>
       <c r="E87" t="n">
-        <v>0.148</v>
+        <v>0.1482</v>
       </c>
       <c r="F87" t="n">
-        <v>100000</v>
+        <v>8412.690399999999</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1497466666666666</v>
+        <v>0.1498333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3551,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3565,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.148</v>
+        <v>0.1482</v>
       </c>
       <c r="C88" t="n">
         <v>0.148</v>
       </c>
       <c r="D88" t="n">
-        <v>0.148</v>
+        <v>0.1482</v>
       </c>
       <c r="E88" t="n">
         <v>0.148</v>
       </c>
       <c r="F88" t="n">
-        <v>42635.0366</v>
+        <v>100000</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1496599999999999</v>
+        <v>0.1497466666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3590,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3616,10 +3490,10 @@
         <v>0.148</v>
       </c>
       <c r="F89" t="n">
-        <v>1437401.4394</v>
+        <v>42635.0366</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1495533333333333</v>
+        <v>0.1496599999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3629,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3655,10 +3525,10 @@
         <v>0.148</v>
       </c>
       <c r="F90" t="n">
-        <v>2388656.2224</v>
+        <v>1437401.4394</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1494533333333332</v>
+        <v>0.1495533333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3668,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3682,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1499</v>
+        <v>0.148</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1499</v>
+        <v>0.148</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1499</v>
+        <v>0.148</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1499</v>
+        <v>0.148</v>
       </c>
       <c r="F91" t="n">
-        <v>4410.721</v>
+        <v>2388656.2224</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1494266666666666</v>
+        <v>0.1494533333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3707,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3733,26 +3595,20 @@
         <v>0.1499</v>
       </c>
       <c r="F92" t="n">
-        <v>41134.5552</v>
+        <v>4410.721</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1494083333333333</v>
+        <v>0.1494266666666666</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.1499</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3762,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1479</v>
+        <v>0.1499</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1479</v>
+        <v>0.1499</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1479</v>
+        <v>0.1499</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1479</v>
+        <v>0.1499</v>
       </c>
       <c r="F93" t="n">
-        <v>1926359.2888</v>
+        <v>41134.5552</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1493733333333332</v>
+        <v>0.1494083333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3787,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3813,10 +3665,10 @@
         <v>0.1479</v>
       </c>
       <c r="F94" t="n">
-        <v>83403.4687</v>
+        <v>1926359.2888</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1494183333333333</v>
+        <v>0.1493733333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3826,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3843,19 +3691,19 @@
         <v>0.1479</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1475</v>
+        <v>0.1479</v>
       </c>
       <c r="D95" t="n">
         <v>0.1479</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1475</v>
+        <v>0.1479</v>
       </c>
       <c r="F95" t="n">
-        <v>258106.5979</v>
+        <v>83403.4687</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1494566666666666</v>
+        <v>0.1494183333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3865,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3879,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1499</v>
+        <v>0.1479</v>
       </c>
       <c r="C96" t="n">
         <v>0.1475</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1499</v>
+        <v>0.1479</v>
       </c>
       <c r="E96" t="n">
         <v>0.1475</v>
       </c>
       <c r="F96" t="n">
-        <v>4777957</v>
+        <v>258106.5979</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1494933333333333</v>
+        <v>0.1494566666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3904,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3918,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1475</v>
+        <v>0.1499</v>
       </c>
       <c r="C97" t="n">
         <v>0.1475</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1475</v>
+        <v>0.1499</v>
       </c>
       <c r="E97" t="n">
         <v>0.1475</v>
       </c>
       <c r="F97" t="n">
-        <v>1093.6834</v>
+        <v>4777957</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1494533333333333</v>
+        <v>0.1494933333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3943,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3957,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.147</v>
+        <v>0.1475</v>
       </c>
       <c r="C98" t="n">
-        <v>0.147</v>
+        <v>0.1475</v>
       </c>
       <c r="D98" t="n">
-        <v>0.147</v>
+        <v>0.1475</v>
       </c>
       <c r="E98" t="n">
-        <v>0.147</v>
+        <v>0.1475</v>
       </c>
       <c r="F98" t="n">
-        <v>88214.837</v>
+        <v>1093.6834</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1494166666666666</v>
+        <v>0.1494533333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3982,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3996,38 +3828,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1451</v>
+        <v>0.147</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1451</v>
+        <v>0.147</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1451</v>
+        <v>0.147</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1451</v>
+        <v>0.147</v>
       </c>
       <c r="F99" t="n">
-        <v>16254.7071</v>
+        <v>88214.837</v>
       </c>
       <c r="G99" t="n">
-        <v>0.149355</v>
+        <v>0.1494166666666666</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.147</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4037,38 +3863,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1475</v>
+        <v>0.1451</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1475</v>
+        <v>0.1451</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1475</v>
+        <v>0.1451</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1475</v>
+        <v>0.1451</v>
       </c>
       <c r="F100" t="n">
-        <v>20283.6637</v>
+        <v>16254.7071</v>
       </c>
       <c r="G100" t="n">
-        <v>0.149295</v>
+        <v>0.149355</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.1451</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4090,26 +3910,20 @@
         <v>0.1475</v>
       </c>
       <c r="F101" t="n">
-        <v>4300907.9675</v>
+        <v>20283.6637</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1492533333333333</v>
+        <v>0.149295</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.1475</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4131,10 +3945,10 @@
         <v>0.1475</v>
       </c>
       <c r="F102" t="n">
-        <v>2401006.3871</v>
+        <v>4300907.9675</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1492116666666667</v>
+        <v>0.1492533333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4144,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4158,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1483</v>
+        <v>0.1475</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1483</v>
+        <v>0.1475</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1483</v>
+        <v>0.1475</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1483</v>
+        <v>0.1475</v>
       </c>
       <c r="F103" t="n">
-        <v>6747.0568</v>
+        <v>2401006.3871</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1491633333333334</v>
+        <v>0.1492116666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4183,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4209,10 +4015,10 @@
         <v>0.1483</v>
       </c>
       <c r="F104" t="n">
-        <v>395541.0328</v>
+        <v>6747.0568</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1491233333333334</v>
+        <v>0.1491633333333334</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4222,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4236,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1468</v>
+        <v>0.1483</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1468</v>
+        <v>0.1483</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1468</v>
+        <v>0.1483</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1468</v>
+        <v>0.1483</v>
       </c>
       <c r="F105" t="n">
-        <v>217966.6985</v>
+        <v>395541.0328</v>
       </c>
       <c r="G105" t="n">
-        <v>0.14906</v>
+        <v>0.1491233333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4261,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4275,38 +4073,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1483</v>
+        <v>0.1468</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1485</v>
+        <v>0.1468</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1485</v>
+        <v>0.1468</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1483</v>
+        <v>0.1468</v>
       </c>
       <c r="F106" t="n">
-        <v>218824.4059</v>
+        <v>217966.6985</v>
       </c>
       <c r="G106" t="n">
-        <v>0.149035</v>
+        <v>0.14906</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.1468</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4316,38 +4108,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1469</v>
+        <v>0.1483</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1469</v>
+        <v>0.1485</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1469</v>
+        <v>0.1485</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1469</v>
+        <v>0.1483</v>
       </c>
       <c r="F107" t="n">
-        <v>6230</v>
+        <v>218824.4059</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1489833333333334</v>
+        <v>0.149035</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.1485</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4357,38 +4143,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1471</v>
+        <v>0.1469</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1471</v>
+        <v>0.1469</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1471</v>
+        <v>0.1469</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1471</v>
+        <v>0.1469</v>
       </c>
       <c r="F108" t="n">
-        <v>20190343.1746</v>
+        <v>6230</v>
       </c>
       <c r="G108" t="n">
-        <v>0.148935</v>
+        <v>0.1489833333333334</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.1469</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4410,26 +4190,20 @@
         <v>0.1471</v>
       </c>
       <c r="F109" t="n">
-        <v>6354553.7071</v>
+        <v>20190343.1746</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1488883333333333</v>
+        <v>0.148935</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.1471</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4439,38 +4213,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1485</v>
+        <v>0.1471</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1485</v>
+        <v>0.1471</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1485</v>
+        <v>0.1471</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1485</v>
+        <v>0.1471</v>
       </c>
       <c r="F110" t="n">
-        <v>1987364.8538</v>
+        <v>6354553.7071</v>
       </c>
       <c r="G110" t="n">
-        <v>0.148865</v>
+        <v>0.1488883333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.1471</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4480,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="F111" t="n">
-        <v>28017.3915</v>
+        <v>1987364.8538</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1488383333333334</v>
+        <v>0.148865</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4504,14 +4272,12 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1485</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.1471</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.1471</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4521,22 +4287,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1488</v>
+        <v>0.1484</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1488</v>
+        <v>0.1484</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1488</v>
+        <v>0.1484</v>
       </c>
       <c r="E112" t="n">
-        <v>0.1488</v>
+        <v>0.1484</v>
       </c>
       <c r="F112" t="n">
-        <v>564252.9271</v>
+        <v>28017.3915</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1488766666666667</v>
+        <v>0.1488383333333334</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4545,12 +4311,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1484</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+        <v>0.1485</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.1471</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M112" t="n">
@@ -4574,10 +4342,10 @@
         <v>0.1488</v>
       </c>
       <c r="F113" t="n">
-        <v>461799.5492</v>
+        <v>564252.9271</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1488633333333333</v>
+        <v>0.1488766666666667</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -4586,12 +4354,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1488</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+        <v>0.1484</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.1471</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M113" t="n">
@@ -4603,22 +4373,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1489</v>
+        <v>0.1488</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1489</v>
+        <v>0.1488</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1489</v>
+        <v>0.1488</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1489</v>
+        <v>0.1488</v>
       </c>
       <c r="F114" t="n">
-        <v>33373.7754</v>
+        <v>461799.5492</v>
       </c>
       <c r="G114" t="n">
-        <v>0.148845</v>
+        <v>0.1488633333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4628,11 +4398,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4645,19 +4411,19 @@
         <v>0.1489</v>
       </c>
       <c r="C115" t="n">
-        <v>0.15</v>
+        <v>0.1489</v>
       </c>
       <c r="D115" t="n">
-        <v>0.15</v>
+        <v>0.1489</v>
       </c>
       <c r="E115" t="n">
         <v>0.1489</v>
       </c>
       <c r="F115" t="n">
-        <v>15275479.5188</v>
+        <v>33373.7754</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1488916666666667</v>
+        <v>0.148845</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4667,11 +4433,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4681,7 +4443,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.15</v>
+        <v>0.1489</v>
       </c>
       <c r="C116" t="n">
         <v>0.15</v>
@@ -4690,10 +4452,10 @@
         <v>0.15</v>
       </c>
       <c r="E116" t="n">
-        <v>0.15</v>
+        <v>0.1489</v>
       </c>
       <c r="F116" t="n">
-        <v>454653.6815</v>
+        <v>15275479.5188</v>
       </c>
       <c r="G116" t="n">
         <v>0.1488916666666667</v>
@@ -4706,11 +4468,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4732,7 +4490,7 @@
         <v>0.15</v>
       </c>
       <c r="F117" t="n">
-        <v>19943.4746</v>
+        <v>454653.6815</v>
       </c>
       <c r="G117" t="n">
         <v>0.1488916666666667</v>
@@ -4745,11 +4503,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4771,10 +4525,10 @@
         <v>0.15</v>
       </c>
       <c r="F118" t="n">
-        <v>74776.1303</v>
+        <v>19943.4746</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1488816666666667</v>
+        <v>0.1488916666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4784,11 +4538,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4798,22 +4548,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="F119" t="n">
-        <v>64373.526</v>
+        <v>74776.1303</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1488466666666667</v>
+        <v>0.1488816666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4823,11 +4573,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4849,10 +4595,10 @@
         <v>0.1485</v>
       </c>
       <c r="F120" t="n">
-        <v>846328.108</v>
+        <v>64373.526</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1488116666666666</v>
+        <v>0.1488466666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4862,11 +4608,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4888,10 +4630,10 @@
         <v>0.1485</v>
       </c>
       <c r="F121" t="n">
-        <v>206815.554</v>
+        <v>846328.108</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1487766666666666</v>
+        <v>0.1488116666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4901,11 +4643,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4927,10 +4665,10 @@
         <v>0.1485</v>
       </c>
       <c r="F122" t="n">
-        <v>310493.1479</v>
+        <v>206815.554</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1487516666666666</v>
+        <v>0.1487766666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4940,11 +4678,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4954,22 +4688,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="F123" t="n">
-        <v>1620000</v>
+        <v>310493.1479</v>
       </c>
       <c r="G123" t="n">
-        <v>0.148715</v>
+        <v>0.1487516666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4979,11 +4713,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4993,22 +4723,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="F124" t="n">
-        <v>217633.8359</v>
+        <v>1620000</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1486416666666666</v>
+        <v>0.148715</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5018,11 +4748,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5044,10 +4770,10 @@
         <v>0.1485</v>
       </c>
       <c r="F125" t="n">
-        <v>299946.984</v>
+        <v>217633.8359</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1486083333333333</v>
+        <v>0.1486416666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5057,11 +4783,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5071,7 +4793,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="C126" t="n">
         <v>0.1485</v>
@@ -5080,13 +4802,13 @@
         <v>0.1485</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="F126" t="n">
-        <v>1239828.9551</v>
+        <v>299946.984</v>
       </c>
       <c r="G126" t="n">
-        <v>0.14854</v>
+        <v>0.1486083333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5096,11 +4818,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5113,19 +4831,19 @@
         <v>0.1484</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="E127" t="n">
         <v>0.1484</v>
       </c>
       <c r="F127" t="n">
-        <v>18889.5464</v>
+        <v>1239828.9551</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1485083333333334</v>
+        <v>0.14854</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5135,11 +4853,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5149,22 +4863,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="F128" t="n">
-        <v>481972.5917</v>
+        <v>18889.5464</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1484783333333334</v>
+        <v>0.1485083333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5174,11 +4888,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5200,10 +4910,10 @@
         <v>0.1485</v>
       </c>
       <c r="F129" t="n">
-        <v>1000300.09</v>
+        <v>481972.5917</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1484216666666667</v>
+        <v>0.1484783333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5213,11 +4923,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5239,10 +4945,10 @@
         <v>0.1485</v>
       </c>
       <c r="F130" t="n">
-        <v>420234.0702</v>
+        <v>1000300.09</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1483650000000001</v>
+        <v>0.1484216666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5252,11 +4958,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5266,22 +4968,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="F131" t="n">
-        <v>1026052.4763</v>
+        <v>420234.0702</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1483333333333334</v>
+        <v>0.1483650000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5291,11 +4993,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5305,22 +5003,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="F132" t="n">
-        <v>2754242.2139</v>
+        <v>1026052.4763</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1483083333333334</v>
+        <v>0.1483333333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5330,11 +5028,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5344,22 +5038,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1484</v>
+        <v>0.1485</v>
       </c>
       <c r="F133" t="n">
-        <v>120153.5163</v>
+        <v>2754242.2139</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1483133333333334</v>
+        <v>0.1483083333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5369,11 +5063,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5383,22 +5073,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1499</v>
+        <v>0.1484</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1499</v>
+        <v>0.1484</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1499</v>
+        <v>0.1484</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1499</v>
+        <v>0.1484</v>
       </c>
       <c r="F134" t="n">
-        <v>2663155.8528</v>
+        <v>120153.5163</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1483450000000001</v>
+        <v>0.1483133333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5408,11 +5098,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5422,22 +5108,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.15</v>
+        <v>0.1499</v>
       </c>
       <c r="C135" t="n">
-        <v>0.15</v>
+        <v>0.1499</v>
       </c>
       <c r="D135" t="n">
-        <v>0.15</v>
+        <v>0.1499</v>
       </c>
       <c r="E135" t="n">
-        <v>0.15</v>
+        <v>0.1499</v>
       </c>
       <c r="F135" t="n">
-        <v>100524.8877</v>
+        <v>2663155.8528</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1483783333333334</v>
+        <v>0.1483450000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5447,11 +5133,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5467,16 +5149,16 @@
         <v>0.15</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1509</v>
+        <v>0.15</v>
       </c>
       <c r="E136" t="n">
         <v>0.15</v>
       </c>
       <c r="F136" t="n">
-        <v>1033143.603905832</v>
+        <v>100524.8877</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1484116666666668</v>
+        <v>0.1483783333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5486,11 +5168,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5506,16 +5184,16 @@
         <v>0.15</v>
       </c>
       <c r="D137" t="n">
-        <v>0.15</v>
+        <v>0.1509</v>
       </c>
       <c r="E137" t="n">
         <v>0.15</v>
       </c>
       <c r="F137" t="n">
-        <v>1136341.7982</v>
+        <v>1033143.603905832</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1484450000000001</v>
+        <v>0.1484116666666668</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5525,11 +5203,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5551,10 +5225,10 @@
         <v>0.15</v>
       </c>
       <c r="F138" t="n">
-        <v>332529.5428</v>
+        <v>1136341.7982</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1484783333333335</v>
+        <v>0.1484450000000001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5564,11 +5238,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5590,10 +5260,10 @@
         <v>0.15</v>
       </c>
       <c r="F139" t="n">
-        <v>7874.7797</v>
+        <v>332529.5428</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1485116666666668</v>
+        <v>0.1484783333333335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5603,11 +5273,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5629,10 +5295,10 @@
         <v>0.15</v>
       </c>
       <c r="F140" t="n">
-        <v>681386.1699</v>
+        <v>7874.7797</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1485450000000002</v>
+        <v>0.1485116666666668</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5642,11 +5308,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5668,7 +5330,7 @@
         <v>0.15</v>
       </c>
       <c r="F141" t="n">
-        <v>538577.6733</v>
+        <v>681386.1699</v>
       </c>
       <c r="G141" t="n">
         <v>0.1485450000000002</v>
@@ -5681,11 +5343,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5695,22 +5353,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1511</v>
+        <v>0.15</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1511</v>
+        <v>0.15</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1511</v>
+        <v>0.15</v>
       </c>
       <c r="E142" t="n">
-        <v>0.1511</v>
+        <v>0.15</v>
       </c>
       <c r="F142" t="n">
-        <v>110026.7861</v>
+        <v>538577.6733</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1485633333333335</v>
+        <v>0.1485450000000002</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5720,11 +5378,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5746,10 +5400,10 @@
         <v>0.1511</v>
       </c>
       <c r="F143" t="n">
-        <v>969798.2872</v>
+        <v>110026.7861</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1486116666666668</v>
+        <v>0.1485633333333335</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5759,11 +5413,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5785,10 +5435,10 @@
         <v>0.1511</v>
       </c>
       <c r="F144" t="n">
-        <v>1347522</v>
+        <v>969798.2872</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1486300000000002</v>
+        <v>0.1486116666666668</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5798,11 +5448,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5812,22 +5458,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1515</v>
+        <v>0.1511</v>
       </c>
       <c r="C145" t="n">
-        <v>0.152</v>
+        <v>0.1511</v>
       </c>
       <c r="D145" t="n">
-        <v>0.152</v>
+        <v>0.1511</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1515</v>
+        <v>0.1511</v>
       </c>
       <c r="F145" t="n">
-        <v>200000</v>
+        <v>1347522</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1486933333333335</v>
+        <v>0.1486300000000002</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5837,11 +5483,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5851,7 +5493,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.152</v>
+        <v>0.1515</v>
       </c>
       <c r="C146" t="n">
         <v>0.152</v>
@@ -5860,13 +5502,13 @@
         <v>0.152</v>
       </c>
       <c r="E146" t="n">
-        <v>0.152</v>
+        <v>0.1515</v>
       </c>
       <c r="F146" t="n">
-        <v>2895523.3183</v>
+        <v>200000</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1487566666666668</v>
+        <v>0.1486933333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5876,11 +5518,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5890,22 +5528,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1519</v>
+        <v>0.152</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1519</v>
+        <v>0.152</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1519</v>
+        <v>0.152</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1519</v>
+        <v>0.152</v>
       </c>
       <c r="F147" t="n">
-        <v>183714.1831</v>
+        <v>2895523.3183</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1488216666666668</v>
+        <v>0.1487566666666668</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5915,11 +5553,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5941,10 +5575,10 @@
         <v>0.1519</v>
       </c>
       <c r="F148" t="n">
-        <v>10966</v>
+        <v>183714.1831</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1488866666666668</v>
+        <v>0.1488216666666668</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5954,11 +5588,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5980,24 +5610,20 @@
         <v>0.1519</v>
       </c>
       <c r="F149" t="n">
-        <v>26113</v>
+        <v>10966</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1489516666666668</v>
+        <v>0.1488866666666668</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6019,24 +5645,20 @@
         <v>0.1519</v>
       </c>
       <c r="F150" t="n">
-        <v>10321.9206</v>
+        <v>26113</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1490166666666668</v>
+        <v>0.1489516666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6046,36 +5668,32 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.152</v>
+        <v>0.1519</v>
       </c>
       <c r="C151" t="n">
-        <v>0.152</v>
+        <v>0.1519</v>
       </c>
       <c r="D151" t="n">
-        <v>0.152</v>
+        <v>0.1519</v>
       </c>
       <c r="E151" t="n">
-        <v>0.152</v>
+        <v>0.1519</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0001</v>
+        <v>10321.9206</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1490516666666668</v>
+        <v>0.1490166666666668</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6085,36 +5703,32 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1527</v>
+        <v>0.152</v>
       </c>
       <c r="C152" t="n">
-        <v>0.154</v>
+        <v>0.152</v>
       </c>
       <c r="D152" t="n">
-        <v>0.154</v>
+        <v>0.152</v>
       </c>
       <c r="E152" t="n">
-        <v>0.1527</v>
+        <v>0.152</v>
       </c>
       <c r="F152" t="n">
-        <v>280514.4157199351</v>
+        <v>0.0001</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1491200000000001</v>
+        <v>0.1490516666666668</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6124,36 +5738,32 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1539</v>
+        <v>0.1527</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1525</v>
+        <v>0.154</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1539</v>
+        <v>0.154</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1525</v>
+        <v>0.1527</v>
       </c>
       <c r="F153" t="n">
-        <v>375094.9446</v>
+        <v>280514.4157199351</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1491966666666668</v>
+        <v>0.1491200000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6166,19 +5776,19 @@
         <v>0.1539</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1539</v>
+        <v>0.1525</v>
       </c>
       <c r="D154" t="n">
         <v>0.1539</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1539</v>
+        <v>0.1525</v>
       </c>
       <c r="F154" t="n">
-        <v>324074.0740740741</v>
+        <v>375094.9446</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1492966666666668</v>
+        <v>0.1491966666666668</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6188,11 +5798,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6202,59 +5808,57 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1538</v>
+        <v>0.1539</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1522</v>
+        <v>0.1539</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1538</v>
+        <v>0.1539</v>
       </c>
       <c r="E155" t="n">
-        <v>0.1522</v>
+        <v>0.1539</v>
       </c>
       <c r="F155" t="n">
-        <v>4000000</v>
+        <v>324074.0740740741</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1493750000000001</v>
+        <v>0.1492966666666668</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.152</v>
+        <v>0.1538</v>
       </c>
       <c r="C156" t="n">
-        <v>0.152</v>
+        <v>0.1522</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1539</v>
+        <v>0.1538</v>
       </c>
       <c r="E156" t="n">
-        <v>0.152</v>
+        <v>0.1522</v>
       </c>
       <c r="F156" t="n">
-        <v>888890.4059</v>
+        <v>4000000</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1494500000000001</v>
+        <v>0.1493750000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6274,22 +5878,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1539</v>
+        <v>0.152</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1539</v>
+        <v>0.152</v>
       </c>
       <c r="D157" t="n">
         <v>0.1539</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1539</v>
+        <v>0.152</v>
       </c>
       <c r="F157" t="n">
-        <v>318776.071</v>
+        <v>888890.4059</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1495566666666667</v>
+        <v>0.1494500000000001</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6321,16 +5925,16 @@
         <v>0.1539</v>
       </c>
       <c r="F158" t="n">
-        <v>307023.6194</v>
+        <v>318776.071</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1496716666666667</v>
+        <v>0.1495566666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6356,16 +5960,16 @@
         <v>0.1539</v>
       </c>
       <c r="F159" t="n">
-        <v>22391.16309291748</v>
+        <v>307023.6194</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1498183333333334</v>
+        <v>0.1496716666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6379,28 +5983,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="C160" t="n">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="D160" t="n">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="E160" t="n">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="F160" t="n">
-        <v>35682</v>
+        <v>22391.16309291748</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1499266666666667</v>
+        <v>0.1498183333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6414,22 +6018,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1523</v>
+        <v>0.154</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1522</v>
+        <v>0.154</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1523</v>
+        <v>0.154</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1522</v>
+        <v>0.154</v>
       </c>
       <c r="F161" t="n">
-        <v>2380293.6467</v>
+        <v>35682</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1500050000000001</v>
+        <v>0.1499266666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6449,22 +6053,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1522</v>
+        <v>0.1523</v>
       </c>
       <c r="C162" t="n">
         <v>0.1522</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1522</v>
+        <v>0.1523</v>
       </c>
       <c r="E162" t="n">
         <v>0.1522</v>
       </c>
       <c r="F162" t="n">
-        <v>100000</v>
+        <v>2380293.6467</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1500833333333334</v>
+        <v>0.1500050000000001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6496,10 +6100,10 @@
         <v>0.1522</v>
       </c>
       <c r="F163" t="n">
-        <v>101581.3032</v>
+        <v>100000</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1501483333333334</v>
+        <v>0.1500833333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6519,22 +6123,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1539</v>
+        <v>0.1522</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1539</v>
+        <v>0.1522</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1539</v>
+        <v>0.1522</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1539</v>
+        <v>0.1522</v>
       </c>
       <c r="F164" t="n">
-        <v>5020.7165</v>
+        <v>101581.3032</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1502416666666667</v>
+        <v>0.1501483333333334</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6566,10 +6170,10 @@
         <v>0.1539</v>
       </c>
       <c r="F165" t="n">
-        <v>1358710.6956</v>
+        <v>5020.7165</v>
       </c>
       <c r="G165" t="n">
-        <v>0.15036</v>
+        <v>0.1502416666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6589,22 +6193,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="C166" t="n">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="D166" t="n">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="E166" t="n">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="F166" t="n">
-        <v>182770.444</v>
+        <v>1358710.6956</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1504516666666667</v>
+        <v>0.15036</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6636,10 +6240,10 @@
         <v>0.154</v>
       </c>
       <c r="F167" t="n">
-        <v>91585.7758</v>
+        <v>182770.444</v>
       </c>
       <c r="G167" t="n">
-        <v>0.15057</v>
+        <v>0.1504516666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6659,22 +6263,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1539</v>
+        <v>0.154</v>
       </c>
       <c r="C168" t="n">
-        <v>0.1539</v>
+        <v>0.154</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1539</v>
+        <v>0.154</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1539</v>
+        <v>0.154</v>
       </c>
       <c r="F168" t="n">
-        <v>20644.879</v>
+        <v>91585.7758</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1506833333333333</v>
+        <v>0.15057</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6697,19 +6301,19 @@
         <v>0.1539</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1521</v>
+        <v>0.1539</v>
       </c>
       <c r="D169" t="n">
         <v>0.1539</v>
       </c>
       <c r="E169" t="n">
-        <v>0.1521</v>
+        <v>0.1539</v>
       </c>
       <c r="F169" t="n">
-        <v>292956.3372</v>
+        <v>20644.879</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1507666666666667</v>
+        <v>0.1506833333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6732,19 +6336,19 @@
         <v>0.1539</v>
       </c>
       <c r="C170" t="n">
-        <v>0.1539</v>
+        <v>0.1521</v>
       </c>
       <c r="D170" t="n">
         <v>0.1539</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1539</v>
+        <v>0.1521</v>
       </c>
       <c r="F170" t="n">
-        <v>12354</v>
+        <v>292956.3372</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1508566666666667</v>
+        <v>0.1507666666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6776,10 +6380,10 @@
         <v>0.1539</v>
       </c>
       <c r="F171" t="n">
-        <v>504110.908</v>
+        <v>12354</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1509483333333334</v>
+        <v>0.1508566666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6799,22 +6403,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="C172" t="n">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="D172" t="n">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="E172" t="n">
-        <v>0.154</v>
+        <v>0.1539</v>
       </c>
       <c r="F172" t="n">
-        <v>4082931.308</v>
+        <v>504110.908</v>
       </c>
       <c r="G172" t="n">
-        <v>0.151035</v>
+        <v>0.1509483333333334</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6834,22 +6438,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1545</v>
+        <v>0.154</v>
       </c>
       <c r="C173" t="n">
-        <v>0.1545</v>
+        <v>0.154</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1545</v>
+        <v>0.154</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1545</v>
+        <v>0.154</v>
       </c>
       <c r="F173" t="n">
-        <v>3358253.9444</v>
+        <v>4082931.308</v>
       </c>
       <c r="G173" t="n">
-        <v>0.15113</v>
+        <v>0.151035</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6869,22 +6473,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1531</v>
+        <v>0.1545</v>
       </c>
       <c r="C174" t="n">
-        <v>0.1531</v>
+        <v>0.1545</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1531</v>
+        <v>0.1545</v>
       </c>
       <c r="E174" t="n">
-        <v>0.1531</v>
+        <v>0.1545</v>
       </c>
       <c r="F174" t="n">
-        <v>2010668.0029</v>
+        <v>3358253.9444</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1512000000000001</v>
+        <v>0.15113</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6916,10 +6520,10 @@
         <v>0.1531</v>
       </c>
       <c r="F175" t="n">
-        <v>1759551</v>
+        <v>2010668.0029</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1512516666666667</v>
+        <v>0.1512000000000001</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6939,22 +6543,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1533</v>
+        <v>0.1531</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1533</v>
+        <v>0.1531</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1533</v>
+        <v>0.1531</v>
       </c>
       <c r="E176" t="n">
-        <v>0.1533</v>
+        <v>0.1531</v>
       </c>
       <c r="F176" t="n">
-        <v>1707543</v>
+        <v>1759551</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1513066666666667</v>
+        <v>0.1512516666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6974,22 +6578,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1545</v>
+        <v>0.1533</v>
       </c>
       <c r="C177" t="n">
-        <v>0.1545</v>
+        <v>0.1533</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1545</v>
+        <v>0.1533</v>
       </c>
       <c r="E177" t="n">
-        <v>0.1545</v>
+        <v>0.1533</v>
       </c>
       <c r="F177" t="n">
-        <v>3453493.7736</v>
+        <v>1707543</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1513816666666667</v>
+        <v>0.1513066666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7021,10 +6625,10 @@
         <v>0.1545</v>
       </c>
       <c r="F178" t="n">
-        <v>3228172.2877</v>
+        <v>3453493.7736</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1514566666666667</v>
+        <v>0.1513816666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7056,10 +6660,10 @@
         <v>0.1545</v>
       </c>
       <c r="F179" t="n">
-        <v>155000</v>
+        <v>3228172.2877</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1515566666666667</v>
+        <v>0.1514566666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7091,10 +6695,10 @@
         <v>0.1545</v>
       </c>
       <c r="F180" t="n">
-        <v>6470716.94</v>
+        <v>155000</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1516566666666667</v>
+        <v>0.1515566666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7126,10 +6730,10 @@
         <v>0.1545</v>
       </c>
       <c r="F181" t="n">
-        <v>1103667.7635</v>
+        <v>6470716.94</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1517566666666667</v>
+        <v>0.1516566666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7161,10 +6765,10 @@
         <v>0.1545</v>
       </c>
       <c r="F182" t="n">
-        <v>50000</v>
+        <v>1103667.7635</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1518566666666667</v>
+        <v>0.1517566666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7187,19 +6791,19 @@
         <v>0.1545</v>
       </c>
       <c r="C183" t="n">
-        <v>0.1533</v>
+        <v>0.1545</v>
       </c>
       <c r="D183" t="n">
         <v>0.1545</v>
       </c>
       <c r="E183" t="n">
-        <v>0.1533</v>
+        <v>0.1545</v>
       </c>
       <c r="F183" t="n">
-        <v>250000</v>
+        <v>50000</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1519383333333334</v>
+        <v>0.1518566666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7214,6 +6818,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="F184" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.1519383333333334</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest NPXS.xlsx
+++ b/BackTest/2020-01-16 BackTest NPXS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:N194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>350000</v>
       </c>
       <c r="G2" t="n">
+        <v>0.1498999999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.1503199999999998</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1696348.5</v>
       </c>
       <c r="G3" t="n">
+        <v>0.1498999999999999</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1503216666666665</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>4082995.3415</v>
       </c>
       <c r="G4" t="n">
+        <v>0.1499799999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.1503233333333331</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>264784.5766</v>
       </c>
       <c r="G5" t="n">
+        <v>0.1500599999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.1503249999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1728083.7381</v>
       </c>
       <c r="G6" t="n">
+        <v>0.15014</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1503266666666665</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>902382.9999000001</v>
       </c>
       <c r="G7" t="n">
+        <v>0.15022</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1503283333333331</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>8630340.3178</v>
       </c>
       <c r="G8" t="n">
+        <v>0.1503666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1503033333333331</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>7123200.9999</v>
       </c>
       <c r="G9" t="n">
+        <v>0.1505133333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1503149999999998</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>3500</v>
       </c>
       <c r="G10" t="n">
+        <v>0.1505933333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1503299999999998</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1530692.3253</v>
       </c>
       <c r="G11" t="n">
+        <v>0.1505933333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1503449999999998</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>226062.6187</v>
       </c>
       <c r="G12" t="n">
+        <v>0.1505933333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1503616666666664</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>659994.9201</v>
       </c>
       <c r="G13" t="n">
+        <v>0.1505933333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1503299999999998</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>50000</v>
       </c>
       <c r="G14" t="n">
+        <v>0.15066</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1504599999999998</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>6569331.7387</v>
       </c>
       <c r="G15" t="n">
+        <v>0.1507266666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1504799999999998</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>3550</v>
       </c>
       <c r="G16" t="n">
+        <v>0.1508533333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1505166666666664</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>542019</v>
       </c>
       <c r="G17" t="n">
+        <v>0.1508</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1505366666666664</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>5080674.1026</v>
       </c>
       <c r="G18" t="n">
+        <v>0.1508066666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.1505566666666664</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3550</v>
       </c>
       <c r="G19" t="n">
+        <v>0.1509333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.1505916666666664</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>5060423.7924</v>
       </c>
       <c r="G20" t="n">
+        <v>0.15096</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.1506016666666664</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>21151</v>
       </c>
       <c r="G21" t="n">
+        <v>0.1509933333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.1506116666666664</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1374819.6034</v>
       </c>
       <c r="G22" t="n">
+        <v>0.1510266666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.1506216666666664</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>20163003.5294</v>
       </c>
       <c r="G23" t="n">
+        <v>0.1510866666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.1506549999999997</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>5936895.167</v>
       </c>
       <c r="G24" t="n">
+        <v>0.1510666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.1506249999999997</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>10187777.8422</v>
       </c>
       <c r="G25" t="n">
+        <v>0.1511066666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.1506549999999997</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>16406</v>
       </c>
       <c r="G26" t="n">
+        <v>0.1512466666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.150708333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1349975.1817</v>
       </c>
       <c r="G27" t="n">
+        <v>0.15138</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.1507216666666663</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>56022.6022</v>
       </c>
       <c r="G28" t="n">
+        <v>0.1515133333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.150768333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>4498569.6696</v>
       </c>
       <c r="G29" t="n">
+        <v>0.1516466666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.1507816666666663</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>14630055.5444</v>
       </c>
       <c r="G30" t="n">
+        <v>0.1518599999999999</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.1508966666666663</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>2043661.0983</v>
       </c>
       <c r="G31" t="n">
+        <v>0.1519933333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.1509216666666663</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1114742.6348</v>
       </c>
       <c r="G32" t="n">
+        <v>0.1520799999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.1509049999999997</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>50000</v>
       </c>
       <c r="G33" t="n">
+        <v>0.1521333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.1508799999999997</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>6970841.3598</v>
       </c>
       <c r="G34" t="n">
+        <v>0.1519999999999999</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.150838333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>88158.3836</v>
       </c>
       <c r="G35" t="n">
+        <v>0.1516466666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.1507066666666664</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>97073.519</v>
       </c>
       <c r="G36" t="n">
+        <v>0.1512866666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.1505766666666664</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>665341.5285</v>
       </c>
       <c r="G37" t="n">
+        <v>0.1509333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.1504616666666664</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>3370144.0502</v>
       </c>
       <c r="G38" t="n">
+        <v>0.1507933333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.1504399999999997</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>322111.6334</v>
       </c>
       <c r="G39" t="n">
+        <v>0.1506866666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.150413333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>3178572.4651</v>
       </c>
       <c r="G40" t="n">
+        <v>0.1504866666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.1503816666666664</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>1004474.5497</v>
       </c>
       <c r="G41" t="n">
+        <v>0.1503466666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.1503916666666664</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>376312.888</v>
       </c>
       <c r="G42" t="n">
+        <v>0.1501333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.1503866666666664</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>376312.888</v>
       </c>
       <c r="G43" t="n">
+        <v>0.1499199999999999</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.1504049999999997</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>145578.0423280423</v>
       </c>
       <c r="G44" t="n">
+        <v>0.1497866666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.1504399999999997</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>650298.6066000001</v>
       </c>
       <c r="G45" t="n">
+        <v>0.1495399999999999</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.1504699999999997</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>397830.3491</v>
       </c>
       <c r="G46" t="n">
+        <v>0.1493133333333332</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.1504983333333331</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>100000</v>
       </c>
       <c r="G47" t="n">
+        <v>0.1492133333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.1504983333333331</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>945046.5882</v>
       </c>
       <c r="G48" t="n">
+        <v>0.1491466666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.1504966666666664</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>765678.2585</v>
       </c>
       <c r="G49" t="n">
+        <v>0.1491466666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.1505149999999998</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>221471.4447</v>
       </c>
       <c r="G50" t="n">
+        <v>0.1494599999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.1505316666666665</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>155452.8715</v>
       </c>
       <c r="G51" t="n">
+        <v>0.1497733333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.1505483333333331</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>4843.4912</v>
       </c>
       <c r="G52" t="n">
+        <v>0.1500866666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.1505666666666665</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>9068668.197699999</v>
       </c>
       <c r="G53" t="n">
+        <v>0.1498599999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.1505266666666665</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1673910.2839</v>
       </c>
       <c r="G54" t="n">
+        <v>0.1498866666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.1505383333333332</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>303057.9173</v>
       </c>
       <c r="G55" t="n">
+        <v>0.1499666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.1505383333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>138578.0423</v>
       </c>
       <c r="G56" t="n">
+        <v>0.1497066666666665</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.1504733333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>3156638.1621</v>
       </c>
       <c r="G57" t="n">
+        <v>0.1497066666666665</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.1504533333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>380036.5594</v>
       </c>
       <c r="G58" t="n">
+        <v>0.1497066666666665</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.1504333333333332</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>234423.220578486</v>
       </c>
       <c r="G59" t="n">
+        <v>0.1496666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.1504399999999999</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>82941.45110000001</v>
       </c>
       <c r="G60" t="n">
+        <v>0.1496599999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.1504466666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>1458225.3402</v>
       </c>
       <c r="G61" t="n">
+        <v>0.1496599999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.1504549999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>1261622.0533</v>
       </c>
       <c r="G62" t="n">
+        <v>0.1496999999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.1504483333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>2047342.5728</v>
       </c>
       <c r="G63" t="n">
+        <v>0.1496999999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.1504466666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>2.1513944223108e-05</v>
       </c>
       <c r="G64" t="n">
+        <v>0.1497399999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.1504549999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>614383.3596224624</v>
       </c>
       <c r="G65" t="n">
+        <v>0.1499399999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.1505016666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>1825228.5787</v>
       </c>
       <c r="G66" t="n">
+        <v>0.1499799999999998</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.1505083333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>14666.7407</v>
       </c>
       <c r="G67" t="n">
+        <v>0.1501533333333332</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.1505499999999999</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>252714</v>
       </c>
       <c r="G68" t="n">
+        <v>0.1504066666666665</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.1505366666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>167005.7308</v>
       </c>
       <c r="G69" t="n">
+        <v>0.1504533333333332</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.1505233333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>19834578.267</v>
       </c>
       <c r="G70" t="n">
+        <v>0.1505799999999999</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.1505349999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>5187376</v>
       </c>
       <c r="G71" t="n">
+        <v>0.1508933333333332</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.1505483333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1407734.25</v>
       </c>
       <c r="G72" t="n">
+        <v>0.1509133333333332</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.1505333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>1030000</v>
       </c>
       <c r="G73" t="n">
+        <v>0.1509133333333332</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.1505133333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>6512888.0793</v>
       </c>
       <c r="G74" t="n">
+        <v>0.1507466666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.1504616666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>2896014</v>
       </c>
       <c r="G75" t="n">
+        <v>0.1505733333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.1504083333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>881009.3478</v>
       </c>
       <c r="G76" t="n">
+        <v>0.1503999999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.1503416666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>15307571.5703</v>
       </c>
       <c r="G77" t="n">
+        <v>0.1502266666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.150305</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>22469261.0919</v>
       </c>
       <c r="G78" t="n">
+        <v>0.1500933333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.1502683333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>336710</v>
       </c>
       <c r="G79" t="n">
+        <v>0.14992</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.1502016666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>20212.981</v>
       </c>
       <c r="G80" t="n">
+        <v>0.1495933333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.15016</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>2009875.0243</v>
       </c>
       <c r="G81" t="n">
+        <v>0.1494266666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.1501166666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>66712.9509</v>
       </c>
       <c r="G82" t="n">
+        <v>0.1492533333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.1501066666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>212465.8354</v>
       </c>
       <c r="G83" t="n">
+        <v>0.1492333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.1500733333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>7711.7271</v>
       </c>
       <c r="G84" t="n">
+        <v>0.1490933333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.15003</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>137000.0994</v>
       </c>
       <c r="G85" t="n">
-        <v>0.15</v>
+        <v>0.1489666666666666</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>746675.8636</v>
       </c>
       <c r="G86" t="n">
+        <v>0.14872</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.1499166666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>8412.690399999999</v>
       </c>
       <c r="G87" t="n">
+        <v>0.14858</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.1498333333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>100000</v>
       </c>
       <c r="G88" t="n">
+        <v>0.1484466666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.1497466666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>42635.0366</v>
       </c>
       <c r="G89" t="n">
+        <v>0.14844</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.1496599999999999</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>1437401.4394</v>
       </c>
       <c r="G90" t="n">
+        <v>0.14844</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.1495533333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>2388656.2224</v>
       </c>
       <c r="G91" t="n">
+        <v>0.14844</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.1494533333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>4410.721</v>
       </c>
       <c r="G92" t="n">
+        <v>0.1485666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.1494266666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>41134.5552</v>
       </c>
       <c r="G93" t="n">
+        <v>0.1486933333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.1494083333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>1926359.2888</v>
       </c>
       <c r="G94" t="n">
+        <v>0.1486866666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.1493733333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>83403.4687</v>
       </c>
       <c r="G95" t="n">
+        <v>0.14868</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.1494183333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>258106.5979</v>
       </c>
       <c r="G96" t="n">
+        <v>0.1486466666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.1494566666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>4777957</v>
       </c>
       <c r="G97" t="n">
+        <v>0.14848</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.1494933333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>1093.6834</v>
       </c>
       <c r="G98" t="n">
+        <v>0.1483133333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.1494533333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>88214.837</v>
       </c>
       <c r="G99" t="n">
+        <v>0.1482333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.1494166666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>16254.7071</v>
       </c>
       <c r="G100" t="n">
+        <v>0.1479066666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.149355</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,25 @@
         <v>20283.6637</v>
       </c>
       <c r="G101" t="n">
+        <v>0.14786</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.149295</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.1451</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.1451</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4257,29 @@
         <v>4300907.9675</v>
       </c>
       <c r="G102" t="n">
+        <v>0.1478133333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.1492533333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.1475</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.1451</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4303,27 @@
         <v>2401006.3871</v>
       </c>
       <c r="G103" t="n">
+        <v>0.14778</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.1492116666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>0.1451</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4347,21 @@
         <v>6747.0568</v>
       </c>
       <c r="G104" t="n">
+        <v>0.1478</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.1491633333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4385,21 @@
         <v>395541.0328</v>
       </c>
       <c r="G105" t="n">
+        <v>0.1478199999999999</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.1491233333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4423,21 @@
         <v>217966.6985</v>
       </c>
       <c r="G106" t="n">
+        <v>0.1477399999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.14906</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4461,21 @@
         <v>218824.4059</v>
       </c>
       <c r="G107" t="n">
+        <v>0.1476466666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.149035</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4499,21 @@
         <v>6230</v>
       </c>
       <c r="G108" t="n">
+        <v>0.1474466666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.1489833333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4537,21 @@
         <v>20190343.1746</v>
       </c>
       <c r="G109" t="n">
+        <v>0.1473933333333332</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.148935</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4575,21 @@
         <v>6354553.7071</v>
       </c>
       <c r="G110" t="n">
+        <v>0.1473399999999999</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.1488883333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,22 +4613,21 @@
         <v>1987364.8538</v>
       </c>
       <c r="G111" t="n">
+        <v>0.1474066666666665</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.148865</v>
       </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1471</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.1471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4302,26 +4651,21 @@
         <v>28017.3915</v>
       </c>
       <c r="G112" t="n">
+        <v>0.1474666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.1488383333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1485</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.1471</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4345,26 +4689,21 @@
         <v>564252.9271</v>
       </c>
       <c r="G113" t="n">
+        <v>0.1475533333333332</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.1488766666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1484</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.1471</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,18 +4727,21 @@
         <v>461799.5492</v>
       </c>
       <c r="G114" t="n">
+        <v>0.1476733333333332</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.1488633333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,18 +4765,21 @@
         <v>33373.7754</v>
       </c>
       <c r="G115" t="n">
+        <v>0.1479266666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>0.148845</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,18 +4803,21 @@
         <v>15275479.5188</v>
       </c>
       <c r="G116" t="n">
+        <v>0.1480933333333332</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.1488916666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,18 +4841,21 @@
         <v>454653.6815</v>
       </c>
       <c r="G117" t="n">
+        <v>0.1482599999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>0.1488916666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,18 +4879,21 @@
         <v>19943.4746</v>
       </c>
       <c r="G118" t="n">
+        <v>0.1484266666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>0.1488916666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4563,18 +4917,21 @@
         <v>74776.1303</v>
       </c>
       <c r="G119" t="n">
+        <v>0.1485399999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>0.1488816666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,18 +4955,21 @@
         <v>64373.526</v>
       </c>
       <c r="G120" t="n">
+        <v>0.1485533333333332</v>
+      </c>
+      <c r="H120" t="n">
         <v>0.1488466666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4633,18 +4993,21 @@
         <v>846328.108</v>
       </c>
       <c r="G121" t="n">
+        <v>0.1486666666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>0.1488116666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,18 +5031,21 @@
         <v>206815.554</v>
       </c>
       <c r="G122" t="n">
+        <v>0.1486666666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>0.1487766666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,18 +5069,21 @@
         <v>310493.1479</v>
       </c>
       <c r="G123" t="n">
+        <v>0.1487733333333332</v>
+      </c>
+      <c r="H123" t="n">
         <v>0.1487516666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4738,18 +5107,21 @@
         <v>1620000</v>
       </c>
       <c r="G124" t="n">
+        <v>0.1488599999999999</v>
+      </c>
+      <c r="H124" t="n">
         <v>0.148715</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4773,18 +5145,21 @@
         <v>217633.8359</v>
       </c>
       <c r="G125" t="n">
+        <v>0.1489533333333332</v>
+      </c>
+      <c r="H125" t="n">
         <v>0.1486416666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,18 +5183,25 @@
         <v>299946.984</v>
       </c>
       <c r="G126" t="n">
+        <v>0.1489533333333332</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.1486083333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4843,18 +5225,29 @@
         <v>1239828.9551</v>
       </c>
       <c r="G127" t="n">
+        <v>0.1489599999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>0.14854</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,18 +5271,29 @@
         <v>18889.5464</v>
       </c>
       <c r="G128" t="n">
+        <v>0.1489333333333332</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.1485083333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4913,18 +5317,29 @@
         <v>481972.5917</v>
       </c>
       <c r="G129" t="n">
+        <v>0.1489133333333332</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.1484783333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4948,18 +5363,29 @@
         <v>1000300.09</v>
       </c>
       <c r="G130" t="n">
+        <v>0.1488866666666665</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.1484216666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4983,18 +5409,29 @@
         <v>420234.0702</v>
       </c>
       <c r="G131" t="n">
+        <v>0.1487866666666665</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.1483650000000001</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,18 +5455,27 @@
         <v>1026052.4763</v>
       </c>
       <c r="G132" t="n">
+        <v>0.1486799999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.1483333333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5053,18 +5499,29 @@
         <v>2754242.2139</v>
       </c>
       <c r="G133" t="n">
+        <v>0.1485799999999999</v>
+      </c>
+      <c r="H133" t="n">
         <v>0.1483083333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,18 +5545,29 @@
         <v>120153.5163</v>
       </c>
       <c r="G134" t="n">
+        <v>0.1484733333333332</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.1483133333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5123,18 +5591,27 @@
         <v>2663155.8528</v>
       </c>
       <c r="G135" t="n">
+        <v>0.1485666666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.1483450000000001</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5158,18 +5635,27 @@
         <v>100524.8877</v>
       </c>
       <c r="G136" t="n">
+        <v>0.1486666666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.1483783333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5193,18 +5679,27 @@
         <v>1033143.603905832</v>
       </c>
       <c r="G137" t="n">
+        <v>0.1487666666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>0.1484116666666668</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,18 +5723,27 @@
         <v>1136341.7982</v>
       </c>
       <c r="G138" t="n">
+        <v>0.1488666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.1484450000000001</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5263,18 +5767,27 @@
         <v>332529.5428</v>
       </c>
       <c r="G139" t="n">
+        <v>0.1489733333333332</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.1484783333333335</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,18 +5811,27 @@
         <v>7874.7797</v>
       </c>
       <c r="G140" t="n">
+        <v>0.1490733333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.1485116666666668</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5333,18 +5855,27 @@
         <v>681386.1699</v>
       </c>
       <c r="G141" t="n">
+        <v>0.1491733333333332</v>
+      </c>
+      <c r="H141" t="n">
         <v>0.1485450000000002</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5368,18 +5899,27 @@
         <v>538577.6733</v>
       </c>
       <c r="G142" t="n">
+        <v>0.1492733333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.1485450000000002</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5403,18 +5943,27 @@
         <v>110026.7861</v>
       </c>
       <c r="G143" t="n">
+        <v>0.1494533333333332</v>
+      </c>
+      <c r="H143" t="n">
         <v>0.1485633333333335</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,18 +5987,27 @@
         <v>969798.2872</v>
       </c>
       <c r="G144" t="n">
+        <v>0.1496266666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>0.1486116666666668</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5473,18 +6031,27 @@
         <v>1347522</v>
       </c>
       <c r="G145" t="n">
+        <v>0.1497999999999999</v>
+      </c>
+      <c r="H145" t="n">
         <v>0.1486300000000002</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,18 +6075,27 @@
         <v>200000</v>
       </c>
       <c r="G146" t="n">
+        <v>0.1500333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>0.1486933333333335</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5543,18 +6119,27 @@
         <v>2895523.3183</v>
       </c>
       <c r="G147" t="n">
+        <v>0.1502733333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.1487566666666668</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,18 +6163,27 @@
         <v>183714.1831</v>
       </c>
       <c r="G148" t="n">
+        <v>0.1505</v>
+      </c>
+      <c r="H148" t="n">
         <v>0.1488216666666668</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5613,18 +6207,27 @@
         <v>10966</v>
       </c>
       <c r="G149" t="n">
+        <v>0.1507333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.1488866666666668</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,18 +6251,27 @@
         <v>26113</v>
       </c>
       <c r="G150" t="n">
+        <v>0.1508666666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>0.1489516666666668</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5683,18 +6295,27 @@
         <v>10321.9206</v>
       </c>
       <c r="G151" t="n">
+        <v>0.1509933333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>0.1490166666666668</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5718,18 +6339,27 @@
         <v>0.0001</v>
       </c>
       <c r="G152" t="n">
+        <v>0.1511266666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>0.1490516666666668</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5753,18 +6383,27 @@
         <v>280514.4157199351</v>
       </c>
       <c r="G153" t="n">
+        <v>0.1513933333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>0.1491200000000001</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5788,18 +6427,27 @@
         <v>375094.9446</v>
       </c>
       <c r="G154" t="n">
+        <v>0.1515599999999999</v>
+      </c>
+      <c r="H154" t="n">
         <v>0.1491966666666668</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5823,18 +6471,27 @@
         <v>324074.0740740741</v>
       </c>
       <c r="G155" t="n">
+        <v>0.15182</v>
+      </c>
+      <c r="H155" t="n">
         <v>0.1492966666666668</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5858,18 +6515,27 @@
         <v>4000000</v>
       </c>
       <c r="G156" t="n">
+        <v>0.1519666666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>0.1493750000000001</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5893,18 +6559,27 @@
         <v>888890.4059</v>
       </c>
       <c r="G157" t="n">
+        <v>0.1521</v>
+      </c>
+      <c r="H157" t="n">
         <v>0.1494500000000001</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5928,18 +6603,27 @@
         <v>318776.071</v>
       </c>
       <c r="G158" t="n">
+        <v>0.1522866666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>0.1495566666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5963,18 +6647,27 @@
         <v>307023.6194</v>
       </c>
       <c r="G159" t="n">
+        <v>0.1524733333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>0.1496716666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5998,18 +6691,27 @@
         <v>22391.16309291748</v>
       </c>
       <c r="G160" t="n">
+        <v>0.15266</v>
+      </c>
+      <c r="H160" t="n">
         <v>0.1498183333333334</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6033,18 +6735,27 @@
         <v>35682</v>
       </c>
       <c r="G161" t="n">
+        <v>0.1527933333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>0.1499266666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6068,18 +6779,27 @@
         <v>2380293.6467</v>
       </c>
       <c r="G162" t="n">
+        <v>0.1528066666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>0.1500050000000001</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6103,18 +6823,27 @@
         <v>100000</v>
       </c>
       <c r="G163" t="n">
+        <v>0.1528266666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>0.1500833333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,18 +6867,27 @@
         <v>101581.3032</v>
       </c>
       <c r="G164" t="n">
+        <v>0.1528466666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>0.1501483333333334</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6173,18 +6911,27 @@
         <v>5020.7165</v>
       </c>
       <c r="G165" t="n">
+        <v>0.15298</v>
+      </c>
+      <c r="H165" t="n">
         <v>0.1502416666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,18 +6955,27 @@
         <v>1358710.6956</v>
       </c>
       <c r="G166" t="n">
+        <v>0.1531133333333334</v>
+      </c>
+      <c r="H166" t="n">
         <v>0.15036</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6243,18 +6999,27 @@
         <v>182770.444</v>
       </c>
       <c r="G167" t="n">
+        <v>0.1532466666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>0.1504516666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6278,18 +7043,27 @@
         <v>91585.7758</v>
       </c>
       <c r="G168" t="n">
+        <v>0.1532466666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>0.15057</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,19 +7087,28 @@
         <v>20644.879</v>
       </c>
       <c r="G169" t="n">
+        <v>0.1533400000000001</v>
+      </c>
+      <c r="H169" t="n">
         <v>0.1506833333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
+      <c r="L169" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1.031363636363636</v>
       </c>
     </row>
     <row r="170">
@@ -6348,18 +7131,21 @@
         <v>292956.3372</v>
       </c>
       <c r="G170" t="n">
+        <v>0.1532200000000001</v>
+      </c>
+      <c r="H170" t="n">
         <v>0.1507666666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6383,18 +7169,21 @@
         <v>12354</v>
       </c>
       <c r="G171" t="n">
+        <v>0.1533333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>0.1508566666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6418,18 +7207,21 @@
         <v>504110.908</v>
       </c>
       <c r="G172" t="n">
+        <v>0.15346</v>
+      </c>
+      <c r="H172" t="n">
         <v>0.1509483333333334</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6453,18 +7245,21 @@
         <v>4082931.308</v>
       </c>
       <c r="G173" t="n">
+        <v>0.1534666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>0.151035</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6488,18 +7283,21 @@
         <v>3358253.9444</v>
       </c>
       <c r="G174" t="n">
+        <v>0.1535066666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>0.15113</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6523,18 +7321,21 @@
         <v>2010668.0029</v>
       </c>
       <c r="G175" t="n">
+        <v>0.1534533333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>0.1512000000000001</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6558,18 +7359,21 @@
         <v>1759551</v>
       </c>
       <c r="G176" t="n">
+        <v>0.1533933333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>0.1512516666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6593,18 +7397,21 @@
         <v>1707543</v>
       </c>
       <c r="G177" t="n">
+        <v>0.1534666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>0.1513066666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6628,18 +7435,21 @@
         <v>3453493.7736</v>
       </c>
       <c r="G178" t="n">
+        <v>0.15362</v>
+      </c>
+      <c r="H178" t="n">
         <v>0.1513816666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6663,18 +7473,21 @@
         <v>3228172.2877</v>
       </c>
       <c r="G179" t="n">
+        <v>0.1537733333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>0.1514566666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6698,18 +7511,21 @@
         <v>155000</v>
       </c>
       <c r="G180" t="n">
+        <v>0.1538133333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>0.1515566666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6733,18 +7549,21 @@
         <v>6470716.94</v>
       </c>
       <c r="G181" t="n">
+        <v>0.1538533333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>0.1516566666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,18 +7587,21 @@
         <v>1103667.7635</v>
       </c>
       <c r="G182" t="n">
+        <v>0.1538866666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>0.1517566666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6803,18 +7625,21 @@
         <v>50000</v>
       </c>
       <c r="G183" t="n">
+        <v>0.15392</v>
+      </c>
+      <c r="H183" t="n">
         <v>0.1518566666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6838,18 +7663,401 @@
         <v>250000</v>
       </c>
       <c r="G184" t="n">
+        <v>0.15388</v>
+      </c>
+      <c r="H184" t="n">
         <v>0.1519383333333334</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1612361.5069</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.15396</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.1520183333333334</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.1534</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.1534</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.1534</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.1534</v>
+      </c>
+      <c r="F186" t="n">
+        <v>5335001.8683</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.1539266666666667</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.1521</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F187" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.1539333333333333</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.1521916666666667</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F188" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.1539333333333333</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.152285</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F189" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.1523766666666667</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F190" t="n">
+        <v>307919.5517</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.15396</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.1524683333333333</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F191" t="n">
+        <v>325000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.1540199999999999</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.15256</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F192" t="n">
+        <v>192207.7922077922</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.1540666666666666</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.1526533333333333</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="F193" t="n">
+        <v>264902.0074</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.1540266666666666</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.1527433333333333</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.1532</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.1532</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.1532</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.1532</v>
+      </c>
+      <c r="F194" t="n">
+        <v>969336.8406</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.1539399999999999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.1528233333333333</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest NPXS.xlsx
+++ b/BackTest/2020-01-16 BackTest NPXS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1525</v>
+        <v>0.1512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1525</v>
+        <v>0.1512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1525</v>
+        <v>0.1512</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1525</v>
+        <v>0.1512</v>
       </c>
       <c r="F2" t="n">
-        <v>173792.4696</v>
+        <v>6569331.7387</v>
       </c>
       <c r="G2" t="n">
-        <v>13295660.79625081</v>
+        <v>13237967.0965508</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1525</v>
+        <v>0.1512</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1525</v>
+        <v>0.152</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1525</v>
+        <v>0.152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1525</v>
+        <v>0.1512</v>
       </c>
       <c r="F3" t="n">
-        <v>540902.5632</v>
+        <v>3550</v>
       </c>
       <c r="G3" t="n">
-        <v>13295660.79625081</v>
+        <v>13241517.0965508</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1525</v>
+        <v>0.1502</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1531</v>
+        <v>0.1502</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1531</v>
+        <v>0.1502</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1525</v>
+        <v>0.1502</v>
       </c>
       <c r="F4" t="n">
-        <v>26402.1284</v>
+        <v>542019</v>
       </c>
       <c r="G4" t="n">
-        <v>13322062.92465081</v>
+        <v>12699498.0965508</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.153</v>
+        <v>0.1502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.153</v>
+        <v>0.1502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.153</v>
+        <v>0.1502</v>
       </c>
       <c r="E5" t="n">
-        <v>0.153</v>
+        <v>0.1502</v>
       </c>
       <c r="F5" t="n">
-        <v>106694.15</v>
+        <v>5080674.1026</v>
       </c>
       <c r="G5" t="n">
-        <v>13215368.77465081</v>
+        <v>12699498.0965508</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.153</v>
+        <v>0.152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1522</v>
+        <v>0.152</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153</v>
+        <v>0.152</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1522</v>
+        <v>0.152</v>
       </c>
       <c r="F6" t="n">
-        <v>17292.9122</v>
+        <v>3550</v>
       </c>
       <c r="G6" t="n">
-        <v>13198075.86245081</v>
+        <v>12703048.0965508</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1512</v>
+        <v>0.1505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1512</v>
+        <v>0.1505</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1512</v>
+        <v>0.1505</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1512</v>
+        <v>0.1505</v>
       </c>
       <c r="F7" t="n">
-        <v>9582</v>
+        <v>5060423.7924</v>
       </c>
       <c r="G7" t="n">
-        <v>13188493.86245081</v>
+        <v>7642624.304150804</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1508</v>
+        <v>0.1506</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1508</v>
+        <v>0.1506</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1508</v>
+        <v>0.1506</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1508</v>
+        <v>0.1506</v>
       </c>
       <c r="F8" t="n">
-        <v>118988.6144</v>
+        <v>21151</v>
       </c>
       <c r="G8" t="n">
-        <v>13069505.24805081</v>
+        <v>7663775.304150804</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1507</v>
+        <v>0.1506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1507</v>
+        <v>0.1506</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1507</v>
+        <v>0.1506</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1507</v>
+        <v>0.1506</v>
       </c>
       <c r="F9" t="n">
-        <v>262136.6409</v>
+        <v>1374819.6034</v>
       </c>
       <c r="G9" t="n">
-        <v>12807368.60715081</v>
+        <v>7663775.304150804</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1505</v>
+        <v>0.1512</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1505</v>
+        <v>0.152</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1505</v>
+        <v>0.152</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1505</v>
+        <v>0.1507</v>
       </c>
       <c r="F10" t="n">
-        <v>56884.6491</v>
+        <v>20163003.5294</v>
       </c>
       <c r="G10" t="n">
-        <v>12750483.95805081</v>
+        <v>27826778.8335508</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1503</v>
+        <v>0.152</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1503</v>
+        <v>0.1508</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1503</v>
+        <v>0.1532</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1503</v>
+        <v>0.1508</v>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>5936895.167</v>
       </c>
       <c r="G11" t="n">
-        <v>12740483.95805081</v>
+        <v>21889883.6665508</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.15</v>
+        <v>0.1508</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1489</v>
+        <v>0.1518</v>
       </c>
       <c r="D12" t="n">
-        <v>0.15</v>
+        <v>0.1518</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1489</v>
+        <v>0.1508</v>
       </c>
       <c r="F12" t="n">
-        <v>3770623.8742</v>
+        <v>10187777.8422</v>
       </c>
       <c r="G12" t="n">
-        <v>8969860.083850808</v>
+        <v>32077661.5087508</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1491</v>
+        <v>0.1518</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1491</v>
+        <v>0.1532</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1491</v>
+        <v>0.1532</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1491</v>
+        <v>0.1518</v>
       </c>
       <c r="F13" t="n">
-        <v>47528.7509</v>
+        <v>16406</v>
       </c>
       <c r="G13" t="n">
-        <v>9017388.834750809</v>
+        <v>32094067.5087508</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1489</v>
+        <v>0.1532</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1489</v>
+        <v>0.1532</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1489</v>
+        <v>0.1532</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1489</v>
+        <v>0.1532</v>
       </c>
       <c r="F14" t="n">
-        <v>594858.7681</v>
+        <v>1349975.1817</v>
       </c>
       <c r="G14" t="n">
-        <v>8422530.066650808</v>
+        <v>32094067.5087508</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1489</v>
+        <v>0.1545</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1489</v>
+        <v>0.1532</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1489</v>
+        <v>0.1545</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1489</v>
+        <v>0.1532</v>
       </c>
       <c r="F15" t="n">
-        <v>5370766.9247</v>
+        <v>56022.6022</v>
       </c>
       <c r="G15" t="n">
-        <v>8422530.066650808</v>
+        <v>32094067.5087508</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.15</v>
+        <v>0.1531</v>
       </c>
       <c r="C16" t="n">
-        <v>0.15</v>
+        <v>0.1532</v>
       </c>
       <c r="D16" t="n">
-        <v>0.15</v>
+        <v>0.1532</v>
       </c>
       <c r="E16" t="n">
-        <v>0.15</v>
+        <v>0.1531</v>
       </c>
       <c r="F16" t="n">
-        <v>3641093.3998</v>
+        <v>4498569.6696</v>
       </c>
       <c r="G16" t="n">
-        <v>12063623.46645081</v>
+        <v>32094067.5087508</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1501</v>
+        <v>0.1544</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1501</v>
+        <v>0.1544</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1501</v>
+        <v>0.1544</v>
       </c>
       <c r="E17" t="n">
-        <v>0.15</v>
+        <v>0.1544</v>
       </c>
       <c r="F17" t="n">
-        <v>898940.6967</v>
+        <v>14630055.5444</v>
       </c>
       <c r="G17" t="n">
-        <v>12962564.16315081</v>
+        <v>46724123.0531508</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1489</v>
+        <v>0.154</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1489</v>
+        <v>0.154</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1489</v>
+        <v>0.154</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1489</v>
+        <v>0.154</v>
       </c>
       <c r="F18" t="n">
-        <v>285800</v>
+        <v>2043661.0983</v>
       </c>
       <c r="G18" t="n">
-        <v>12676764.16315081</v>
+        <v>44680461.9548508</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1489</v>
+        <v>0.1515</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1489</v>
+        <v>0.1515</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1489</v>
+        <v>0.1515</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1489</v>
+        <v>0.1515</v>
       </c>
       <c r="F19" t="n">
-        <v>10525316.5872</v>
+        <v>1114742.6348</v>
       </c>
       <c r="G19" t="n">
-        <v>12676764.16315081</v>
+        <v>43565719.3200508</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,67 +1079,65 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1489</v>
+        <v>0.151</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1489</v>
+        <v>0.151</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1489</v>
+        <v>0.151</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1489</v>
+        <v>0.151</v>
       </c>
       <c r="F20" t="n">
-        <v>7712884.9144</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="n">
-        <v>12676764.16315081</v>
+        <v>43515719.3200508</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1489</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1489</v>
+        <v>0.151</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1489</v>
+        <v>0.15</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1489</v>
+        <v>0.151</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1489</v>
+        <v>0.15</v>
       </c>
       <c r="F21" t="n">
-        <v>3209640.2607</v>
+        <v>6970841.3598</v>
       </c>
       <c r="G21" t="n">
-        <v>12676764.16315081</v>
+        <v>36544877.96025079</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1126,39 +1146,34 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.147</v>
+        <v>0.1452</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1489</v>
+        <v>0.1452</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1489</v>
+        <v>0.1452</v>
       </c>
       <c r="E22" t="n">
-        <v>0.147</v>
+        <v>0.1452</v>
       </c>
       <c r="F22" t="n">
-        <v>33510698.6793</v>
+        <v>88158.3836</v>
       </c>
       <c r="G22" t="n">
-        <v>12676764.16315081</v>
+        <v>36456719.5766508</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1167,39 +1182,34 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1489</v>
+        <v>0.1452</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1489</v>
+        <v>0.1452</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1489</v>
+        <v>0.1452</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1489</v>
+        <v>0.1452</v>
       </c>
       <c r="F23" t="n">
-        <v>2699955.7212</v>
+        <v>97073.519</v>
       </c>
       <c r="G23" t="n">
-        <v>12676764.16315081</v>
+        <v>36456719.5766508</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1208,123 +1218,110 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1499</v>
+        <v>0.1453</v>
       </c>
       <c r="C24" t="n">
-        <v>0.15</v>
+        <v>0.1453</v>
       </c>
       <c r="D24" t="n">
-        <v>0.15</v>
+        <v>0.1453</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1499</v>
+        <v>0.1453</v>
       </c>
       <c r="F24" t="n">
-        <v>658710.6967</v>
+        <v>665341.5285</v>
       </c>
       <c r="G24" t="n">
-        <v>13335474.85985081</v>
+        <v>37122061.1051508</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.15</v>
+        <v>0.1454</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1511</v>
+        <v>0.1499</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1511</v>
+        <v>0.1499</v>
       </c>
       <c r="E25" t="n">
-        <v>0.15</v>
+        <v>0.1454</v>
       </c>
       <c r="F25" t="n">
-        <v>285885.7657</v>
+        <v>3370144.0502</v>
       </c>
       <c r="G25" t="n">
-        <v>13621360.6255508</v>
+        <v>40492205.1553508</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.1453</v>
+      </c>
       <c r="K25" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.1453</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1512</v>
+        <v>0.1492</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1512</v>
+        <v>0.1492</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1512</v>
+        <v>0.1492</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1512</v>
+        <v>0.1492</v>
       </c>
       <c r="F26" t="n">
-        <v>562653.1405</v>
+        <v>322111.6334</v>
       </c>
       <c r="G26" t="n">
-        <v>14184013.7660508</v>
+        <v>40170093.5219508</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1334,38 +1331,39 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>0.1489</v>
+        <v>0.1453</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1512</v>
+        <v>0.1488</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1512</v>
+        <v>0.1488</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1512</v>
+        <v>0.1488</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1512</v>
+        <v>0.1488</v>
       </c>
       <c r="F27" t="n">
-        <v>616390.9172</v>
+        <v>3178572.4651</v>
       </c>
       <c r="G27" t="n">
-        <v>14184013.7660508</v>
+        <v>36991521.0568508</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1375,38 +1373,39 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>0.1489</v>
+        <v>0.1453</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1502</v>
+        <v>0.1488</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1502</v>
+        <v>0.1511</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1502</v>
+        <v>0.1511</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1502</v>
+        <v>0.1488</v>
       </c>
       <c r="F28" t="n">
-        <v>681472</v>
+        <v>1004474.5497</v>
       </c>
       <c r="G28" t="n">
-        <v>13502541.7660508</v>
+        <v>37995995.6065508</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1415,39 +1414,34 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1502</v>
+        <v>0.1488</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1502</v>
+        <v>0.15</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1502</v>
+        <v>0.15</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1502</v>
+        <v>0.1488</v>
       </c>
       <c r="F29" t="n">
-        <v>6260124.423</v>
+        <v>376312.888</v>
       </c>
       <c r="G29" t="n">
-        <v>13502541.7660508</v>
+        <v>37619682.7185508</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1456,39 +1450,34 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="F30" t="n">
-        <v>6247436.7807</v>
+        <v>376312.888</v>
       </c>
       <c r="G30" t="n">
-        <v>7255104.985350804</v>
+        <v>37619682.7185508</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1497,39 +1486,34 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.151</v>
+        <v>0.1522</v>
       </c>
       <c r="C31" t="n">
-        <v>0.151</v>
+        <v>0.1512</v>
       </c>
       <c r="D31" t="n">
-        <v>0.151</v>
+        <v>0.1522</v>
       </c>
       <c r="E31" t="n">
-        <v>0.151</v>
+        <v>0.1512</v>
       </c>
       <c r="F31" t="n">
-        <v>350000</v>
+        <v>145578.0423280423</v>
       </c>
       <c r="G31" t="n">
-        <v>7605104.985350804</v>
+        <v>37765260.76087885</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1538,39 +1522,34 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1501</v>
+        <v>0.1506</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1501</v>
+        <v>0.1507</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1501</v>
+        <v>0.1507</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1501</v>
+        <v>0.1506</v>
       </c>
       <c r="F32" t="n">
-        <v>1696348.5</v>
+        <v>650298.6066000001</v>
       </c>
       <c r="G32" t="n">
-        <v>5908756.485350804</v>
+        <v>37114962.15427884</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1579,39 +1558,34 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1501</v>
+        <v>0.1505</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1501</v>
+        <v>0.1506</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1511</v>
+        <v>0.1506</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1501</v>
+        <v>0.1505</v>
       </c>
       <c r="F33" t="n">
-        <v>4082995.3415</v>
+        <v>397830.3491</v>
       </c>
       <c r="G33" t="n">
-        <v>5908756.485350804</v>
+        <v>36717131.80517884</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1620,17 +1594,12 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1640,19 +1609,19 @@
         <v>0.1502</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="D34" t="n">
         <v>0.1502</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="F34" t="n">
-        <v>264784.5766</v>
+        <v>100000</v>
       </c>
       <c r="G34" t="n">
-        <v>5908756.485350804</v>
+        <v>36617131.80517884</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1661,39 +1630,34 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="F35" t="n">
-        <v>1728083.7381</v>
+        <v>945046.5882</v>
       </c>
       <c r="G35" t="n">
-        <v>5908756.485350804</v>
+        <v>36617131.80517884</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1702,39 +1666,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="D36" t="n">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1501</v>
+        <v>0.15</v>
       </c>
       <c r="F36" t="n">
-        <v>902382.9999000001</v>
+        <v>765678.2585</v>
       </c>
       <c r="G36" t="n">
-        <v>5908756.485350804</v>
+        <v>36617131.80517884</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1743,39 +1702,34 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1511</v>
+        <v>0.1499</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1511</v>
+        <v>0.1499</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1511</v>
+        <v>0.1499</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1511</v>
+        <v>0.1499</v>
       </c>
       <c r="F37" t="n">
-        <v>8630340.3178</v>
+        <v>221471.4447</v>
       </c>
       <c r="G37" t="n">
-        <v>14539096.8031508</v>
+        <v>36395660.36047884</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1784,39 +1738,34 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1511</v>
+        <v>0.1498</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1511</v>
+        <v>0.1499</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1511</v>
+        <v>0.1499</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1511</v>
+        <v>0.1498</v>
       </c>
       <c r="F38" t="n">
-        <v>7123200.9999</v>
+        <v>155452.8715</v>
       </c>
       <c r="G38" t="n">
-        <v>14539096.8031508</v>
+        <v>36395660.36047884</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1825,131 +1774,130 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="F39" t="n">
-        <v>3500</v>
+        <v>4843.4912</v>
       </c>
       <c r="G39" t="n">
-        <v>14542596.8031508</v>
+        <v>36400503.85167884</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.1499</v>
+      </c>
       <c r="K39" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.1499</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1511</v>
+        <v>0.1466</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1511</v>
+        <v>0.1465</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1511</v>
+        <v>0.1466</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1511</v>
+        <v>0.1465</v>
       </c>
       <c r="F40" t="n">
-        <v>1530692.3253</v>
+        <v>9068668.197699999</v>
       </c>
       <c r="G40" t="n">
-        <v>13011904.4778508</v>
+        <v>27331835.65397884</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.15</v>
+      </c>
       <c r="K40" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.15</v>
+        <v>0.1496</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1512</v>
+        <v>0.1496</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1512</v>
+        <v>0.1496</v>
       </c>
       <c r="E41" t="n">
-        <v>0.15</v>
+        <v>0.1496</v>
       </c>
       <c r="F41" t="n">
-        <v>226062.6187</v>
+        <v>1673910.2839</v>
       </c>
       <c r="G41" t="n">
-        <v>13237967.0965508</v>
+        <v>29005745.93787884</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.1465</v>
+      </c>
       <c r="K41" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1959,38 +1907,41 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1512</v>
+        <v>0.1497</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1512</v>
+        <v>0.1497</v>
       </c>
       <c r="F42" t="n">
-        <v>659994.9201</v>
+        <v>303057.9173</v>
       </c>
       <c r="G42" t="n">
-        <v>13237967.0965508</v>
+        <v>29308803.85517884</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.1496</v>
+      </c>
       <c r="K42" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2000,38 +1951,41 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1512</v>
+        <v>0.1472</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1512</v>
+        <v>0.1472</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1512</v>
+        <v>0.1472</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1512</v>
+        <v>0.1472</v>
       </c>
       <c r="F43" t="n">
-        <v>50000</v>
+        <v>138578.0423</v>
       </c>
       <c r="G43" t="n">
-        <v>13237967.0965508</v>
+        <v>29170225.81287884</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.15</v>
+      </c>
       <c r="K43" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2041,38 +1995,41 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1512</v>
+        <v>0.1469</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1512</v>
+        <v>0.1469</v>
       </c>
       <c r="F44" t="n">
-        <v>6569331.7387</v>
+        <v>3156638.1621</v>
       </c>
       <c r="G44" t="n">
-        <v>13237967.0965508</v>
+        <v>32326863.97497884</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.1472</v>
+      </c>
       <c r="K44" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2082,38 +2039,41 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="C45" t="n">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="D45" t="n">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="F45" t="n">
-        <v>3550</v>
+        <v>380036.5594</v>
       </c>
       <c r="G45" t="n">
-        <v>13241517.0965508</v>
+        <v>32326863.97497884</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.15</v>
+      </c>
       <c r="K45" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2123,28 +2083,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1502</v>
+        <v>0.15</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1502</v>
+        <v>0.1506</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1502</v>
+        <v>0.1506</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1502</v>
+        <v>0.15</v>
       </c>
       <c r="F46" t="n">
-        <v>542019</v>
+        <v>234423.220578486</v>
       </c>
       <c r="G46" t="n">
-        <v>12699498.0965508</v>
+        <v>32561287.19555732</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2154,7 +2115,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2164,28 +2125,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1502</v>
+        <v>0.1506</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1502</v>
+        <v>0.1506</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1502</v>
+        <v>0.1506</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1502</v>
+        <v>0.1506</v>
       </c>
       <c r="F47" t="n">
-        <v>5080674.1026</v>
+        <v>82941.45110000001</v>
       </c>
       <c r="G47" t="n">
-        <v>12699498.0965508</v>
+        <v>32561287.19555732</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2195,7 +2157,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2205,28 +2167,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152</v>
+        <v>0.1506</v>
       </c>
       <c r="C48" t="n">
-        <v>0.152</v>
+        <v>0.1506</v>
       </c>
       <c r="D48" t="n">
-        <v>0.152</v>
+        <v>0.1506</v>
       </c>
       <c r="E48" t="n">
-        <v>0.152</v>
+        <v>0.1506</v>
       </c>
       <c r="F48" t="n">
-        <v>3550</v>
+        <v>1458225.3402</v>
       </c>
       <c r="G48" t="n">
-        <v>12703048.0965508</v>
+        <v>32561287.19555732</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2236,7 +2199,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2246,28 +2209,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1505</v>
+        <v>0.1506</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1505</v>
+        <v>0.1506</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1505</v>
+        <v>0.1506</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1505</v>
+        <v>0.1506</v>
       </c>
       <c r="F49" t="n">
-        <v>5060423.7924</v>
+        <v>1261622.0533</v>
       </c>
       <c r="G49" t="n">
-        <v>7642624.304150804</v>
+        <v>32561287.19555732</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2277,7 +2241,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2287,28 +2251,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1506</v>
+        <v>0.1501</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1506</v>
+        <v>0.15</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1506</v>
+        <v>0.1501</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1506</v>
+        <v>0.15</v>
       </c>
       <c r="F50" t="n">
-        <v>21151</v>
+        <v>2047342.5728</v>
       </c>
       <c r="G50" t="n">
-        <v>7663775.304150804</v>
+        <v>30513944.62275732</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2318,7 +2283,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2328,6 +2293,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2346,10 +2312,10 @@
         <v>0.1506</v>
       </c>
       <c r="F51" t="n">
-        <v>1374819.6034</v>
+        <v>2.1513944223108e-05</v>
       </c>
       <c r="G51" t="n">
-        <v>7663775.304150804</v>
+        <v>30513944.62277884</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2359,7 +2325,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2369,28 +2335,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1512</v>
+        <v>0.153</v>
       </c>
       <c r="C52" t="n">
-        <v>0.152</v>
+        <v>0.1529</v>
       </c>
       <c r="D52" t="n">
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1507</v>
+        <v>0.1529</v>
       </c>
       <c r="F52" t="n">
-        <v>20163003.5294</v>
+        <v>614383.3596224624</v>
       </c>
       <c r="G52" t="n">
-        <v>27826778.8335508</v>
+        <v>31128327.9824013</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2400,7 +2367,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2410,28 +2377,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.152</v>
+        <v>0.1506</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1508</v>
+        <v>0.1505</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1532</v>
+        <v>0.1506</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1508</v>
+        <v>0.1505</v>
       </c>
       <c r="F53" t="n">
-        <v>5936895.167</v>
+        <v>1825228.5787</v>
       </c>
       <c r="G53" t="n">
-        <v>21889883.6665508</v>
+        <v>29303099.4037013</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2441,7 +2409,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2451,28 +2419,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1508</v>
+        <v>0.1526</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1518</v>
+        <v>0.1526</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1518</v>
+        <v>0.1526</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1508</v>
+        <v>0.1526</v>
       </c>
       <c r="F54" t="n">
-        <v>10187777.8422</v>
+        <v>14666.7407</v>
       </c>
       <c r="G54" t="n">
-        <v>32077661.5087508</v>
+        <v>29317766.1444013</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2482,7 +2451,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2492,28 +2461,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1518</v>
+        <v>0.1503</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1532</v>
+        <v>0.1503</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1532</v>
+        <v>0.1503</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1518</v>
+        <v>0.1503</v>
       </c>
       <c r="F55" t="n">
-        <v>16406</v>
+        <v>252714</v>
       </c>
       <c r="G55" t="n">
-        <v>32094067.5087508</v>
+        <v>29065052.1444013</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2523,7 +2493,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2533,28 +2503,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1532</v>
+        <v>0.1503</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1532</v>
+        <v>0.1503</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1532</v>
+        <v>0.1503</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1532</v>
+        <v>0.1503</v>
       </c>
       <c r="F56" t="n">
-        <v>1349975.1817</v>
+        <v>167005.7308</v>
       </c>
       <c r="G56" t="n">
-        <v>32094067.5087508</v>
+        <v>29065052.1444013</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2564,7 +2535,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2574,28 +2545,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1545</v>
+        <v>0.1519</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1532</v>
+        <v>0.1519</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1545</v>
+        <v>0.1519</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1532</v>
+        <v>0.1519</v>
       </c>
       <c r="F57" t="n">
-        <v>56022.6022</v>
+        <v>19834578.267</v>
       </c>
       <c r="G57" t="n">
-        <v>32094067.5087508</v>
+        <v>48899630.4114013</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2605,7 +2577,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2615,28 +2587,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1531</v>
+        <v>0.1519</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1532</v>
+        <v>0.1519</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1532</v>
+        <v>0.1519</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1531</v>
+        <v>0.1519</v>
       </c>
       <c r="F58" t="n">
-        <v>4498569.6696</v>
+        <v>5187376</v>
       </c>
       <c r="G58" t="n">
-        <v>32094067.5087508</v>
+        <v>48899630.4114013</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2646,7 +2619,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2656,28 +2629,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1544</v>
+        <v>0.1519</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1544</v>
+        <v>0.1503</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1544</v>
+        <v>0.1519</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1544</v>
+        <v>0.1503</v>
       </c>
       <c r="F59" t="n">
-        <v>14630055.5444</v>
+        <v>1407734.25</v>
       </c>
       <c r="G59" t="n">
-        <v>46724123.0531508</v>
+        <v>47491896.1614013</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2687,7 +2661,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2697,28 +2671,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.154</v>
+        <v>0.1504</v>
       </c>
       <c r="C60" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="D60" t="n">
-        <v>0.154</v>
+        <v>0.1504</v>
       </c>
       <c r="E60" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="F60" t="n">
-        <v>2043661.0983</v>
+        <v>1030000</v>
       </c>
       <c r="G60" t="n">
-        <v>44680461.9548508</v>
+        <v>46461896.1614013</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2728,7 +2703,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2738,28 +2713,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1515</v>
+        <v>0.1483</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1515</v>
+        <v>0.1481</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1515</v>
+        <v>0.1483</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1515</v>
+        <v>0.148</v>
       </c>
       <c r="F61" t="n">
-        <v>1114742.6348</v>
+        <v>6512888.0793</v>
       </c>
       <c r="G61" t="n">
-        <v>43565719.3200508</v>
+        <v>39949008.0821013</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2769,7 +2745,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2779,28 +2755,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
       <c r="C62" t="n">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
       <c r="D62" t="n">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
       <c r="E62" t="n">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
       <c r="F62" t="n">
-        <v>50000</v>
+        <v>2896014</v>
       </c>
       <c r="G62" t="n">
-        <v>43515719.3200508</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2810,7 +2787,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2820,28 +2797,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
       <c r="C63" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="D63" t="n">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
       <c r="E63" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="F63" t="n">
-        <v>6970841.3598</v>
+        <v>881009.3478</v>
       </c>
       <c r="G63" t="n">
-        <v>36544877.96025079</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2851,7 +2829,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2861,28 +2839,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1452</v>
+        <v>0.148</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1452</v>
+        <v>0.148</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1452</v>
+        <v>0.148</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1452</v>
+        <v>0.148</v>
       </c>
       <c r="F64" t="n">
-        <v>88158.3836</v>
+        <v>15307571.5703</v>
       </c>
       <c r="G64" t="n">
-        <v>36456719.5766508</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2892,7 +2871,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2902,28 +2881,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1452</v>
+        <v>0.148</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1452</v>
+        <v>0.148</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1452</v>
+        <v>0.148</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1452</v>
+        <v>0.148</v>
       </c>
       <c r="F65" t="n">
-        <v>97073.519</v>
+        <v>22469261.0919</v>
       </c>
       <c r="G65" t="n">
-        <v>36456719.5766508</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2933,7 +2913,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2943,28 +2923,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1453</v>
+        <v>0.148</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1453</v>
+        <v>0.148</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1453</v>
+        <v>0.148</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1453</v>
+        <v>0.148</v>
       </c>
       <c r="F66" t="n">
-        <v>665341.5285</v>
+        <v>336710</v>
       </c>
       <c r="G66" t="n">
-        <v>37122061.1051508</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2974,7 +2955,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2984,28 +2965,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1454</v>
+        <v>0.148</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1499</v>
+        <v>0.148</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1499</v>
+        <v>0.148</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1454</v>
+        <v>0.148</v>
       </c>
       <c r="F67" t="n">
-        <v>3370144.0502</v>
+        <v>20212.981</v>
       </c>
       <c r="G67" t="n">
-        <v>40492205.1553508</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3015,7 +2997,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3025,28 +3007,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1492</v>
+        <v>0.148</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1492</v>
+        <v>0.148</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1492</v>
+        <v>0.148</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1492</v>
+        <v>0.148</v>
       </c>
       <c r="F68" t="n">
-        <v>322111.6334</v>
+        <v>2009875.0243</v>
       </c>
       <c r="G68" t="n">
-        <v>40170093.5219508</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3056,7 +3039,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3066,28 +3049,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="F69" t="n">
-        <v>3178572.4651</v>
+        <v>66712.9509</v>
       </c>
       <c r="G69" t="n">
-        <v>36991521.0568508</v>
+        <v>37119707.0330013</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3097,7 +3081,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3107,28 +3091,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1511</v>
+        <v>0.15</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1511</v>
+        <v>0.15</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="F70" t="n">
-        <v>1004474.5497</v>
+        <v>212465.8354</v>
       </c>
       <c r="G70" t="n">
-        <v>37995995.6065508</v>
+        <v>37119707.0330013</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3138,7 +3123,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3148,28 +3133,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1488</v>
+        <v>0.1482</v>
       </c>
       <c r="C71" t="n">
-        <v>0.15</v>
+        <v>0.1482</v>
       </c>
       <c r="D71" t="n">
-        <v>0.15</v>
+        <v>0.1482</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1488</v>
+        <v>0.1482</v>
       </c>
       <c r="F71" t="n">
-        <v>376312.888</v>
+        <v>7711.7271</v>
       </c>
       <c r="G71" t="n">
-        <v>37619682.7185508</v>
+        <v>37111995.3059013</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3179,7 +3165,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3189,6 +3175,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3207,10 +3194,10 @@
         <v>0.15</v>
       </c>
       <c r="F72" t="n">
-        <v>376312.888</v>
+        <v>137000.0994</v>
       </c>
       <c r="G72" t="n">
-        <v>37619682.7185508</v>
+        <v>37248995.4053013</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3220,7 +3207,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3230,28 +3217,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1522</v>
+        <v>0.15</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1512</v>
+        <v>0.1482</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1522</v>
+        <v>0.15</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1512</v>
+        <v>0.1482</v>
       </c>
       <c r="F73" t="n">
-        <v>145578.0423280423</v>
+        <v>746675.8636</v>
       </c>
       <c r="G73" t="n">
-        <v>37765260.76087885</v>
+        <v>36502319.5417013</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3261,7 +3249,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3271,28 +3259,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1506</v>
+        <v>0.1482</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1507</v>
+        <v>0.1482</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1507</v>
+        <v>0.1482</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1506</v>
+        <v>0.1482</v>
       </c>
       <c r="F74" t="n">
-        <v>650298.6066000001</v>
+        <v>8412.690399999999</v>
       </c>
       <c r="G74" t="n">
-        <v>37114962.15427884</v>
+        <v>36502319.5417013</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3302,7 +3291,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3312,28 +3301,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1505</v>
+        <v>0.1482</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1506</v>
+        <v>0.148</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1506</v>
+        <v>0.1482</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1505</v>
+        <v>0.148</v>
       </c>
       <c r="F75" t="n">
-        <v>397830.3491</v>
+        <v>100000</v>
       </c>
       <c r="G75" t="n">
-        <v>36717131.80517884</v>
+        <v>36402319.5417013</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3343,7 +3333,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3353,28 +3343,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1502</v>
+        <v>0.148</v>
       </c>
       <c r="C76" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1502</v>
+        <v>0.148</v>
       </c>
       <c r="E76" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="F76" t="n">
-        <v>100000</v>
+        <v>42635.0366</v>
       </c>
       <c r="G76" t="n">
-        <v>36617131.80517884</v>
+        <v>36402319.5417013</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3384,7 +3375,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3394,28 +3385,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="C77" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="D77" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="E77" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="F77" t="n">
-        <v>945046.5882</v>
+        <v>1437401.4394</v>
       </c>
       <c r="G77" t="n">
-        <v>36617131.80517884</v>
+        <v>36402319.5417013</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3425,7 +3417,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3435,28 +3427,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="C78" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="D78" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="E78" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="F78" t="n">
-        <v>765678.2585</v>
+        <v>2388656.2224</v>
       </c>
       <c r="G78" t="n">
-        <v>36617131.80517884</v>
+        <v>36402319.5417013</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3466,7 +3459,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3476,6 +3469,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3494,10 +3488,10 @@
         <v>0.1499</v>
       </c>
       <c r="F79" t="n">
-        <v>221471.4447</v>
+        <v>4410.721</v>
       </c>
       <c r="G79" t="n">
-        <v>36395660.36047884</v>
+        <v>36406730.2627013</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3507,7 +3501,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3517,13 +3511,14 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1498</v>
+        <v>0.1499</v>
       </c>
       <c r="C80" t="n">
         <v>0.1499</v>
@@ -3532,13 +3527,13 @@
         <v>0.1499</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1498</v>
+        <v>0.1499</v>
       </c>
       <c r="F80" t="n">
-        <v>155452.8715</v>
+        <v>41134.5552</v>
       </c>
       <c r="G80" t="n">
-        <v>36395660.36047884</v>
+        <v>36406730.2627013</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3548,7 +3543,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3558,28 +3553,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.15</v>
+        <v>0.1479</v>
       </c>
       <c r="C81" t="n">
-        <v>0.15</v>
+        <v>0.1479</v>
       </c>
       <c r="D81" t="n">
-        <v>0.15</v>
+        <v>0.1479</v>
       </c>
       <c r="E81" t="n">
-        <v>0.15</v>
+        <v>0.1479</v>
       </c>
       <c r="F81" t="n">
-        <v>4843.4912</v>
+        <v>1926359.2888</v>
       </c>
       <c r="G81" t="n">
-        <v>36400503.85167884</v>
+        <v>34480370.9739013</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3589,7 +3585,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3599,38 +3595,41 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1466</v>
+        <v>0.1479</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1465</v>
+        <v>0.1479</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1466</v>
+        <v>0.1479</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1465</v>
+        <v>0.1479</v>
       </c>
       <c r="F82" t="n">
-        <v>9068668.197699999</v>
+        <v>83403.4687</v>
       </c>
       <c r="G82" t="n">
-        <v>27331835.65397884</v>
+        <v>34480370.9739013</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.1479</v>
+      </c>
       <c r="K82" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3640,38 +3639,41 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1496</v>
+        <v>0.1479</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1496</v>
+        <v>0.1475</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1496</v>
+        <v>0.1479</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1496</v>
+        <v>0.1475</v>
       </c>
       <c r="F83" t="n">
-        <v>1673910.2839</v>
+        <v>258106.5979</v>
       </c>
       <c r="G83" t="n">
-        <v>29005745.93787884</v>
+        <v>34222264.3760013</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.1479</v>
+      </c>
       <c r="K83" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3681,38 +3683,41 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1497</v>
+        <v>0.1499</v>
       </c>
       <c r="C84" t="n">
-        <v>0.15</v>
+        <v>0.1475</v>
       </c>
       <c r="D84" t="n">
-        <v>0.15</v>
+        <v>0.1499</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1497</v>
+        <v>0.1475</v>
       </c>
       <c r="F84" t="n">
-        <v>303057.9173</v>
+        <v>4777957</v>
       </c>
       <c r="G84" t="n">
-        <v>29308803.85517884</v>
+        <v>34222264.3760013</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.1475</v>
+      </c>
       <c r="K84" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3722,38 +3727,41 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1472</v>
+        <v>0.1475</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1472</v>
+        <v>0.1475</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1472</v>
+        <v>0.1475</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1472</v>
+        <v>0.1475</v>
       </c>
       <c r="F85" t="n">
-        <v>138578.0423</v>
+        <v>1093.6834</v>
       </c>
       <c r="G85" t="n">
-        <v>29170225.81287884</v>
+        <v>34222264.3760013</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.1475</v>
+      </c>
       <c r="K85" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3763,38 +3771,41 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1469</v>
+        <v>0.147</v>
       </c>
       <c r="C86" t="n">
-        <v>0.15</v>
+        <v>0.147</v>
       </c>
       <c r="D86" t="n">
-        <v>0.15</v>
+        <v>0.147</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1469</v>
+        <v>0.147</v>
       </c>
       <c r="F86" t="n">
-        <v>3156638.1621</v>
+        <v>88214.837</v>
       </c>
       <c r="G86" t="n">
-        <v>32326863.97497884</v>
+        <v>34134049.5390013</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.1475</v>
+      </c>
       <c r="K86" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3804,38 +3815,41 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.15</v>
+        <v>0.1451</v>
       </c>
       <c r="C87" t="n">
-        <v>0.15</v>
+        <v>0.1451</v>
       </c>
       <c r="D87" t="n">
-        <v>0.15</v>
+        <v>0.1451</v>
       </c>
       <c r="E87" t="n">
-        <v>0.15</v>
+        <v>0.1451</v>
       </c>
       <c r="F87" t="n">
-        <v>380036.5594</v>
+        <v>16254.7071</v>
       </c>
       <c r="G87" t="n">
-        <v>32326863.97497884</v>
+        <v>34117794.8319013</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.147</v>
+      </c>
       <c r="K87" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3845,38 +3859,41 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.15</v>
+        <v>0.1475</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1506</v>
+        <v>0.1475</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1506</v>
+        <v>0.1475</v>
       </c>
       <c r="E88" t="n">
-        <v>0.15</v>
+        <v>0.1475</v>
       </c>
       <c r="F88" t="n">
-        <v>234423.220578486</v>
+        <v>20283.6637</v>
       </c>
       <c r="G88" t="n">
-        <v>32561287.19555732</v>
+        <v>34138078.4956013</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.1451</v>
+      </c>
       <c r="K88" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3886,38 +3903,41 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1506</v>
+        <v>0.1475</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1506</v>
+        <v>0.1475</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1506</v>
+        <v>0.1475</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1506</v>
+        <v>0.1475</v>
       </c>
       <c r="F89" t="n">
-        <v>82941.45110000001</v>
+        <v>4300907.9675</v>
       </c>
       <c r="G89" t="n">
-        <v>32561287.19555732</v>
+        <v>34138078.4956013</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.1475</v>
+      </c>
       <c r="K89" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3927,38 +3947,41 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1506</v>
+        <v>0.1475</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1506</v>
+        <v>0.1475</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1506</v>
+        <v>0.1475</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1506</v>
+        <v>0.1475</v>
       </c>
       <c r="F90" t="n">
-        <v>1458225.3402</v>
+        <v>2401006.3871</v>
       </c>
       <c r="G90" t="n">
-        <v>32561287.19555732</v>
+        <v>34138078.4956013</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.1475</v>
+      </c>
       <c r="K90" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3968,38 +3991,41 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1506</v>
+        <v>0.1483</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1506</v>
+        <v>0.1483</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1506</v>
+        <v>0.1483</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1506</v>
+        <v>0.1483</v>
       </c>
       <c r="F91" t="n">
-        <v>1261622.0533</v>
+        <v>6747.0568</v>
       </c>
       <c r="G91" t="n">
-        <v>32561287.19555732</v>
+        <v>34144825.5524013</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.1475</v>
+      </c>
       <c r="K91" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4009,38 +4035,41 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1501</v>
+        <v>0.1483</v>
       </c>
       <c r="C92" t="n">
-        <v>0.15</v>
+        <v>0.1483</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1501</v>
+        <v>0.1483</v>
       </c>
       <c r="E92" t="n">
-        <v>0.15</v>
+        <v>0.1483</v>
       </c>
       <c r="F92" t="n">
-        <v>2047342.5728</v>
+        <v>395541.0328</v>
       </c>
       <c r="G92" t="n">
-        <v>30513944.62275732</v>
+        <v>34144825.5524013</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.1483</v>
+      </c>
       <c r="K92" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4050,38 +4079,41 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1506</v>
+        <v>0.1468</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1506</v>
+        <v>0.1468</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1506</v>
+        <v>0.1468</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1506</v>
+        <v>0.1468</v>
       </c>
       <c r="F93" t="n">
-        <v>2.1513944223108e-05</v>
+        <v>217966.6985</v>
       </c>
       <c r="G93" t="n">
-        <v>30513944.62277884</v>
+        <v>33926858.8539013</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.1483</v>
+      </c>
       <c r="K93" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4091,38 +4123,41 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.153</v>
+        <v>0.1483</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1529</v>
+        <v>0.1485</v>
       </c>
       <c r="D94" t="n">
-        <v>0.153</v>
+        <v>0.1485</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1529</v>
+        <v>0.1483</v>
       </c>
       <c r="F94" t="n">
-        <v>614383.3596224624</v>
+        <v>218824.4059</v>
       </c>
       <c r="G94" t="n">
-        <v>31128327.9824013</v>
+        <v>34145683.25980131</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.1468</v>
+      </c>
       <c r="K94" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4132,28 +4167,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1506</v>
+        <v>0.1469</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1505</v>
+        <v>0.1469</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1506</v>
+        <v>0.1469</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1505</v>
+        <v>0.1469</v>
       </c>
       <c r="F95" t="n">
-        <v>1825228.5787</v>
+        <v>6230</v>
       </c>
       <c r="G95" t="n">
-        <v>29303099.4037013</v>
+        <v>34139453.25980131</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4163,7 +4199,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4173,38 +4209,41 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1526</v>
+        <v>0.1471</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1526</v>
+        <v>0.1471</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1526</v>
+        <v>0.1471</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1526</v>
+        <v>0.1471</v>
       </c>
       <c r="F96" t="n">
-        <v>14666.7407</v>
+        <v>20190343.1746</v>
       </c>
       <c r="G96" t="n">
-        <v>29317766.1444013</v>
+        <v>54329796.4344013</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.1469</v>
+      </c>
       <c r="K96" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4214,38 +4253,41 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1503</v>
+        <v>0.1471</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1503</v>
+        <v>0.1471</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1503</v>
+        <v>0.1471</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1503</v>
+        <v>0.1471</v>
       </c>
       <c r="F97" t="n">
-        <v>252714</v>
+        <v>6354553.7071</v>
       </c>
       <c r="G97" t="n">
-        <v>29065052.1444013</v>
+        <v>54329796.4344013</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.1471</v>
+      </c>
       <c r="K97" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4255,38 +4297,41 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1503</v>
+        <v>0.1485</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1503</v>
+        <v>0.1485</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1503</v>
+        <v>0.1485</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1503</v>
+        <v>0.1485</v>
       </c>
       <c r="F98" t="n">
-        <v>167005.7308</v>
+        <v>1987364.8538</v>
       </c>
       <c r="G98" t="n">
-        <v>29065052.1444013</v>
+        <v>56317161.2882013</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.1471</v>
+      </c>
       <c r="K98" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4296,28 +4341,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1519</v>
+        <v>0.1484</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1519</v>
+        <v>0.1484</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1519</v>
+        <v>0.1484</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1519</v>
+        <v>0.1484</v>
       </c>
       <c r="F99" t="n">
-        <v>19834578.267</v>
+        <v>28017.3915</v>
       </c>
       <c r="G99" t="n">
-        <v>48899630.4114013</v>
+        <v>56289143.8967013</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4327,7 +4373,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4337,28 +4383,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1519</v>
+        <v>0.1488</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1519</v>
+        <v>0.1488</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1519</v>
+        <v>0.1488</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1519</v>
+        <v>0.1488</v>
       </c>
       <c r="F100" t="n">
-        <v>5187376</v>
+        <v>564252.9271</v>
       </c>
       <c r="G100" t="n">
-        <v>48899630.4114013</v>
+        <v>56853396.8238013</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4368,7 +4415,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4378,28 +4425,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1519</v>
+        <v>0.1488</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1503</v>
+        <v>0.1488</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1519</v>
+        <v>0.1488</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1503</v>
+        <v>0.1488</v>
       </c>
       <c r="F101" t="n">
-        <v>1407734.25</v>
+        <v>461799.5492</v>
       </c>
       <c r="G101" t="n">
-        <v>47491896.1614013</v>
+        <v>56853396.8238013</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4409,7 +4457,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4419,28 +4467,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1504</v>
+        <v>0.1489</v>
       </c>
       <c r="C102" t="n">
-        <v>0.15</v>
+        <v>0.1489</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1504</v>
+        <v>0.1489</v>
       </c>
       <c r="E102" t="n">
-        <v>0.15</v>
+        <v>0.1489</v>
       </c>
       <c r="F102" t="n">
-        <v>1030000</v>
+        <v>33373.7754</v>
       </c>
       <c r="G102" t="n">
-        <v>46461896.1614013</v>
+        <v>56886770.5992013</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4450,7 +4499,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4460,28 +4509,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1483</v>
+        <v>0.1489</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1481</v>
+        <v>0.15</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1483</v>
+        <v>0.15</v>
       </c>
       <c r="E103" t="n">
-        <v>0.148</v>
+        <v>0.1489</v>
       </c>
       <c r="F103" t="n">
-        <v>6512888.0793</v>
+        <v>15275479.5188</v>
       </c>
       <c r="G103" t="n">
-        <v>39949008.0821013</v>
+        <v>72162250.1180013</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4491,7 +4541,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4501,28 +4551,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="C104" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="D104" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="E104" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="F104" t="n">
-        <v>2896014</v>
+        <v>454653.6815</v>
       </c>
       <c r="G104" t="n">
-        <v>37052994.0821013</v>
+        <v>72162250.1180013</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4532,7 +4583,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4542,28 +4593,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="C105" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="D105" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="E105" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="F105" t="n">
-        <v>881009.3478</v>
+        <v>19943.4746</v>
       </c>
       <c r="G105" t="n">
-        <v>37052994.0821013</v>
+        <v>72162250.1180013</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4573,7 +4625,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4583,28 +4635,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="C106" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="D106" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="E106" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="F106" t="n">
-        <v>15307571.5703</v>
+        <v>74776.1303</v>
       </c>
       <c r="G106" t="n">
-        <v>37052994.0821013</v>
+        <v>72162250.1180013</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4614,7 +4667,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4624,28 +4677,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="C107" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="D107" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="E107" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="F107" t="n">
-        <v>22469261.0919</v>
+        <v>64373.526</v>
       </c>
       <c r="G107" t="n">
-        <v>37052994.0821013</v>
+        <v>72097876.5920013</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4655,7 +4709,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4665,28 +4719,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="C108" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="D108" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="E108" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="F108" t="n">
-        <v>336710</v>
+        <v>846328.108</v>
       </c>
       <c r="G108" t="n">
-        <v>37052994.0821013</v>
+        <v>72097876.5920013</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4696,7 +4751,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4706,28 +4761,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="C109" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="D109" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="E109" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="F109" t="n">
-        <v>20212.981</v>
+        <v>206815.554</v>
       </c>
       <c r="G109" t="n">
-        <v>37052994.0821013</v>
+        <v>72097876.5920013</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4737,7 +4793,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4747,28 +4803,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="C110" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="D110" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="E110" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="F110" t="n">
-        <v>2009875.0243</v>
+        <v>310493.1479</v>
       </c>
       <c r="G110" t="n">
-        <v>37052994.0821013</v>
+        <v>72097876.5920013</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4778,7 +4835,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4788,28 +4845,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.15</v>
+        <v>0.1484</v>
       </c>
       <c r="C111" t="n">
-        <v>0.15</v>
+        <v>0.1484</v>
       </c>
       <c r="D111" t="n">
-        <v>0.15</v>
+        <v>0.1484</v>
       </c>
       <c r="E111" t="n">
-        <v>0.15</v>
+        <v>0.1484</v>
       </c>
       <c r="F111" t="n">
-        <v>66712.9509</v>
+        <v>1620000</v>
       </c>
       <c r="G111" t="n">
-        <v>37119707.0330013</v>
+        <v>70477876.5920013</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4819,7 +4877,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4829,28 +4887,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15</v>
+        <v>0.1485</v>
       </c>
       <c r="C112" t="n">
-        <v>0.15</v>
+        <v>0.1485</v>
       </c>
       <c r="D112" t="n">
-        <v>0.15</v>
+        <v>0.1485</v>
       </c>
       <c r="E112" t="n">
-        <v>0.15</v>
+        <v>0.1485</v>
       </c>
       <c r="F112" t="n">
-        <v>212465.8354</v>
+        <v>217633.8359</v>
       </c>
       <c r="G112" t="n">
-        <v>37119707.0330013</v>
+        <v>70695510.4279013</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4860,7 +4919,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4870,28 +4929,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1482</v>
+        <v>0.1485</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1482</v>
+        <v>0.1485</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1482</v>
+        <v>0.1485</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1482</v>
+        <v>0.1485</v>
       </c>
       <c r="F113" t="n">
-        <v>7711.7271</v>
+        <v>299946.984</v>
       </c>
       <c r="G113" t="n">
-        <v>37111995.3059013</v>
+        <v>70695510.4279013</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4901,7 +4961,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4911,28 +4971,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.15</v>
+        <v>0.1484</v>
       </c>
       <c r="C114" t="n">
-        <v>0.15</v>
+        <v>0.1485</v>
       </c>
       <c r="D114" t="n">
-        <v>0.15</v>
+        <v>0.1485</v>
       </c>
       <c r="E114" t="n">
-        <v>0.15</v>
+        <v>0.1484</v>
       </c>
       <c r="F114" t="n">
-        <v>137000.0994</v>
+        <v>1239828.9551</v>
       </c>
       <c r="G114" t="n">
-        <v>37248995.4053013</v>
+        <v>70695510.4279013</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4942,7 +5003,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4952,28 +5013,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.15</v>
+        <v>0.1484</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1482</v>
+        <v>0.1484</v>
       </c>
       <c r="D115" t="n">
-        <v>0.15</v>
+        <v>0.1484</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1482</v>
+        <v>0.1484</v>
       </c>
       <c r="F115" t="n">
-        <v>746675.8636</v>
+        <v>18889.5464</v>
       </c>
       <c r="G115" t="n">
-        <v>36502319.5417013</v>
+        <v>70676620.8815013</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4983,7 +5045,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4993,28 +5055,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1482</v>
+        <v>0.1485</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1482</v>
+        <v>0.1485</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1482</v>
+        <v>0.1485</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1482</v>
+        <v>0.1485</v>
       </c>
       <c r="F116" t="n">
-        <v>8412.690399999999</v>
+        <v>481972.5917</v>
       </c>
       <c r="G116" t="n">
-        <v>36502319.5417013</v>
+        <v>71158593.4732013</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5024,7 +5087,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5034,28 +5097,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1482</v>
+        <v>0.1485</v>
       </c>
       <c r="C117" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1482</v>
+        <v>0.1485</v>
       </c>
       <c r="E117" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="F117" t="n">
-        <v>100000</v>
+        <v>1000300.09</v>
       </c>
       <c r="G117" t="n">
-        <v>36402319.5417013</v>
+        <v>71158593.4732013</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5065,7 +5129,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5075,38 +5139,41 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="C118" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="D118" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="E118" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="F118" t="n">
-        <v>42635.0366</v>
+        <v>420234.0702</v>
       </c>
       <c r="G118" t="n">
-        <v>36402319.5417013</v>
+        <v>71158593.4732013</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.1485</v>
+      </c>
       <c r="K118" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5116,28 +5183,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.148</v>
+        <v>0.1484</v>
       </c>
       <c r="C119" t="n">
-        <v>0.148</v>
+        <v>0.1484</v>
       </c>
       <c r="D119" t="n">
-        <v>0.148</v>
+        <v>0.1484</v>
       </c>
       <c r="E119" t="n">
-        <v>0.148</v>
+        <v>0.1484</v>
       </c>
       <c r="F119" t="n">
-        <v>1437401.4394</v>
+        <v>1026052.4763</v>
       </c>
       <c r="G119" t="n">
-        <v>36402319.5417013</v>
+        <v>70132540.9969013</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5147,7 +5215,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5157,40 +5225,39 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="C120" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="D120" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="E120" t="n">
-        <v>0.148</v>
+        <v>0.1485</v>
       </c>
       <c r="F120" t="n">
-        <v>2388656.2224</v>
+        <v>2754242.2139</v>
       </c>
       <c r="G120" t="n">
-        <v>36402319.5417013</v>
+        <v>72886783.2108013</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.148</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5200,28 +5267,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1499</v>
+        <v>0.1484</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1499</v>
+        <v>0.1484</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1499</v>
+        <v>0.1484</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1499</v>
+        <v>0.1484</v>
       </c>
       <c r="F121" t="n">
-        <v>4410.721</v>
+        <v>120153.5163</v>
       </c>
       <c r="G121" t="n">
-        <v>36406730.2627013</v>
+        <v>72766629.69450131</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5231,7 +5299,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5241,6 +5309,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5259,10 +5328,10 @@
         <v>0.1499</v>
       </c>
       <c r="F122" t="n">
-        <v>41134.5552</v>
+        <v>2663155.8528</v>
       </c>
       <c r="G122" t="n">
-        <v>36406730.2627013</v>
+        <v>75429785.54730131</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5272,7 +5341,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5282,28 +5351,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1479</v>
+        <v>0.15</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1479</v>
+        <v>0.15</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1479</v>
+        <v>0.15</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1479</v>
+        <v>0.15</v>
       </c>
       <c r="F123" t="n">
-        <v>1926359.2888</v>
+        <v>100524.8877</v>
       </c>
       <c r="G123" t="n">
-        <v>34480370.9739013</v>
+        <v>75530310.43500131</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5313,7 +5383,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5323,28 +5393,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1479</v>
+        <v>0.15</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1479</v>
+        <v>0.15</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1479</v>
+        <v>0.1509</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1479</v>
+        <v>0.15</v>
       </c>
       <c r="F124" t="n">
-        <v>83403.4687</v>
+        <v>1033143.603905832</v>
       </c>
       <c r="G124" t="n">
-        <v>34480370.9739013</v>
+        <v>75530310.43500131</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5354,7 +5425,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5364,28 +5435,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1479</v>
+        <v>0.15</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1475</v>
+        <v>0.15</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1479</v>
+        <v>0.15</v>
       </c>
       <c r="E125" t="n">
-        <v>0.1475</v>
+        <v>0.15</v>
       </c>
       <c r="F125" t="n">
-        <v>258106.5979</v>
+        <v>1136341.7982</v>
       </c>
       <c r="G125" t="n">
-        <v>34222264.3760013</v>
+        <v>75530310.43500131</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5395,7 +5467,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5405,28 +5477,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1499</v>
+        <v>0.15</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1475</v>
+        <v>0.15</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1499</v>
+        <v>0.15</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1475</v>
+        <v>0.15</v>
       </c>
       <c r="F126" t="n">
-        <v>4777957</v>
+        <v>332529.5428</v>
       </c>
       <c r="G126" t="n">
-        <v>34222264.3760013</v>
+        <v>75530310.43500131</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5436,7 +5509,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5446,28 +5519,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1475</v>
+        <v>0.15</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1475</v>
+        <v>0.15</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1475</v>
+        <v>0.15</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1475</v>
+        <v>0.15</v>
       </c>
       <c r="F127" t="n">
-        <v>1093.6834</v>
+        <v>7874.7797</v>
       </c>
       <c r="G127" t="n">
-        <v>34222264.3760013</v>
+        <v>75530310.43500131</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5477,7 +5551,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5487,28 +5561,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.147</v>
+        <v>0.15</v>
       </c>
       <c r="C128" t="n">
-        <v>0.147</v>
+        <v>0.15</v>
       </c>
       <c r="D128" t="n">
-        <v>0.147</v>
+        <v>0.15</v>
       </c>
       <c r="E128" t="n">
-        <v>0.147</v>
+        <v>0.15</v>
       </c>
       <c r="F128" t="n">
-        <v>88214.837</v>
+        <v>681386.1699</v>
       </c>
       <c r="G128" t="n">
-        <v>34134049.5390013</v>
+        <v>75530310.43500131</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5518,7 +5593,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5528,28 +5603,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1451</v>
+        <v>0.15</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1451</v>
+        <v>0.15</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1451</v>
+        <v>0.15</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1451</v>
+        <v>0.15</v>
       </c>
       <c r="F129" t="n">
-        <v>16254.7071</v>
+        <v>538577.6733</v>
       </c>
       <c r="G129" t="n">
-        <v>34117794.8319013</v>
+        <v>75530310.43500131</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5559,7 +5635,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5569,28 +5645,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1475</v>
+        <v>0.1511</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1475</v>
+        <v>0.1511</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1475</v>
+        <v>0.1511</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1475</v>
+        <v>0.1511</v>
       </c>
       <c r="F130" t="n">
-        <v>20283.6637</v>
+        <v>110026.7861</v>
       </c>
       <c r="G130" t="n">
-        <v>34138078.4956013</v>
+        <v>75640337.22110131</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5600,7 +5677,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5610,28 +5687,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1475</v>
+        <v>0.1511</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1475</v>
+        <v>0.1511</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1475</v>
+        <v>0.1511</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1475</v>
+        <v>0.1511</v>
       </c>
       <c r="F131" t="n">
-        <v>4300907.9675</v>
+        <v>969798.2872</v>
       </c>
       <c r="G131" t="n">
-        <v>34138078.4956013</v>
+        <v>75640337.22110131</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5641,7 +5719,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5651,28 +5729,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1475</v>
+        <v>0.1511</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1475</v>
+        <v>0.1511</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1475</v>
+        <v>0.1511</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1475</v>
+        <v>0.1511</v>
       </c>
       <c r="F132" t="n">
-        <v>2401006.3871</v>
+        <v>1347522</v>
       </c>
       <c r="G132" t="n">
-        <v>34138078.4956013</v>
+        <v>75640337.22110131</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5682,7 +5761,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5692,28 +5771,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1483</v>
+        <v>0.1515</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1483</v>
+        <v>0.152</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1483</v>
+        <v>0.152</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1483</v>
+        <v>0.1515</v>
       </c>
       <c r="F133" t="n">
-        <v>6747.0568</v>
+        <v>200000</v>
       </c>
       <c r="G133" t="n">
-        <v>34144825.5524013</v>
+        <v>75840337.22110131</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5723,7 +5803,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5733,28 +5813,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1483</v>
+        <v>0.152</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1483</v>
+        <v>0.152</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1483</v>
+        <v>0.152</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1483</v>
+        <v>0.152</v>
       </c>
       <c r="F134" t="n">
-        <v>395541.0328</v>
+        <v>2895523.3183</v>
       </c>
       <c r="G134" t="n">
-        <v>34144825.5524013</v>
+        <v>75840337.22110131</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5764,7 +5845,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5774,28 +5855,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1468</v>
+        <v>0.1519</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1468</v>
+        <v>0.1519</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1468</v>
+        <v>0.1519</v>
       </c>
       <c r="E135" t="n">
-        <v>0.1468</v>
+        <v>0.1519</v>
       </c>
       <c r="F135" t="n">
-        <v>217966.6985</v>
+        <v>183714.1831</v>
       </c>
       <c r="G135" t="n">
-        <v>33926858.8539013</v>
+        <v>75656623.03800131</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5805,7 +5887,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5815,28 +5897,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1483</v>
+        <v>0.1519</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1485</v>
+        <v>0.1519</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1485</v>
+        <v>0.1519</v>
       </c>
       <c r="E136" t="n">
-        <v>0.1483</v>
+        <v>0.1519</v>
       </c>
       <c r="F136" t="n">
-        <v>218824.4059</v>
+        <v>10966</v>
       </c>
       <c r="G136" t="n">
-        <v>34145683.25980131</v>
+        <v>75656623.03800131</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5846,7 +5929,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5856,28 +5939,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1469</v>
+        <v>0.1519</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1469</v>
+        <v>0.1519</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1469</v>
+        <v>0.1519</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1469</v>
+        <v>0.1519</v>
       </c>
       <c r="F137" t="n">
-        <v>6230</v>
+        <v>26113</v>
       </c>
       <c r="G137" t="n">
-        <v>34139453.25980131</v>
+        <v>75656623.03800131</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5887,7 +5971,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5897,28 +5981,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1471</v>
+        <v>0.1519</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1471</v>
+        <v>0.1519</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1471</v>
+        <v>0.1519</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1471</v>
+        <v>0.1519</v>
       </c>
       <c r="F138" t="n">
-        <v>20190343.1746</v>
+        <v>10321.9206</v>
       </c>
       <c r="G138" t="n">
-        <v>54329796.4344013</v>
+        <v>75656623.03800131</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5928,7 +6013,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5938,28 +6023,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1471</v>
+        <v>0.152</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1471</v>
+        <v>0.152</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1471</v>
+        <v>0.152</v>
       </c>
       <c r="E139" t="n">
-        <v>0.1471</v>
+        <v>0.152</v>
       </c>
       <c r="F139" t="n">
-        <v>6354553.7071</v>
+        <v>0.0001</v>
       </c>
       <c r="G139" t="n">
-        <v>54329796.4344013</v>
+        <v>75656623.03810132</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5969,7 +6055,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5979,28 +6065,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1485</v>
+        <v>0.1527</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="E140" t="n">
-        <v>0.1485</v>
+        <v>0.1527</v>
       </c>
       <c r="F140" t="n">
-        <v>1987364.8538</v>
+        <v>280514.4157199351</v>
       </c>
       <c r="G140" t="n">
-        <v>56317161.2882013</v>
+        <v>75937137.45382126</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6010,7 +6097,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6020,28 +6107,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1484</v>
+        <v>0.1539</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1484</v>
+        <v>0.1525</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1484</v>
+        <v>0.1539</v>
       </c>
       <c r="E141" t="n">
-        <v>0.1484</v>
+        <v>0.1525</v>
       </c>
       <c r="F141" t="n">
-        <v>28017.3915</v>
+        <v>375094.9446</v>
       </c>
       <c r="G141" t="n">
-        <v>56289143.8967013</v>
+        <v>75562042.50922126</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6051,7 +6139,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6061,28 +6149,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1488</v>
+        <v>0.1539</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1488</v>
+        <v>0.1539</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1488</v>
+        <v>0.1539</v>
       </c>
       <c r="E142" t="n">
-        <v>0.1488</v>
+        <v>0.1539</v>
       </c>
       <c r="F142" t="n">
-        <v>564252.9271</v>
+        <v>324074.0740740741</v>
       </c>
       <c r="G142" t="n">
-        <v>56853396.8238013</v>
+        <v>75886116.58329533</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6092,7 +6181,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6102,28 +6191,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1488</v>
+        <v>0.1538</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1488</v>
+        <v>0.1522</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1488</v>
+        <v>0.1538</v>
       </c>
       <c r="E143" t="n">
-        <v>0.1488</v>
+        <v>0.1522</v>
       </c>
       <c r="F143" t="n">
-        <v>461799.5492</v>
+        <v>4000000</v>
       </c>
       <c r="G143" t="n">
-        <v>56853396.8238013</v>
+        <v>71886116.58329533</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6133,7 +6223,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6143,28 +6233,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1489</v>
+        <v>0.152</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1489</v>
+        <v>0.152</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1489</v>
+        <v>0.1539</v>
       </c>
       <c r="E144" t="n">
-        <v>0.1489</v>
+        <v>0.152</v>
       </c>
       <c r="F144" t="n">
-        <v>33373.7754</v>
+        <v>888890.4059</v>
       </c>
       <c r="G144" t="n">
-        <v>56886770.5992013</v>
+        <v>70997226.17739533</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6174,7 +6265,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6184,28 +6275,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1489</v>
+        <v>0.1539</v>
       </c>
       <c r="C145" t="n">
-        <v>0.15</v>
+        <v>0.1539</v>
       </c>
       <c r="D145" t="n">
-        <v>0.15</v>
+        <v>0.1539</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1489</v>
+        <v>0.1539</v>
       </c>
       <c r="F145" t="n">
-        <v>15275479.5188</v>
+        <v>318776.071</v>
       </c>
       <c r="G145" t="n">
-        <v>72162250.1180013</v>
+        <v>71316002.24839532</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6215,7 +6307,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6225,28 +6317,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.15</v>
+        <v>0.1539</v>
       </c>
       <c r="C146" t="n">
-        <v>0.15</v>
+        <v>0.1539</v>
       </c>
       <c r="D146" t="n">
-        <v>0.15</v>
+        <v>0.1539</v>
       </c>
       <c r="E146" t="n">
-        <v>0.15</v>
+        <v>0.1539</v>
       </c>
       <c r="F146" t="n">
-        <v>454653.6815</v>
+        <v>307023.6194</v>
       </c>
       <c r="G146" t="n">
-        <v>72162250.1180013</v>
+        <v>71316002.24839532</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6256,7 +6349,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6266,28 +6359,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.15</v>
+        <v>0.1539</v>
       </c>
       <c r="C147" t="n">
-        <v>0.15</v>
+        <v>0.1539</v>
       </c>
       <c r="D147" t="n">
-        <v>0.15</v>
+        <v>0.1539</v>
       </c>
       <c r="E147" t="n">
-        <v>0.15</v>
+        <v>0.1539</v>
       </c>
       <c r="F147" t="n">
-        <v>19943.4746</v>
+        <v>22391.16309291748</v>
       </c>
       <c r="G147" t="n">
-        <v>72162250.1180013</v>
+        <v>71316002.24839532</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6297,7 +6391,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6307,28 +6401,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
       <c r="C148" t="n">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
       <c r="D148" t="n">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
       <c r="E148" t="n">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
       <c r="F148" t="n">
-        <v>74776.1303</v>
+        <v>35682</v>
       </c>
       <c r="G148" t="n">
-        <v>72162250.1180013</v>
+        <v>71351684.24839532</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6338,7 +6433,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6348,28 +6443,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1485</v>
+        <v>0.1523</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1485</v>
+        <v>0.1522</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1485</v>
+        <v>0.1523</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1485</v>
+        <v>0.1522</v>
       </c>
       <c r="F149" t="n">
-        <v>64373.526</v>
+        <v>2380293.6467</v>
       </c>
       <c r="G149" t="n">
-        <v>72097876.5920013</v>
+        <v>68971390.60169533</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6379,7 +6475,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6389,28 +6485,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1485</v>
+        <v>0.1522</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1485</v>
+        <v>0.1522</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1485</v>
+        <v>0.1522</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1485</v>
+        <v>0.1522</v>
       </c>
       <c r="F150" t="n">
-        <v>846328.108</v>
+        <v>100000</v>
       </c>
       <c r="G150" t="n">
-        <v>72097876.5920013</v>
+        <v>68971390.60169533</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6420,7 +6517,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6430,28 +6527,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1485</v>
+        <v>0.1522</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1485</v>
+        <v>0.1522</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1485</v>
+        <v>0.1522</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1485</v>
+        <v>0.1522</v>
       </c>
       <c r="F151" t="n">
-        <v>206815.554</v>
+        <v>101581.3032</v>
       </c>
       <c r="G151" t="n">
-        <v>72097876.5920013</v>
+        <v>68971390.60169533</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6461,7 +6559,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6471,28 +6569,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="E152" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="F152" t="n">
-        <v>310493.1479</v>
+        <v>5020.7165</v>
       </c>
       <c r="G152" t="n">
-        <v>72097876.5920013</v>
+        <v>68976411.31819533</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6502,7 +6601,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6512,28 +6611,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1484</v>
+        <v>0.1539</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1484</v>
+        <v>0.1539</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1484</v>
+        <v>0.1539</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1484</v>
+        <v>0.1539</v>
       </c>
       <c r="F153" t="n">
-        <v>1620000</v>
+        <v>1358710.6956</v>
       </c>
       <c r="G153" t="n">
-        <v>70477876.5920013</v>
+        <v>68976411.31819533</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6543,7 +6643,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6553,28 +6653,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="F154" t="n">
-        <v>217633.8359</v>
+        <v>182770.444</v>
       </c>
       <c r="G154" t="n">
-        <v>70695510.4279013</v>
+        <v>69159181.76219533</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6584,7 +6685,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6594,28 +6695,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="E155" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="F155" t="n">
-        <v>299946.984</v>
+        <v>91585.7758</v>
       </c>
       <c r="G155" t="n">
-        <v>70695510.4279013</v>
+        <v>69159181.76219533</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6625,7 +6727,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6635,28 +6737,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1484</v>
+        <v>0.1539</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="E156" t="n">
-        <v>0.1484</v>
+        <v>0.1539</v>
       </c>
       <c r="F156" t="n">
-        <v>1239828.9551</v>
+        <v>20644.879</v>
       </c>
       <c r="G156" t="n">
-        <v>70695510.4279013</v>
+        <v>69138536.88319534</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6666,7 +6769,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6676,28 +6779,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1484</v>
+        <v>0.1539</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1484</v>
+        <v>0.1521</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1484</v>
+        <v>0.1539</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1484</v>
+        <v>0.1521</v>
       </c>
       <c r="F157" t="n">
-        <v>18889.5464</v>
+        <v>292956.3372</v>
       </c>
       <c r="G157" t="n">
-        <v>70676620.8815013</v>
+        <v>68845580.54599534</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6707,7 +6811,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6717,28 +6821,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="C158" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="F158" t="n">
-        <v>481972.5917</v>
+        <v>12354</v>
       </c>
       <c r="G158" t="n">
-        <v>71158593.4732013</v>
+        <v>68857934.54599534</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6748,7 +6853,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6758,28 +6863,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="E159" t="n">
-        <v>0.1485</v>
+        <v>0.1539</v>
       </c>
       <c r="F159" t="n">
-        <v>1000300.09</v>
+        <v>504110.908</v>
       </c>
       <c r="G159" t="n">
-        <v>71158593.4732013</v>
+        <v>68857934.54599534</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6789,7 +6895,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6799,28 +6905,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="E160" t="n">
-        <v>0.1485</v>
+        <v>0.154</v>
       </c>
       <c r="F160" t="n">
-        <v>420234.0702</v>
+        <v>4082931.308</v>
       </c>
       <c r="G160" t="n">
-        <v>71158593.4732013</v>
+        <v>72940865.85399534</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6830,7 +6937,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6840,28 +6947,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1484</v>
+        <v>0.1545</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1484</v>
+        <v>0.1545</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1484</v>
+        <v>0.1545</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1484</v>
+        <v>0.1545</v>
       </c>
       <c r="F161" t="n">
-        <v>1026052.4763</v>
+        <v>3358253.9444</v>
       </c>
       <c r="G161" t="n">
-        <v>70132540.9969013</v>
+        <v>76299119.79839534</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6871,7 +6979,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6881,151 +6989,143 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1485</v>
+        <v>0.1531</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1485</v>
+        <v>0.1531</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1485</v>
+        <v>0.1531</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1485</v>
+        <v>0.1531</v>
       </c>
       <c r="F162" t="n">
-        <v>2754242.2139</v>
+        <v>2010668.0029</v>
       </c>
       <c r="G162" t="n">
-        <v>72886783.2108013</v>
+        <v>74288451.79549533</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>0.1489</v>
+        <v>0.1499</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>1</v>
-      </c>
+        <v>1.016347565043362</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1484</v>
+        <v>0.1531</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1484</v>
+        <v>0.1531</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1484</v>
+        <v>0.1531</v>
       </c>
       <c r="E163" t="n">
-        <v>0.1484</v>
+        <v>0.1531</v>
       </c>
       <c r="F163" t="n">
-        <v>120153.5163</v>
+        <v>1759551</v>
       </c>
       <c r="G163" t="n">
-        <v>72766629.69450131</v>
+        <v>74288451.79549533</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1499</v>
+        <v>0.1533</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1499</v>
+        <v>0.1533</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1499</v>
+        <v>0.1533</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1499</v>
+        <v>0.1533</v>
       </c>
       <c r="F164" t="n">
-        <v>2663155.8528</v>
+        <v>1707543</v>
       </c>
       <c r="G164" t="n">
-        <v>75429785.54730131</v>
+        <v>75995994.79549533</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="C165" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="D165" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="E165" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="F165" t="n">
-        <v>100524.8877</v>
+        <v>3453493.7736</v>
       </c>
       <c r="G165" t="n">
-        <v>75530310.43500131</v>
+        <v>79449488.56909533</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7034,2203 +7134,588 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="C166" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1509</v>
+        <v>0.1545</v>
       </c>
       <c r="E166" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="F166" t="n">
-        <v>1033143.603905832</v>
+        <v>3228172.2877</v>
       </c>
       <c r="G166" t="n">
-        <v>75530310.43500131</v>
+        <v>79449488.56909533</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="C167" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="D167" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="E167" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="F167" t="n">
-        <v>1136341.7982</v>
+        <v>155000</v>
       </c>
       <c r="G167" t="n">
-        <v>75530310.43500131</v>
+        <v>79449488.56909533</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="C168" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="D168" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="E168" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="F168" t="n">
-        <v>332529.5428</v>
+        <v>6470716.94</v>
       </c>
       <c r="G168" t="n">
-        <v>75530310.43500131</v>
+        <v>79449488.56909533</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="C169" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="D169" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="E169" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="F169" t="n">
-        <v>7874.7797</v>
+        <v>1103667.7635</v>
       </c>
       <c r="G169" t="n">
-        <v>75530310.43500131</v>
+        <v>79449488.56909533</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="C170" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="D170" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="E170" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="F170" t="n">
-        <v>681386.1699</v>
+        <v>50000</v>
       </c>
       <c r="G170" t="n">
-        <v>75530310.43500131</v>
+        <v>79449488.56909533</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="C171" t="n">
-        <v>0.15</v>
+        <v>0.1533</v>
       </c>
       <c r="D171" t="n">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="E171" t="n">
-        <v>0.15</v>
+        <v>0.1533</v>
       </c>
       <c r="F171" t="n">
-        <v>538577.6733</v>
+        <v>250000</v>
       </c>
       <c r="G171" t="n">
-        <v>75530310.43500131</v>
+        <v>79199488.56909533</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1511</v>
+        <v>0.1533</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1511</v>
+        <v>0.1533</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1511</v>
+        <v>0.1533</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1511</v>
+        <v>0.1533</v>
       </c>
       <c r="F172" t="n">
-        <v>110026.7861</v>
+        <v>1612361.5069</v>
       </c>
       <c r="G172" t="n">
-        <v>75640337.22110131</v>
+        <v>79199488.56909533</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1511</v>
+        <v>0.1534</v>
       </c>
       <c r="C173" t="n">
-        <v>0.1511</v>
+        <v>0.1534</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1511</v>
+        <v>0.1534</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1511</v>
+        <v>0.1534</v>
       </c>
       <c r="F173" t="n">
-        <v>969798.2872</v>
+        <v>5335001.8683</v>
       </c>
       <c r="G173" t="n">
-        <v>75640337.22110131</v>
+        <v>84534490.43739533</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1511</v>
+        <v>0.154</v>
       </c>
       <c r="C174" t="n">
-        <v>0.1511</v>
+        <v>0.154</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1511</v>
+        <v>0.154</v>
       </c>
       <c r="E174" t="n">
-        <v>0.1511</v>
+        <v>0.154</v>
       </c>
       <c r="F174" t="n">
-        <v>1347522</v>
+        <v>50000</v>
       </c>
       <c r="G174" t="n">
-        <v>75640337.22110131</v>
+        <v>84584490.43739533</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1515</v>
+        <v>0.154</v>
       </c>
       <c r="C175" t="n">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
       <c r="D175" t="n">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
       <c r="E175" t="n">
-        <v>0.1515</v>
+        <v>0.154</v>
       </c>
       <c r="F175" t="n">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="G175" t="n">
-        <v>75840337.22110131</v>
+        <v>84584490.43739533</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
       <c r="C176" t="n">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
       <c r="D176" t="n">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
       <c r="E176" t="n">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
       <c r="F176" t="n">
-        <v>2895523.3183</v>
+        <v>500000</v>
       </c>
       <c r="G176" t="n">
-        <v>75840337.22110131</v>
+        <v>84584490.43739533</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1519</v>
+        <v>0.154</v>
       </c>
       <c r="C177" t="n">
-        <v>0.1519</v>
+        <v>0.154</v>
       </c>
       <c r="D177" t="n">
-        <v>0.1519</v>
+        <v>0.154</v>
       </c>
       <c r="E177" t="n">
-        <v>0.1519</v>
+        <v>0.154</v>
       </c>
       <c r="F177" t="n">
-        <v>183714.1831</v>
+        <v>307919.5517</v>
       </c>
       <c r="G177" t="n">
-        <v>75656623.03800131</v>
+        <v>84584490.43739533</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1519</v>
+        <v>0.154</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1519</v>
+        <v>0.154</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1519</v>
+        <v>0.154</v>
       </c>
       <c r="E178" t="n">
-        <v>0.1519</v>
+        <v>0.154</v>
       </c>
       <c r="F178" t="n">
-        <v>10966</v>
+        <v>325000</v>
       </c>
       <c r="G178" t="n">
-        <v>75656623.03800131</v>
+        <v>84584490.43739533</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1519</v>
+        <v>0.154</v>
       </c>
       <c r="C179" t="n">
-        <v>0.1519</v>
+        <v>0.154</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1519</v>
+        <v>0.154</v>
       </c>
       <c r="E179" t="n">
-        <v>0.1519</v>
+        <v>0.154</v>
       </c>
       <c r="F179" t="n">
-        <v>26113</v>
+        <v>192207.7922077922</v>
       </c>
       <c r="G179" t="n">
-        <v>75656623.03800131</v>
+        <v>84584490.43739533</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1519</v>
+        <v>0.1539</v>
       </c>
       <c r="C180" t="n">
-        <v>0.1519</v>
+        <v>0.1539</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1519</v>
+        <v>0.1539</v>
       </c>
       <c r="E180" t="n">
-        <v>0.1519</v>
+        <v>0.1539</v>
       </c>
       <c r="F180" t="n">
-        <v>10321.9206</v>
+        <v>264902.0074</v>
       </c>
       <c r="G180" t="n">
-        <v>75656623.03800131</v>
+        <v>84319588.42999533</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.152</v>
+        <v>0.1532</v>
       </c>
       <c r="C181" t="n">
-        <v>0.152</v>
+        <v>0.1532</v>
       </c>
       <c r="D181" t="n">
-        <v>0.152</v>
+        <v>0.1532</v>
       </c>
       <c r="E181" t="n">
-        <v>0.152</v>
+        <v>0.1532</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0001</v>
+        <v>969336.8406</v>
       </c>
       <c r="G181" t="n">
-        <v>75656623.03810132</v>
+        <v>83350251.58939533</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.1527</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.1527</v>
-      </c>
-      <c r="F182" t="n">
-        <v>280514.4157199351</v>
-      </c>
-      <c r="G182" t="n">
-        <v>75937137.45382126</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="F183" t="n">
-        <v>375094.9446</v>
-      </c>
-      <c r="G183" t="n">
-        <v>75562042.50922126</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="F184" t="n">
-        <v>324074.0740740741</v>
-      </c>
-      <c r="G184" t="n">
-        <v>75886116.58329533</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.1538</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.1538</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="F185" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>71886116.58329533</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="F186" t="n">
-        <v>888890.4059</v>
-      </c>
-      <c r="G186" t="n">
-        <v>70997226.17739533</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="F187" t="n">
-        <v>318776.071</v>
-      </c>
-      <c r="G187" t="n">
-        <v>71316002.24839532</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="F188" t="n">
-        <v>307023.6194</v>
-      </c>
-      <c r="G188" t="n">
-        <v>71316002.24839532</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="F189" t="n">
-        <v>22391.16309291748</v>
-      </c>
-      <c r="G189" t="n">
-        <v>71316002.24839532</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="F190" t="n">
-        <v>35682</v>
-      </c>
-      <c r="G190" t="n">
-        <v>71351684.24839532</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.1523</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.1523</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2380293.6467</v>
-      </c>
-      <c r="G191" t="n">
-        <v>68971390.60169533</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1.017162525184688</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="F192" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G192" t="n">
-        <v>68971390.60169533</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="F193" t="n">
-        <v>101581.3032</v>
-      </c>
-      <c r="G193" t="n">
-        <v>68971390.60169533</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="F194" t="n">
-        <v>5020.7165</v>
-      </c>
-      <c r="G194" t="n">
-        <v>68976411.31819533</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1358710.6956</v>
-      </c>
-      <c r="G195" t="n">
-        <v>68976411.31819533</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="F196" t="n">
-        <v>182770.444</v>
-      </c>
-      <c r="G196" t="n">
-        <v>69159181.76219533</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="F197" t="n">
-        <v>91585.7758</v>
-      </c>
-      <c r="G197" t="n">
-        <v>69159181.76219533</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="F198" t="n">
-        <v>20644.879</v>
-      </c>
-      <c r="G198" t="n">
-        <v>69138536.88319534</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.1521</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0.1521</v>
-      </c>
-      <c r="F199" t="n">
-        <v>292956.3372</v>
-      </c>
-      <c r="G199" t="n">
-        <v>68845580.54599534</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="F200" t="n">
-        <v>12354</v>
-      </c>
-      <c r="G200" t="n">
-        <v>68857934.54599534</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="F201" t="n">
-        <v>504110.908</v>
-      </c>
-      <c r="G201" t="n">
-        <v>68857934.54599534</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="F202" t="n">
-        <v>4082931.308</v>
-      </c>
-      <c r="G202" t="n">
-        <v>72940865.85399534</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="C203" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="F203" t="n">
-        <v>3358253.9444</v>
-      </c>
-      <c r="G203" t="n">
-        <v>76299119.79839534</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2010668.0029</v>
-      </c>
-      <c r="G204" t="n">
-        <v>74288451.79549533</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1759551</v>
-      </c>
-      <c r="G205" t="n">
-        <v>74288451.79549533</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1707543</v>
-      </c>
-      <c r="G206" t="n">
-        <v>75995994.79549533</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="F207" t="n">
-        <v>3453493.7736</v>
-      </c>
-      <c r="G207" t="n">
-        <v>79449488.56909533</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="E208" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="F208" t="n">
-        <v>3228172.2877</v>
-      </c>
-      <c r="G208" t="n">
-        <v>79449488.56909533</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="E209" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="F209" t="n">
-        <v>155000</v>
-      </c>
-      <c r="G209" t="n">
-        <v>79449488.56909533</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="F210" t="n">
-        <v>6470716.94</v>
-      </c>
-      <c r="G210" t="n">
-        <v>79449488.56909533</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="E211" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1103667.7635</v>
-      </c>
-      <c r="G211" t="n">
-        <v>79449488.56909533</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="E212" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="F212" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G212" t="n">
-        <v>79449488.56909533</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0.1545</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="F213" t="n">
-        <v>250000</v>
-      </c>
-      <c r="G213" t="n">
-        <v>79199488.56909533</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1612361.5069</v>
-      </c>
-      <c r="G214" t="n">
-        <v>79199488.56909533</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>0.1534</v>
-      </c>
-      <c r="C215" t="n">
-        <v>0.1534</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0.1534</v>
-      </c>
-      <c r="E215" t="n">
-        <v>0.1534</v>
-      </c>
-      <c r="F215" t="n">
-        <v>5335001.8683</v>
-      </c>
-      <c r="G215" t="n">
-        <v>84534490.43739533</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="C216" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="F216" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G216" t="n">
-        <v>84584490.43739533</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="C217" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E217" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="F217" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G217" t="n">
-        <v>84584490.43739533</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="C218" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="F218" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G218" t="n">
-        <v>84584490.43739533</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="C219" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E219" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="F219" t="n">
-        <v>307919.5517</v>
-      </c>
-      <c r="G219" t="n">
-        <v>84584490.43739533</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="F220" t="n">
-        <v>325000</v>
-      </c>
-      <c r="G220" t="n">
-        <v>84584490.43739533</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="F221" t="n">
-        <v>192207.7922077922</v>
-      </c>
-      <c r="G221" t="n">
-        <v>84584490.43739533</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0.1539</v>
-      </c>
-      <c r="F222" t="n">
-        <v>264902.0074</v>
-      </c>
-      <c r="G222" t="n">
-        <v>84319588.42999533</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>0.1532</v>
-      </c>
-      <c r="C223" t="n">
-        <v>0.1532</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.1532</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0.1532</v>
-      </c>
-      <c r="F223" t="n">
-        <v>969336.8406</v>
-      </c>
-      <c r="G223" t="n">
-        <v>83350251.58939533</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
+      <c r="N181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest NPXS.xlsx
+++ b/BackTest/2020-01-16 BackTest NPXS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:N252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="F2" t="n">
-        <v>6569331.7387</v>
+        <v>17797</v>
       </c>
       <c r="G2" t="n">
-        <v>13237967.0965508</v>
+        <v>20052235.31376002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1512</v>
+        <v>0.15</v>
       </c>
       <c r="F3" t="n">
-        <v>3550</v>
+        <v>133006.6666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>13241517.0965508</v>
+        <v>20052235.31376002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1502</v>
+        <v>0.15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1502</v>
+        <v>0.15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1502</v>
+        <v>0.15</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1502</v>
+        <v>0.15</v>
       </c>
       <c r="F4" t="n">
-        <v>542019</v>
+        <v>74519</v>
       </c>
       <c r="G4" t="n">
-        <v>12699498.0965508</v>
+        <v>20052235.31376002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1502</v>
+        <v>0.15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1502</v>
+        <v>0.15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1502</v>
+        <v>0.15</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1502</v>
+        <v>0.15</v>
       </c>
       <c r="F5" t="n">
-        <v>5080674.1026</v>
+        <v>77628.1841</v>
       </c>
       <c r="G5" t="n">
-        <v>12699498.0965508</v>
+        <v>20052235.31376002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.152</v>
+        <v>0.1526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.152</v>
+        <v>0.1526</v>
       </c>
       <c r="D6" t="n">
-        <v>0.152</v>
+        <v>0.1526</v>
       </c>
       <c r="E6" t="n">
-        <v>0.152</v>
+        <v>0.1526</v>
       </c>
       <c r="F6" t="n">
-        <v>3550</v>
+        <v>47498.423</v>
       </c>
       <c r="G6" t="n">
-        <v>12703048.0965508</v>
+        <v>20099733.73676002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -621,19 +621,19 @@
         <v>0.1505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1505</v>
+        <v>0.1504</v>
       </c>
       <c r="D7" t="n">
         <v>0.1505</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1505</v>
+        <v>0.1504</v>
       </c>
       <c r="F7" t="n">
-        <v>5060423.7924</v>
+        <v>1258471.9516</v>
       </c>
       <c r="G7" t="n">
-        <v>7642624.304150804</v>
+        <v>18841261.78516002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1506</v>
+        <v>0.1503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1506</v>
+        <v>0.1503</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1506</v>
+        <v>0.1503</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1506</v>
+        <v>0.1503</v>
       </c>
       <c r="F8" t="n">
-        <v>21151</v>
+        <v>300000</v>
       </c>
       <c r="G8" t="n">
-        <v>7663775.304150804</v>
+        <v>18541261.78516002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1506</v>
+        <v>0.1503</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1506</v>
+        <v>0.1502</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1506</v>
+        <v>0.1503</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1506</v>
+        <v>0.1502</v>
       </c>
       <c r="F9" t="n">
-        <v>1374819.6034</v>
+        <v>501761.4226</v>
       </c>
       <c r="G9" t="n">
-        <v>7663775.304150804</v>
+        <v>18039500.36256002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1512</v>
+        <v>0.1502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.152</v>
+        <v>0.1502</v>
       </c>
       <c r="D10" t="n">
-        <v>0.152</v>
+        <v>0.1502</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1507</v>
+        <v>0.1502</v>
       </c>
       <c r="F10" t="n">
-        <v>20163003.5294</v>
+        <v>441989.9793</v>
       </c>
       <c r="G10" t="n">
-        <v>27826778.8335508</v>
+        <v>18039500.36256002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.152</v>
+        <v>0.1524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1508</v>
+        <v>0.1531</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1532</v>
+        <v>0.1531</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1508</v>
+        <v>0.1524</v>
       </c>
       <c r="F11" t="n">
-        <v>5936895.167</v>
+        <v>3270626.08159079</v>
       </c>
       <c r="G11" t="n">
-        <v>21889883.6665508</v>
+        <v>21310126.44415081</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1508</v>
+        <v>0.1434</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1518</v>
+        <v>0.1434</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1518</v>
+        <v>0.1434</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1508</v>
+        <v>0.1434</v>
       </c>
       <c r="F12" t="n">
-        <v>10187777.8422</v>
+        <v>224545.7472</v>
       </c>
       <c r="G12" t="n">
-        <v>32077661.5087508</v>
+        <v>21085580.6969508</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1518</v>
+        <v>0.15</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1532</v>
+        <v>0.15</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1532</v>
+        <v>0.15</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1518</v>
+        <v>0.15</v>
       </c>
       <c r="F13" t="n">
-        <v>16406</v>
+        <v>689655.1724</v>
       </c>
       <c r="G13" t="n">
-        <v>32094067.5087508</v>
+        <v>21775235.86935081</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1532</v>
+        <v>0.1498</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1532</v>
+        <v>0.1498</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1532</v>
+        <v>0.1498</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1532</v>
+        <v>0.1498</v>
       </c>
       <c r="F14" t="n">
-        <v>1349975.1817</v>
+        <v>3329456.4655</v>
       </c>
       <c r="G14" t="n">
-        <v>32094067.5087508</v>
+        <v>18445779.40385081</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1545</v>
+        <v>0.149</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1532</v>
+        <v>0.149</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1545</v>
+        <v>0.149</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1532</v>
+        <v>0.149</v>
       </c>
       <c r="F15" t="n">
-        <v>56022.6022</v>
+        <v>535556.3704</v>
       </c>
       <c r="G15" t="n">
-        <v>32094067.5087508</v>
+        <v>17910223.0334508</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1531</v>
+        <v>0.149</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1532</v>
+        <v>0.149</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1532</v>
+        <v>0.149</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1531</v>
+        <v>0.149</v>
       </c>
       <c r="F16" t="n">
-        <v>4498569.6696</v>
+        <v>560532.8966</v>
       </c>
       <c r="G16" t="n">
-        <v>32094067.5087508</v>
+        <v>17910223.0334508</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1544</v>
+        <v>0.1499</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1544</v>
+        <v>0.1499</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1544</v>
+        <v>0.1499</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1544</v>
+        <v>0.1499</v>
       </c>
       <c r="F17" t="n">
-        <v>14630055.5444</v>
+        <v>5000</v>
       </c>
       <c r="G17" t="n">
-        <v>46724123.0531508</v>
+        <v>17915223.0334508</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.154</v>
+        <v>0.1499</v>
       </c>
       <c r="C18" t="n">
-        <v>0.154</v>
+        <v>0.1499</v>
       </c>
       <c r="D18" t="n">
-        <v>0.154</v>
+        <v>0.1499</v>
       </c>
       <c r="E18" t="n">
-        <v>0.154</v>
+        <v>0.1499</v>
       </c>
       <c r="F18" t="n">
-        <v>2043661.0983</v>
+        <v>7338.22548365577</v>
       </c>
       <c r="G18" t="n">
-        <v>44680461.9548508</v>
+        <v>17915223.0334508</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1515</v>
+        <v>0.1499</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1515</v>
+        <v>0.15</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1515</v>
+        <v>0.15</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1515</v>
+        <v>0.1499</v>
       </c>
       <c r="F19" t="n">
-        <v>1114742.6348</v>
+        <v>478698</v>
       </c>
       <c r="G19" t="n">
-        <v>43565719.3200508</v>
+        <v>18393921.0334508</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.151</v>
+        <v>0.1492</v>
       </c>
       <c r="C20" t="n">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="D20" t="n">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="E20" t="n">
-        <v>0.151</v>
+        <v>0.1491</v>
       </c>
       <c r="F20" t="n">
-        <v>50000</v>
+        <v>1005000.6773</v>
       </c>
       <c r="G20" t="n">
-        <v>43515719.3200508</v>
+        <v>18393921.0334508</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="C21" t="n">
         <v>0.15</v>
       </c>
       <c r="D21" t="n">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="E21" t="n">
         <v>0.15</v>
       </c>
       <c r="F21" t="n">
-        <v>6970841.3598</v>
+        <v>1264811.0105</v>
       </c>
       <c r="G21" t="n">
-        <v>36544877.96025079</v>
+        <v>18393921.0334508</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1452</v>
+        <v>0.15</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1452</v>
+        <v>0.1526</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1452</v>
+        <v>0.1526</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1452</v>
+        <v>0.15</v>
       </c>
       <c r="F22" t="n">
-        <v>88158.3836</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="n">
-        <v>36456719.5766508</v>
+        <v>18398921.0334508</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1452</v>
+        <v>0.15</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1452</v>
+        <v>0.15</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1452</v>
+        <v>0.15</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1452</v>
+        <v>0.15</v>
       </c>
       <c r="F23" t="n">
-        <v>97073.519</v>
+        <v>619697.4013</v>
       </c>
       <c r="G23" t="n">
-        <v>36456719.5766508</v>
+        <v>17779223.63215081</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1453</v>
+        <v>0.15</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1453</v>
+        <v>0.15</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1453</v>
+        <v>0.15</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1453</v>
+        <v>0.15</v>
       </c>
       <c r="F24" t="n">
-        <v>665341.5285</v>
+        <v>280302.5986</v>
       </c>
       <c r="G24" t="n">
-        <v>37122061.1051508</v>
+        <v>17779223.63215081</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,35 +1266,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1454</v>
+        <v>0.1499</v>
       </c>
       <c r="C25" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.1499</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1454</v>
-      </c>
       <c r="F25" t="n">
-        <v>3370144.0502</v>
+        <v>200000</v>
       </c>
       <c r="G25" t="n">
-        <v>40492205.1553508</v>
+        <v>17979223.63215081</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0.1453</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.1453</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
@@ -1306,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1492</v>
+        <v>0.1504</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1492</v>
+        <v>0.1504</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1492</v>
+        <v>0.1504</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1492</v>
+        <v>0.1504</v>
       </c>
       <c r="F26" t="n">
-        <v>322111.6334</v>
+        <v>4374333.6575</v>
       </c>
       <c r="G26" t="n">
-        <v>40170093.5219508</v>
+        <v>13604889.97465081</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1330,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>0.1453</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1348,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1488</v>
+        <v>0.1524</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1488</v>
+        <v>0.1524</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1488</v>
+        <v>0.1524</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1488</v>
+        <v>0.1524</v>
       </c>
       <c r="F27" t="n">
-        <v>3178572.4651</v>
+        <v>22222</v>
       </c>
       <c r="G27" t="n">
-        <v>36991521.0568508</v>
+        <v>13627111.97465081</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1372,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>0.1453</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1390,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1488</v>
+        <v>0.1525</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1511</v>
+        <v>0.1475</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1511</v>
+        <v>0.1525</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1488</v>
+        <v>0.1475</v>
       </c>
       <c r="F28" t="n">
-        <v>1004474.5497</v>
+        <v>1021980.3371</v>
       </c>
       <c r="G28" t="n">
-        <v>37995995.6065508</v>
+        <v>12605131.63755081</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1426,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="C29" t="n">
-        <v>0.15</v>
+        <v>0.1525</v>
       </c>
       <c r="D29" t="n">
-        <v>0.15</v>
+        <v>0.1525</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="F29" t="n">
-        <v>376312.888</v>
+        <v>690529.1587</v>
       </c>
       <c r="G29" t="n">
-        <v>37619682.7185508</v>
+        <v>13295660.79625081</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1462,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.15</v>
+        <v>0.1525</v>
       </c>
       <c r="C30" t="n">
-        <v>0.15</v>
+        <v>0.1525</v>
       </c>
       <c r="D30" t="n">
-        <v>0.15</v>
+        <v>0.1525</v>
       </c>
       <c r="E30" t="n">
-        <v>0.15</v>
+        <v>0.1525</v>
       </c>
       <c r="F30" t="n">
-        <v>376312.888</v>
+        <v>4399.5584</v>
       </c>
       <c r="G30" t="n">
-        <v>37619682.7185508</v>
+        <v>13295660.79625081</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1498,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1522</v>
+        <v>0.1525</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1512</v>
+        <v>0.1525</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1522</v>
+        <v>0.1525</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1512</v>
+        <v>0.1525</v>
       </c>
       <c r="F31" t="n">
-        <v>145578.0423280423</v>
+        <v>173792.4696</v>
       </c>
       <c r="G31" t="n">
-        <v>37765260.76087885</v>
+        <v>13295660.79625081</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1534,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1506</v>
+        <v>0.1525</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1507</v>
+        <v>0.1525</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1507</v>
+        <v>0.1525</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1506</v>
+        <v>0.1525</v>
       </c>
       <c r="F32" t="n">
-        <v>650298.6066000001</v>
+        <v>540902.5632</v>
       </c>
       <c r="G32" t="n">
-        <v>37114962.15427884</v>
+        <v>13295660.79625081</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1570,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1505</v>
+        <v>0.1525</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1506</v>
+        <v>0.1531</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1506</v>
+        <v>0.1531</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1505</v>
+        <v>0.1525</v>
       </c>
       <c r="F33" t="n">
-        <v>397830.3491</v>
+        <v>26402.1284</v>
       </c>
       <c r="G33" t="n">
-        <v>36717131.80517884</v>
+        <v>13322062.92465081</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1606,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1502</v>
+        <v>0.153</v>
       </c>
       <c r="C34" t="n">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1502</v>
+        <v>0.153</v>
       </c>
       <c r="E34" t="n">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
       <c r="F34" t="n">
-        <v>100000</v>
+        <v>106694.15</v>
       </c>
       <c r="G34" t="n">
-        <v>36617131.80517884</v>
+        <v>13215368.77465081</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1642,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
       <c r="C35" t="n">
-        <v>0.15</v>
+        <v>0.1522</v>
       </c>
       <c r="D35" t="n">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
       <c r="E35" t="n">
-        <v>0.15</v>
+        <v>0.1522</v>
       </c>
       <c r="F35" t="n">
-        <v>945046.5882</v>
+        <v>17292.9122</v>
       </c>
       <c r="G35" t="n">
-        <v>36617131.80517884</v>
+        <v>13198075.86245081</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1678,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.15</v>
+        <v>0.1512</v>
       </c>
       <c r="C36" t="n">
-        <v>0.15</v>
+        <v>0.1512</v>
       </c>
       <c r="D36" t="n">
-        <v>0.15</v>
+        <v>0.1512</v>
       </c>
       <c r="E36" t="n">
-        <v>0.15</v>
+        <v>0.1512</v>
       </c>
       <c r="F36" t="n">
-        <v>765678.2585</v>
+        <v>9582</v>
       </c>
       <c r="G36" t="n">
-        <v>36617131.80517884</v>
+        <v>13188493.86245081</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1714,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1499</v>
+        <v>0.1508</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1499</v>
+        <v>0.1508</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1499</v>
+        <v>0.1508</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1499</v>
+        <v>0.1508</v>
       </c>
       <c r="F37" t="n">
-        <v>221471.4447</v>
+        <v>118988.6144</v>
       </c>
       <c r="G37" t="n">
-        <v>36395660.36047884</v>
+        <v>13069505.24805081</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1750,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1498</v>
+        <v>0.1507</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1499</v>
+        <v>0.1507</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1499</v>
+        <v>0.1507</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1498</v>
+        <v>0.1507</v>
       </c>
       <c r="F38" t="n">
-        <v>155452.8715</v>
+        <v>262136.6409</v>
       </c>
       <c r="G38" t="n">
-        <v>36395660.36047884</v>
+        <v>12807368.60715081</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1786,35 +1770,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.15</v>
+        <v>0.1505</v>
       </c>
       <c r="C39" t="n">
-        <v>0.15</v>
+        <v>0.1505</v>
       </c>
       <c r="D39" t="n">
-        <v>0.15</v>
+        <v>0.1505</v>
       </c>
       <c r="E39" t="n">
-        <v>0.15</v>
+        <v>0.1505</v>
       </c>
       <c r="F39" t="n">
-        <v>4843.4912</v>
+        <v>56884.6491</v>
       </c>
       <c r="G39" t="n">
-        <v>36400503.85167884</v>
+        <v>12750483.95805081</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.1499</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
@@ -1826,40 +1806,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1466</v>
+        <v>0.1503</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1465</v>
+        <v>0.1503</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1466</v>
+        <v>0.1503</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1465</v>
+        <v>0.1503</v>
       </c>
       <c r="F40" t="n">
-        <v>9068668.197699999</v>
+        <v>10000</v>
       </c>
       <c r="G40" t="n">
-        <v>27331835.65397884</v>
+        <v>12740483.95805081</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1870,40 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1496</v>
+        <v>0.15</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1496</v>
+        <v>0.1489</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1496</v>
+        <v>0.15</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1496</v>
+        <v>0.1489</v>
       </c>
       <c r="F41" t="n">
-        <v>1673910.2839</v>
+        <v>3770623.8742</v>
       </c>
       <c r="G41" t="n">
-        <v>29005745.93787884</v>
+        <v>8969860.083850808</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0.1465</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1914,40 +1878,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1497</v>
+        <v>0.1491</v>
       </c>
       <c r="C42" t="n">
-        <v>0.15</v>
+        <v>0.1491</v>
       </c>
       <c r="D42" t="n">
-        <v>0.15</v>
+        <v>0.1491</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1497</v>
+        <v>0.1491</v>
       </c>
       <c r="F42" t="n">
-        <v>303057.9173</v>
+        <v>47528.7509</v>
       </c>
       <c r="G42" t="n">
-        <v>29308803.85517884</v>
+        <v>9017388.834750809</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.1496</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1958,40 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1472</v>
+        <v>0.1489</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1472</v>
+        <v>0.1489</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1472</v>
+        <v>0.1489</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1472</v>
+        <v>0.1489</v>
       </c>
       <c r="F43" t="n">
-        <v>138578.0423</v>
+        <v>594858.7681</v>
       </c>
       <c r="G43" t="n">
-        <v>29170225.81287884</v>
+        <v>8422530.066650808</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2002,40 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1469</v>
+        <v>0.1489</v>
       </c>
       <c r="C44" t="n">
-        <v>0.15</v>
+        <v>0.1489</v>
       </c>
       <c r="D44" t="n">
-        <v>0.15</v>
+        <v>0.1489</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1469</v>
+        <v>0.1489</v>
       </c>
       <c r="F44" t="n">
-        <v>3156638.1621</v>
+        <v>5370766.9247</v>
       </c>
       <c r="G44" t="n">
-        <v>32326863.97497884</v>
+        <v>8422530.066650808</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0.1472</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2058,28 +1998,20 @@
         <v>0.15</v>
       </c>
       <c r="F45" t="n">
-        <v>380036.5594</v>
+        <v>3641093.3998</v>
       </c>
       <c r="G45" t="n">
-        <v>32326863.97497884</v>
+        <v>12063623.46645081</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2090,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.15</v>
+        <v>0.1501</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1506</v>
+        <v>0.1501</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1506</v>
+        <v>0.1501</v>
       </c>
       <c r="E46" t="n">
         <v>0.15</v>
       </c>
       <c r="F46" t="n">
-        <v>234423.220578486</v>
+        <v>898940.6967</v>
       </c>
       <c r="G46" t="n">
-        <v>32561287.19555732</v>
+        <v>12962564.16315081</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2114,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2132,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="F47" t="n">
-        <v>82941.45110000001</v>
+        <v>285800</v>
       </c>
       <c r="G47" t="n">
-        <v>32561287.19555732</v>
+        <v>12676764.16315081</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2156,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2174,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="F48" t="n">
-        <v>1458225.3402</v>
+        <v>10525316.5872</v>
       </c>
       <c r="G48" t="n">
-        <v>32561287.19555732</v>
+        <v>12676764.16315081</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2198,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2216,38 +2130,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="F49" t="n">
-        <v>1261622.0533</v>
+        <v>7712884.9144</v>
       </c>
       <c r="G49" t="n">
-        <v>32561287.19555732</v>
+        <v>12676764.16315081</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.1489</v>
+      </c>
       <c r="K49" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.1489</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2258,22 +2170,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1501</v>
+        <v>0.1489</v>
       </c>
       <c r="C50" t="n">
-        <v>0.15</v>
+        <v>0.1489</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1501</v>
+        <v>0.1489</v>
       </c>
       <c r="E50" t="n">
-        <v>0.15</v>
+        <v>0.1489</v>
       </c>
       <c r="F50" t="n">
-        <v>2047342.5728</v>
+        <v>3209640.2607</v>
       </c>
       <c r="G50" t="n">
-        <v>30513944.62275732</v>
+        <v>12676764.16315081</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2283,11 +2195,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2300,22 +2212,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1506</v>
+        <v>0.147</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1506</v>
+        <v>0.1489</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1506</v>
+        <v>0.147</v>
       </c>
       <c r="F51" t="n">
-        <v>2.1513944223108e-05</v>
+        <v>33510698.6793</v>
       </c>
       <c r="G51" t="n">
-        <v>30513944.62277884</v>
+        <v>12676764.16315081</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2325,11 +2237,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -2342,22 +2254,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.153</v>
+        <v>0.1489</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1529</v>
+        <v>0.1489</v>
       </c>
       <c r="D52" t="n">
-        <v>0.153</v>
+        <v>0.1489</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1529</v>
+        <v>0.1489</v>
       </c>
       <c r="F52" t="n">
-        <v>614383.3596224624</v>
+        <v>2699955.7212</v>
       </c>
       <c r="G52" t="n">
-        <v>31128327.9824013</v>
+        <v>12676764.16315081</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2367,7 +2279,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2384,22 +2296,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1506</v>
+        <v>0.1499</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1505</v>
+        <v>0.15</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1506</v>
+        <v>0.15</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1505</v>
+        <v>0.1499</v>
       </c>
       <c r="F53" t="n">
-        <v>1825228.5787</v>
+        <v>658710.6967</v>
       </c>
       <c r="G53" t="n">
-        <v>29303099.4037013</v>
+        <v>13335474.85985081</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2409,7 +2321,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2426,22 +2338,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1526</v>
+        <v>0.15</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1526</v>
+        <v>0.1511</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1526</v>
+        <v>0.1511</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1526</v>
+        <v>0.15</v>
       </c>
       <c r="F54" t="n">
-        <v>14666.7407</v>
+        <v>285885.7657</v>
       </c>
       <c r="G54" t="n">
-        <v>29317766.1444013</v>
+        <v>13621360.6255508</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2451,7 +2363,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2468,22 +2380,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1503</v>
+        <v>0.1512</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1503</v>
+        <v>0.1512</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1503</v>
+        <v>0.1512</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1503</v>
+        <v>0.1512</v>
       </c>
       <c r="F55" t="n">
-        <v>252714</v>
+        <v>562653.1405</v>
       </c>
       <c r="G55" t="n">
-        <v>29065052.1444013</v>
+        <v>14184013.7660508</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2493,7 +2405,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2510,22 +2422,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1503</v>
+        <v>0.1512</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1503</v>
+        <v>0.1512</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1503</v>
+        <v>0.1512</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1503</v>
+        <v>0.1512</v>
       </c>
       <c r="F56" t="n">
-        <v>167005.7308</v>
+        <v>616390.9172</v>
       </c>
       <c r="G56" t="n">
-        <v>29065052.1444013</v>
+        <v>14184013.7660508</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2535,7 +2447,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2552,22 +2464,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1519</v>
+        <v>0.1502</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1519</v>
+        <v>0.1502</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1519</v>
+        <v>0.1502</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1519</v>
+        <v>0.1502</v>
       </c>
       <c r="F57" t="n">
-        <v>19834578.267</v>
+        <v>681472</v>
       </c>
       <c r="G57" t="n">
-        <v>48899630.4114013</v>
+        <v>13502541.7660508</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2577,7 +2489,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2594,22 +2506,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1519</v>
+        <v>0.1502</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1519</v>
+        <v>0.1502</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1519</v>
+        <v>0.1502</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1519</v>
+        <v>0.1502</v>
       </c>
       <c r="F58" t="n">
-        <v>5187376</v>
+        <v>6260124.423</v>
       </c>
       <c r="G58" t="n">
-        <v>48899630.4114013</v>
+        <v>13502541.7660508</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2619,7 +2531,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2636,22 +2548,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1519</v>
+        <v>0.1501</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1503</v>
+        <v>0.1501</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1519</v>
+        <v>0.1501</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1503</v>
+        <v>0.1501</v>
       </c>
       <c r="F59" t="n">
-        <v>1407734.25</v>
+        <v>6247436.7807</v>
       </c>
       <c r="G59" t="n">
-        <v>47491896.1614013</v>
+        <v>7255104.985350804</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2661,7 +2573,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2678,22 +2590,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1504</v>
+        <v>0.151</v>
       </c>
       <c r="C60" t="n">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1504</v>
+        <v>0.151</v>
       </c>
       <c r="E60" t="n">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="F60" t="n">
-        <v>1030000</v>
+        <v>350000</v>
       </c>
       <c r="G60" t="n">
-        <v>46461896.1614013</v>
+        <v>7605104.985350804</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2703,7 +2615,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2720,22 +2632,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1483</v>
+        <v>0.1501</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1481</v>
+        <v>0.1501</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1483</v>
+        <v>0.1501</v>
       </c>
       <c r="E61" t="n">
-        <v>0.148</v>
+        <v>0.1501</v>
       </c>
       <c r="F61" t="n">
-        <v>6512888.0793</v>
+        <v>1696348.5</v>
       </c>
       <c r="G61" t="n">
-        <v>39949008.0821013</v>
+        <v>5908756.485350804</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2745,7 +2657,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2762,22 +2674,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.148</v>
+        <v>0.1501</v>
       </c>
       <c r="C62" t="n">
-        <v>0.148</v>
+        <v>0.1501</v>
       </c>
       <c r="D62" t="n">
-        <v>0.148</v>
+        <v>0.1511</v>
       </c>
       <c r="E62" t="n">
-        <v>0.148</v>
+        <v>0.1501</v>
       </c>
       <c r="F62" t="n">
-        <v>2896014</v>
+        <v>4082995.3415</v>
       </c>
       <c r="G62" t="n">
-        <v>37052994.0821013</v>
+        <v>5908756.485350804</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2787,7 +2699,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2804,22 +2716,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.148</v>
+        <v>0.1502</v>
       </c>
       <c r="C63" t="n">
-        <v>0.148</v>
+        <v>0.1501</v>
       </c>
       <c r="D63" t="n">
-        <v>0.148</v>
+        <v>0.1502</v>
       </c>
       <c r="E63" t="n">
-        <v>0.148</v>
+        <v>0.1501</v>
       </c>
       <c r="F63" t="n">
-        <v>881009.3478</v>
+        <v>264784.5766</v>
       </c>
       <c r="G63" t="n">
-        <v>37052994.0821013</v>
+        <v>5908756.485350804</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2829,7 +2741,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2846,22 +2758,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.148</v>
+        <v>0.1501</v>
       </c>
       <c r="C64" t="n">
-        <v>0.148</v>
+        <v>0.1501</v>
       </c>
       <c r="D64" t="n">
-        <v>0.148</v>
+        <v>0.1501</v>
       </c>
       <c r="E64" t="n">
-        <v>0.148</v>
+        <v>0.1501</v>
       </c>
       <c r="F64" t="n">
-        <v>15307571.5703</v>
+        <v>1728083.7381</v>
       </c>
       <c r="G64" t="n">
-        <v>37052994.0821013</v>
+        <v>5908756.485350804</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2871,7 +2783,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2888,22 +2800,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.148</v>
+        <v>0.151</v>
       </c>
       <c r="C65" t="n">
-        <v>0.148</v>
+        <v>0.1501</v>
       </c>
       <c r="D65" t="n">
-        <v>0.148</v>
+        <v>0.151</v>
       </c>
       <c r="E65" t="n">
-        <v>0.148</v>
+        <v>0.1501</v>
       </c>
       <c r="F65" t="n">
-        <v>22469261.0919</v>
+        <v>902382.9999000001</v>
       </c>
       <c r="G65" t="n">
-        <v>37052994.0821013</v>
+        <v>5908756.485350804</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2913,7 +2825,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2930,32 +2842,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.148</v>
+        <v>0.1511</v>
       </c>
       <c r="C66" t="n">
-        <v>0.148</v>
+        <v>0.1511</v>
       </c>
       <c r="D66" t="n">
-        <v>0.148</v>
+        <v>0.1511</v>
       </c>
       <c r="E66" t="n">
-        <v>0.148</v>
+        <v>0.1511</v>
       </c>
       <c r="F66" t="n">
-        <v>336710</v>
+        <v>8630340.3178</v>
       </c>
       <c r="G66" t="n">
-        <v>37052994.0821013</v>
+        <v>14539096.8031508</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.1501</v>
+      </c>
       <c r="K66" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2972,32 +2886,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.148</v>
+        <v>0.1511</v>
       </c>
       <c r="C67" t="n">
-        <v>0.148</v>
+        <v>0.1511</v>
       </c>
       <c r="D67" t="n">
-        <v>0.148</v>
+        <v>0.1511</v>
       </c>
       <c r="E67" t="n">
-        <v>0.148</v>
+        <v>0.1511</v>
       </c>
       <c r="F67" t="n">
-        <v>20212.981</v>
+        <v>7123200.9999</v>
       </c>
       <c r="G67" t="n">
-        <v>37052994.0821013</v>
+        <v>14539096.8031508</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.1511</v>
+      </c>
       <c r="K67" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3014,32 +2930,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.148</v>
+        <v>0.1512</v>
       </c>
       <c r="C68" t="n">
-        <v>0.148</v>
+        <v>0.1512</v>
       </c>
       <c r="D68" t="n">
-        <v>0.148</v>
+        <v>0.1512</v>
       </c>
       <c r="E68" t="n">
-        <v>0.148</v>
+        <v>0.1512</v>
       </c>
       <c r="F68" t="n">
-        <v>2009875.0243</v>
+        <v>3500</v>
       </c>
       <c r="G68" t="n">
-        <v>37052994.0821013</v>
+        <v>14542596.8031508</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.1511</v>
+      </c>
       <c r="K68" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3056,32 +2974,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.15</v>
+        <v>0.1511</v>
       </c>
       <c r="C69" t="n">
-        <v>0.15</v>
+        <v>0.1511</v>
       </c>
       <c r="D69" t="n">
-        <v>0.15</v>
+        <v>0.1511</v>
       </c>
       <c r="E69" t="n">
-        <v>0.15</v>
+        <v>0.1511</v>
       </c>
       <c r="F69" t="n">
-        <v>66712.9509</v>
+        <v>1530692.3253</v>
       </c>
       <c r="G69" t="n">
-        <v>37119707.0330013</v>
+        <v>13011904.4778508</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.1512</v>
+      </c>
       <c r="K69" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3101,29 +3021,31 @@
         <v>0.15</v>
       </c>
       <c r="C70" t="n">
-        <v>0.15</v>
+        <v>0.1512</v>
       </c>
       <c r="D70" t="n">
-        <v>0.15</v>
+        <v>0.1512</v>
       </c>
       <c r="E70" t="n">
         <v>0.15</v>
       </c>
       <c r="F70" t="n">
-        <v>212465.8354</v>
+        <v>226062.6187</v>
       </c>
       <c r="G70" t="n">
-        <v>37119707.0330013</v>
+        <v>13237967.0965508</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.1511</v>
+      </c>
       <c r="K70" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3140,32 +3062,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1482</v>
+        <v>0.1512</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1482</v>
+        <v>0.1512</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1482</v>
+        <v>0.1512</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1482</v>
+        <v>0.1512</v>
       </c>
       <c r="F71" t="n">
-        <v>7711.7271</v>
+        <v>659994.9201</v>
       </c>
       <c r="G71" t="n">
-        <v>37111995.3059013</v>
+        <v>13237967.0965508</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.1512</v>
+      </c>
       <c r="K71" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3182,32 +3106,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.15</v>
+        <v>0.1512</v>
       </c>
       <c r="C72" t="n">
-        <v>0.15</v>
+        <v>0.1512</v>
       </c>
       <c r="D72" t="n">
-        <v>0.15</v>
+        <v>0.1512</v>
       </c>
       <c r="E72" t="n">
-        <v>0.15</v>
+        <v>0.1512</v>
       </c>
       <c r="F72" t="n">
-        <v>137000.0994</v>
+        <v>50000</v>
       </c>
       <c r="G72" t="n">
-        <v>37248995.4053013</v>
+        <v>13237967.0965508</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.1512</v>
+      </c>
       <c r="K72" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3224,32 +3150,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.15</v>
+        <v>0.1512</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1482</v>
+        <v>0.1512</v>
       </c>
       <c r="D73" t="n">
-        <v>0.15</v>
+        <v>0.1512</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1482</v>
+        <v>0.1512</v>
       </c>
       <c r="F73" t="n">
-        <v>746675.8636</v>
+        <v>6569331.7387</v>
       </c>
       <c r="G73" t="n">
-        <v>36502319.5417013</v>
+        <v>13237967.0965508</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.1512</v>
+      </c>
       <c r="K73" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3266,32 +3194,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1482</v>
+        <v>0.1512</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1482</v>
+        <v>0.152</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1482</v>
+        <v>0.152</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1482</v>
+        <v>0.1512</v>
       </c>
       <c r="F74" t="n">
-        <v>8412.690399999999</v>
+        <v>3550</v>
       </c>
       <c r="G74" t="n">
-        <v>36502319.5417013</v>
+        <v>13241517.0965508</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.1512</v>
+      </c>
       <c r="K74" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3308,22 +3238,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1482</v>
+        <v>0.1502</v>
       </c>
       <c r="C75" t="n">
-        <v>0.148</v>
+        <v>0.1502</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1482</v>
+        <v>0.1502</v>
       </c>
       <c r="E75" t="n">
-        <v>0.148</v>
+        <v>0.1502</v>
       </c>
       <c r="F75" t="n">
-        <v>100000</v>
+        <v>542019</v>
       </c>
       <c r="G75" t="n">
-        <v>36402319.5417013</v>
+        <v>12699498.0965508</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3333,7 +3263,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3350,32 +3280,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.148</v>
+        <v>0.1502</v>
       </c>
       <c r="C76" t="n">
-        <v>0.148</v>
+        <v>0.1502</v>
       </c>
       <c r="D76" t="n">
-        <v>0.148</v>
+        <v>0.1502</v>
       </c>
       <c r="E76" t="n">
-        <v>0.148</v>
+        <v>0.1502</v>
       </c>
       <c r="F76" t="n">
-        <v>42635.0366</v>
+        <v>5080674.1026</v>
       </c>
       <c r="G76" t="n">
-        <v>36402319.5417013</v>
+        <v>12699498.0965508</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.1502</v>
+      </c>
       <c r="K76" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3392,32 +3324,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.148</v>
+        <v>0.152</v>
       </c>
       <c r="C77" t="n">
-        <v>0.148</v>
+        <v>0.152</v>
       </c>
       <c r="D77" t="n">
-        <v>0.148</v>
+        <v>0.152</v>
       </c>
       <c r="E77" t="n">
-        <v>0.148</v>
+        <v>0.152</v>
       </c>
       <c r="F77" t="n">
-        <v>1437401.4394</v>
+        <v>3550</v>
       </c>
       <c r="G77" t="n">
-        <v>36402319.5417013</v>
+        <v>12703048.0965508</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.1502</v>
+      </c>
       <c r="K77" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3434,22 +3368,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.148</v>
+        <v>0.1505</v>
       </c>
       <c r="C78" t="n">
-        <v>0.148</v>
+        <v>0.1505</v>
       </c>
       <c r="D78" t="n">
-        <v>0.148</v>
+        <v>0.1505</v>
       </c>
       <c r="E78" t="n">
-        <v>0.148</v>
+        <v>0.1505</v>
       </c>
       <c r="F78" t="n">
-        <v>2388656.2224</v>
+        <v>5060423.7924</v>
       </c>
       <c r="G78" t="n">
-        <v>36402319.5417013</v>
+        <v>7642624.304150804</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3459,7 +3393,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3476,22 +3410,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1499</v>
+        <v>0.1506</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1499</v>
+        <v>0.1506</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1499</v>
+        <v>0.1506</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1499</v>
+        <v>0.1506</v>
       </c>
       <c r="F79" t="n">
-        <v>4410.721</v>
+        <v>21151</v>
       </c>
       <c r="G79" t="n">
-        <v>36406730.2627013</v>
+        <v>7663775.304150804</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3501,7 +3435,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3518,32 +3452,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1499</v>
+        <v>0.1506</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1499</v>
+        <v>0.1506</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1499</v>
+        <v>0.1506</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1499</v>
+        <v>0.1506</v>
       </c>
       <c r="F80" t="n">
-        <v>41134.5552</v>
+        <v>1374819.6034</v>
       </c>
       <c r="G80" t="n">
-        <v>36406730.2627013</v>
+        <v>7663775.304150804</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.1506</v>
+      </c>
       <c r="K80" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3560,32 +3496,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1479</v>
+        <v>0.1512</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1479</v>
+        <v>0.152</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1479</v>
+        <v>0.152</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1479</v>
+        <v>0.1507</v>
       </c>
       <c r="F81" t="n">
-        <v>1926359.2888</v>
+        <v>20163003.5294</v>
       </c>
       <c r="G81" t="n">
-        <v>34480370.9739013</v>
+        <v>27826778.8335508</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.1506</v>
+      </c>
       <c r="K81" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3602,34 +3540,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1479</v>
+        <v>0.152</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1479</v>
+        <v>0.1508</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1479</v>
+        <v>0.1532</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1479</v>
+        <v>0.1508</v>
       </c>
       <c r="F82" t="n">
-        <v>83403.4687</v>
+        <v>5936895.167</v>
       </c>
       <c r="G82" t="n">
-        <v>34480370.9739013</v>
+        <v>21889883.6665508</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.1479</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3646,34 +3582,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1479</v>
+        <v>0.1508</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1475</v>
+        <v>0.1518</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1479</v>
+        <v>0.1518</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1475</v>
+        <v>0.1508</v>
       </c>
       <c r="F83" t="n">
-        <v>258106.5979</v>
+        <v>10187777.8422</v>
       </c>
       <c r="G83" t="n">
-        <v>34222264.3760013</v>
+        <v>32077661.5087508</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.1479</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3690,34 +3624,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1499</v>
+        <v>0.1518</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1475</v>
+        <v>0.1532</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1499</v>
+        <v>0.1532</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1475</v>
+        <v>0.1518</v>
       </c>
       <c r="F84" t="n">
-        <v>4777957</v>
+        <v>16406</v>
       </c>
       <c r="G84" t="n">
-        <v>34222264.3760013</v>
+        <v>32094067.5087508</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.1475</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3734,34 +3666,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1475</v>
+        <v>0.1532</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1475</v>
+        <v>0.1532</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1475</v>
+        <v>0.1532</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1475</v>
+        <v>0.1532</v>
       </c>
       <c r="F85" t="n">
-        <v>1093.6834</v>
+        <v>1349975.1817</v>
       </c>
       <c r="G85" t="n">
-        <v>34222264.3760013</v>
+        <v>32094067.5087508</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.1475</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3778,34 +3708,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.147</v>
+        <v>0.1545</v>
       </c>
       <c r="C86" t="n">
-        <v>0.147</v>
+        <v>0.1532</v>
       </c>
       <c r="D86" t="n">
-        <v>0.147</v>
+        <v>0.1545</v>
       </c>
       <c r="E86" t="n">
-        <v>0.147</v>
+        <v>0.1532</v>
       </c>
       <c r="F86" t="n">
-        <v>88214.837</v>
+        <v>56022.6022</v>
       </c>
       <c r="G86" t="n">
-        <v>34134049.5390013</v>
+        <v>32094067.5087508</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.1475</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3822,34 +3750,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1451</v>
+        <v>0.1531</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1451</v>
+        <v>0.1532</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1451</v>
+        <v>0.1532</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1451</v>
+        <v>0.1531</v>
       </c>
       <c r="F87" t="n">
-        <v>16254.7071</v>
+        <v>4498569.6696</v>
       </c>
       <c r="G87" t="n">
-        <v>34117794.8319013</v>
+        <v>32094067.5087508</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.147</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3866,34 +3792,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1475</v>
+        <v>0.1544</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1475</v>
+        <v>0.1544</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1475</v>
+        <v>0.1544</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1475</v>
+        <v>0.1544</v>
       </c>
       <c r="F88" t="n">
-        <v>20283.6637</v>
+        <v>14630055.5444</v>
       </c>
       <c r="G88" t="n">
-        <v>34138078.4956013</v>
+        <v>46724123.0531508</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.1451</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3910,34 +3834,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1475</v>
+        <v>0.154</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1475</v>
+        <v>0.154</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1475</v>
+        <v>0.154</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1475</v>
+        <v>0.154</v>
       </c>
       <c r="F89" t="n">
-        <v>4300907.9675</v>
+        <v>2043661.0983</v>
       </c>
       <c r="G89" t="n">
-        <v>34138078.4956013</v>
+        <v>44680461.9548508</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.1475</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3954,34 +3876,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1475</v>
+        <v>0.1515</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1475</v>
+        <v>0.1515</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1475</v>
+        <v>0.1515</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1475</v>
+        <v>0.1515</v>
       </c>
       <c r="F90" t="n">
-        <v>2401006.3871</v>
+        <v>1114742.6348</v>
       </c>
       <c r="G90" t="n">
-        <v>34138078.4956013</v>
+        <v>43565719.3200508</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.1475</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3998,34 +3918,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1483</v>
+        <v>0.151</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1483</v>
+        <v>0.151</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1483</v>
+        <v>0.151</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1483</v>
+        <v>0.151</v>
       </c>
       <c r="F91" t="n">
-        <v>6747.0568</v>
+        <v>50000</v>
       </c>
       <c r="G91" t="n">
-        <v>34144825.5524013</v>
+        <v>43515719.3200508</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.1475</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4042,34 +3960,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1483</v>
+        <v>0.151</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1483</v>
+        <v>0.15</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1483</v>
+        <v>0.151</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1483</v>
+        <v>0.15</v>
       </c>
       <c r="F92" t="n">
-        <v>395541.0328</v>
+        <v>6970841.3598</v>
       </c>
       <c r="G92" t="n">
-        <v>34144825.5524013</v>
+        <v>36544877.96025079</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.1483</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4086,34 +4002,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1468</v>
+        <v>0.1452</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1468</v>
+        <v>0.1452</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1468</v>
+        <v>0.1452</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1468</v>
+        <v>0.1452</v>
       </c>
       <c r="F93" t="n">
-        <v>217966.6985</v>
+        <v>88158.3836</v>
       </c>
       <c r="G93" t="n">
-        <v>33926858.8539013</v>
+        <v>36456719.5766508</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.1483</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4130,22 +4044,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1483</v>
+        <v>0.1452</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1485</v>
+        <v>0.1452</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1485</v>
+        <v>0.1452</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1483</v>
+        <v>0.1452</v>
       </c>
       <c r="F94" t="n">
-        <v>218824.4059</v>
+        <v>97073.519</v>
       </c>
       <c r="G94" t="n">
-        <v>34145683.25980131</v>
+        <v>36456719.5766508</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -4154,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1468</v>
+        <v>0.1452</v>
       </c>
       <c r="K94" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4174,32 +4088,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1469</v>
+        <v>0.1453</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1469</v>
+        <v>0.1453</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1469</v>
+        <v>0.1453</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1469</v>
+        <v>0.1453</v>
       </c>
       <c r="F95" t="n">
-        <v>6230</v>
+        <v>665341.5285</v>
       </c>
       <c r="G95" t="n">
-        <v>34139453.25980131</v>
+        <v>37122061.1051508</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.1452</v>
+      </c>
       <c r="K95" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4216,22 +4132,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1471</v>
+        <v>0.1454</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1471</v>
+        <v>0.1499</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1471</v>
+        <v>0.1499</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1471</v>
+        <v>0.1454</v>
       </c>
       <c r="F96" t="n">
-        <v>20190343.1746</v>
+        <v>3370144.0502</v>
       </c>
       <c r="G96" t="n">
-        <v>54329796.4344013</v>
+        <v>40492205.1553508</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -4240,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1469</v>
+        <v>0.1453</v>
       </c>
       <c r="K96" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4260,22 +4176,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1471</v>
+        <v>0.1492</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1471</v>
+        <v>0.1492</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1471</v>
+        <v>0.1492</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1471</v>
+        <v>0.1492</v>
       </c>
       <c r="F97" t="n">
-        <v>6354553.7071</v>
+        <v>322111.6334</v>
       </c>
       <c r="G97" t="n">
-        <v>54329796.4344013</v>
+        <v>40170093.5219508</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -4284,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1471</v>
+        <v>0.1499</v>
       </c>
       <c r="K97" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4304,22 +4220,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1485</v>
+        <v>0.1488</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1485</v>
+        <v>0.1488</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1485</v>
+        <v>0.1488</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1485</v>
+        <v>0.1488</v>
       </c>
       <c r="F98" t="n">
-        <v>1987364.8538</v>
+        <v>3178572.4651</v>
       </c>
       <c r="G98" t="n">
-        <v>56317161.2882013</v>
+        <v>36991521.0568508</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -4328,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1471</v>
+        <v>0.1492</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4348,22 +4264,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1484</v>
+        <v>0.1488</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1484</v>
+        <v>0.1511</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1484</v>
+        <v>0.1511</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1484</v>
+        <v>0.1488</v>
       </c>
       <c r="F99" t="n">
-        <v>28017.3915</v>
+        <v>1004474.5497</v>
       </c>
       <c r="G99" t="n">
-        <v>56289143.8967013</v>
+        <v>37995995.6065508</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4373,7 +4289,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4393,19 +4309,19 @@
         <v>0.1488</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="E100" t="n">
         <v>0.1488</v>
       </c>
       <c r="F100" t="n">
-        <v>564252.9271</v>
+        <v>376312.888</v>
       </c>
       <c r="G100" t="n">
-        <v>56853396.8238013</v>
+        <v>37619682.7185508</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4415,7 +4331,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4432,22 +4348,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1488</v>
+        <v>0.15</v>
       </c>
       <c r="F101" t="n">
-        <v>461799.5492</v>
+        <v>376312.888</v>
       </c>
       <c r="G101" t="n">
-        <v>56853396.8238013</v>
+        <v>37619682.7185508</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4457,7 +4373,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4474,22 +4390,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1489</v>
+        <v>0.1522</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1489</v>
+        <v>0.1512</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1489</v>
+        <v>0.1522</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1489</v>
+        <v>0.1512</v>
       </c>
       <c r="F102" t="n">
-        <v>33373.7754</v>
+        <v>145578.0423280423</v>
       </c>
       <c r="G102" t="n">
-        <v>56886770.5992013</v>
+        <v>37765260.76087885</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4499,7 +4415,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4516,22 +4432,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1489</v>
+        <v>0.1506</v>
       </c>
       <c r="C103" t="n">
-        <v>0.15</v>
+        <v>0.1507</v>
       </c>
       <c r="D103" t="n">
-        <v>0.15</v>
+        <v>0.1507</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1489</v>
+        <v>0.1506</v>
       </c>
       <c r="F103" t="n">
-        <v>15275479.5188</v>
+        <v>650298.6066000001</v>
       </c>
       <c r="G103" t="n">
-        <v>72162250.1180013</v>
+        <v>37114962.15427884</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4541,7 +4457,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4558,22 +4474,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.15</v>
+        <v>0.1505</v>
       </c>
       <c r="C104" t="n">
-        <v>0.15</v>
+        <v>0.1506</v>
       </c>
       <c r="D104" t="n">
-        <v>0.15</v>
+        <v>0.1506</v>
       </c>
       <c r="E104" t="n">
-        <v>0.15</v>
+        <v>0.1505</v>
       </c>
       <c r="F104" t="n">
-        <v>454653.6815</v>
+        <v>397830.3491</v>
       </c>
       <c r="G104" t="n">
-        <v>72162250.1180013</v>
+        <v>36717131.80517884</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4583,7 +4499,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4600,22 +4516,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.15</v>
+        <v>0.1502</v>
       </c>
       <c r="C105" t="n">
         <v>0.15</v>
       </c>
       <c r="D105" t="n">
-        <v>0.15</v>
+        <v>0.1502</v>
       </c>
       <c r="E105" t="n">
         <v>0.15</v>
       </c>
       <c r="F105" t="n">
-        <v>19943.4746</v>
+        <v>100000</v>
       </c>
       <c r="G105" t="n">
-        <v>72162250.1180013</v>
+        <v>36617131.80517884</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4625,7 +4541,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4654,10 +4570,10 @@
         <v>0.15</v>
       </c>
       <c r="F106" t="n">
-        <v>74776.1303</v>
+        <v>945046.5882</v>
       </c>
       <c r="G106" t="n">
-        <v>72162250.1180013</v>
+        <v>36617131.80517884</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4667,7 +4583,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4684,22 +4600,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="F107" t="n">
-        <v>64373.526</v>
+        <v>765678.2585</v>
       </c>
       <c r="G107" t="n">
-        <v>72097876.5920013</v>
+        <v>36617131.80517884</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4709,7 +4625,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4726,22 +4642,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1485</v>
+        <v>0.1499</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1485</v>
+        <v>0.1499</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1485</v>
+        <v>0.1499</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1485</v>
+        <v>0.1499</v>
       </c>
       <c r="F108" t="n">
-        <v>846328.108</v>
+        <v>221471.4447</v>
       </c>
       <c r="G108" t="n">
-        <v>72097876.5920013</v>
+        <v>36395660.36047884</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4751,7 +4667,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4768,22 +4684,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1485</v>
+        <v>0.1498</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1485</v>
+        <v>0.1499</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1485</v>
+        <v>0.1499</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1485</v>
+        <v>0.1498</v>
       </c>
       <c r="F109" t="n">
-        <v>206815.554</v>
+        <v>155452.8715</v>
       </c>
       <c r="G109" t="n">
-        <v>72097876.5920013</v>
+        <v>36395660.36047884</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4793,7 +4709,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4810,22 +4726,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="F110" t="n">
-        <v>310493.1479</v>
+        <v>4843.4912</v>
       </c>
       <c r="G110" t="n">
-        <v>72097876.5920013</v>
+        <v>36400503.85167884</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4835,7 +4751,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4852,22 +4768,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1484</v>
+        <v>0.1466</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1484</v>
+        <v>0.1465</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1484</v>
+        <v>0.1466</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1484</v>
+        <v>0.1465</v>
       </c>
       <c r="F111" t="n">
-        <v>1620000</v>
+        <v>9068668.197699999</v>
       </c>
       <c r="G111" t="n">
-        <v>70477876.5920013</v>
+        <v>27331835.65397884</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4877,7 +4793,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4894,32 +4810,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1485</v>
+        <v>0.1496</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1485</v>
+        <v>0.1496</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1485</v>
+        <v>0.1496</v>
       </c>
       <c r="E112" t="n">
-        <v>0.1485</v>
+        <v>0.1496</v>
       </c>
       <c r="F112" t="n">
-        <v>217633.8359</v>
+        <v>1673910.2839</v>
       </c>
       <c r="G112" t="n">
-        <v>70695510.4279013</v>
+        <v>29005745.93787884</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.1465</v>
+      </c>
       <c r="K112" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4936,22 +4854,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1485</v>
+        <v>0.1497</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1485</v>
+        <v>0.1497</v>
       </c>
       <c r="F113" t="n">
-        <v>299946.984</v>
+        <v>303057.9173</v>
       </c>
       <c r="G113" t="n">
-        <v>70695510.4279013</v>
+        <v>29308803.85517884</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4961,7 +4879,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4978,22 +4896,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1484</v>
+        <v>0.1472</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1485</v>
+        <v>0.1472</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1485</v>
+        <v>0.1472</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1484</v>
+        <v>0.1472</v>
       </c>
       <c r="F114" t="n">
-        <v>1239828.9551</v>
+        <v>138578.0423</v>
       </c>
       <c r="G114" t="n">
-        <v>70695510.4279013</v>
+        <v>29170225.81287884</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5003,7 +4921,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5020,22 +4938,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1484</v>
+        <v>0.1469</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1484</v>
+        <v>0.15</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1484</v>
+        <v>0.15</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1484</v>
+        <v>0.1469</v>
       </c>
       <c r="F115" t="n">
-        <v>18889.5464</v>
+        <v>3156638.1621</v>
       </c>
       <c r="G115" t="n">
-        <v>70676620.8815013</v>
+        <v>32326863.97497884</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5045,7 +4963,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5062,22 +4980,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="F116" t="n">
-        <v>481972.5917</v>
+        <v>380036.5594</v>
       </c>
       <c r="G116" t="n">
-        <v>71158593.4732013</v>
+        <v>32326863.97497884</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5087,7 +5005,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5104,22 +5022,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1485</v>
+        <v>0.1506</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1485</v>
+        <v>0.1506</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1485</v>
+        <v>0.15</v>
       </c>
       <c r="F117" t="n">
-        <v>1000300.09</v>
+        <v>234423.220578486</v>
       </c>
       <c r="G117" t="n">
-        <v>71158593.4732013</v>
+        <v>32561287.19555732</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5129,7 +5047,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5146,34 +5064,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1485</v>
+        <v>0.1506</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1485</v>
+        <v>0.1506</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1485</v>
+        <v>0.1506</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1485</v>
+        <v>0.1506</v>
       </c>
       <c r="F118" t="n">
-        <v>420234.0702</v>
+        <v>82941.45110000001</v>
       </c>
       <c r="G118" t="n">
-        <v>71158593.4732013</v>
+        <v>32561287.19555732</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.1485</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5190,22 +5106,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1484</v>
+        <v>0.1506</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1484</v>
+        <v>0.1506</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1484</v>
+        <v>0.1506</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1484</v>
+        <v>0.1506</v>
       </c>
       <c r="F119" t="n">
-        <v>1026052.4763</v>
+        <v>1458225.3402</v>
       </c>
       <c r="G119" t="n">
-        <v>70132540.9969013</v>
+        <v>32561287.19555732</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5215,7 +5131,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5232,22 +5148,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1485</v>
+        <v>0.1506</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1485</v>
+        <v>0.1506</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1485</v>
+        <v>0.1506</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1485</v>
+        <v>0.1506</v>
       </c>
       <c r="F120" t="n">
-        <v>2754242.2139</v>
+        <v>1261622.0533</v>
       </c>
       <c r="G120" t="n">
-        <v>72886783.2108013</v>
+        <v>32561287.19555732</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5257,7 +5173,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5274,22 +5190,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1484</v>
+        <v>0.1501</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1484</v>
+        <v>0.15</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1484</v>
+        <v>0.1501</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1484</v>
+        <v>0.15</v>
       </c>
       <c r="F121" t="n">
-        <v>120153.5163</v>
+        <v>2047342.5728</v>
       </c>
       <c r="G121" t="n">
-        <v>72766629.69450131</v>
+        <v>30513944.62275732</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5299,7 +5215,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5316,22 +5232,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1499</v>
+        <v>0.1506</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1499</v>
+        <v>0.1506</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1499</v>
+        <v>0.1506</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1499</v>
+        <v>0.1506</v>
       </c>
       <c r="F122" t="n">
-        <v>2663155.8528</v>
+        <v>2.1513944223108e-05</v>
       </c>
       <c r="G122" t="n">
-        <v>75429785.54730131</v>
+        <v>30513944.62277884</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5341,7 +5257,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5358,22 +5274,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
       <c r="C123" t="n">
-        <v>0.15</v>
+        <v>0.1529</v>
       </c>
       <c r="D123" t="n">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
       <c r="E123" t="n">
-        <v>0.15</v>
+        <v>0.1529</v>
       </c>
       <c r="F123" t="n">
-        <v>100524.8877</v>
+        <v>614383.3596224624</v>
       </c>
       <c r="G123" t="n">
-        <v>75530310.43500131</v>
+        <v>31128327.9824013</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5383,7 +5299,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5400,22 +5316,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.15</v>
+        <v>0.1506</v>
       </c>
       <c r="C124" t="n">
-        <v>0.15</v>
+        <v>0.1505</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1509</v>
+        <v>0.1506</v>
       </c>
       <c r="E124" t="n">
-        <v>0.15</v>
+        <v>0.1505</v>
       </c>
       <c r="F124" t="n">
-        <v>1033143.603905832</v>
+        <v>1825228.5787</v>
       </c>
       <c r="G124" t="n">
-        <v>75530310.43500131</v>
+        <v>29303099.4037013</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5425,7 +5341,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5442,22 +5358,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.15</v>
+        <v>0.1526</v>
       </c>
       <c r="C125" t="n">
-        <v>0.15</v>
+        <v>0.1526</v>
       </c>
       <c r="D125" t="n">
-        <v>0.15</v>
+        <v>0.1526</v>
       </c>
       <c r="E125" t="n">
-        <v>0.15</v>
+        <v>0.1526</v>
       </c>
       <c r="F125" t="n">
-        <v>1136341.7982</v>
+        <v>14666.7407</v>
       </c>
       <c r="G125" t="n">
-        <v>75530310.43500131</v>
+        <v>29317766.1444013</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5467,7 +5383,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5484,22 +5400,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.15</v>
+        <v>0.1503</v>
       </c>
       <c r="C126" t="n">
-        <v>0.15</v>
+        <v>0.1503</v>
       </c>
       <c r="D126" t="n">
-        <v>0.15</v>
+        <v>0.1503</v>
       </c>
       <c r="E126" t="n">
-        <v>0.15</v>
+        <v>0.1503</v>
       </c>
       <c r="F126" t="n">
-        <v>332529.5428</v>
+        <v>252714</v>
       </c>
       <c r="G126" t="n">
-        <v>75530310.43500131</v>
+        <v>29065052.1444013</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5509,7 +5425,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5526,22 +5442,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.15</v>
+        <v>0.1503</v>
       </c>
       <c r="C127" t="n">
-        <v>0.15</v>
+        <v>0.1503</v>
       </c>
       <c r="D127" t="n">
-        <v>0.15</v>
+        <v>0.1503</v>
       </c>
       <c r="E127" t="n">
-        <v>0.15</v>
+        <v>0.1503</v>
       </c>
       <c r="F127" t="n">
-        <v>7874.7797</v>
+        <v>167005.7308</v>
       </c>
       <c r="G127" t="n">
-        <v>75530310.43500131</v>
+        <v>29065052.1444013</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5551,7 +5467,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5568,22 +5484,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.15</v>
+        <v>0.1519</v>
       </c>
       <c r="C128" t="n">
-        <v>0.15</v>
+        <v>0.1519</v>
       </c>
       <c r="D128" t="n">
-        <v>0.15</v>
+        <v>0.1519</v>
       </c>
       <c r="E128" t="n">
-        <v>0.15</v>
+        <v>0.1519</v>
       </c>
       <c r="F128" t="n">
-        <v>681386.1699</v>
+        <v>19834578.267</v>
       </c>
       <c r="G128" t="n">
-        <v>75530310.43500131</v>
+        <v>48899630.4114013</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5593,7 +5509,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5610,22 +5526,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.15</v>
+        <v>0.1519</v>
       </c>
       <c r="C129" t="n">
-        <v>0.15</v>
+        <v>0.1519</v>
       </c>
       <c r="D129" t="n">
-        <v>0.15</v>
+        <v>0.1519</v>
       </c>
       <c r="E129" t="n">
-        <v>0.15</v>
+        <v>0.1519</v>
       </c>
       <c r="F129" t="n">
-        <v>538577.6733</v>
+        <v>5187376</v>
       </c>
       <c r="G129" t="n">
-        <v>75530310.43500131</v>
+        <v>48899630.4114013</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5635,7 +5551,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5652,22 +5568,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1511</v>
+        <v>0.1519</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1511</v>
+        <v>0.1503</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1511</v>
+        <v>0.1519</v>
       </c>
       <c r="E130" t="n">
-        <v>0.1511</v>
+        <v>0.1503</v>
       </c>
       <c r="F130" t="n">
-        <v>110026.7861</v>
+        <v>1407734.25</v>
       </c>
       <c r="G130" t="n">
-        <v>75640337.22110131</v>
+        <v>47491896.1614013</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5677,7 +5593,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5694,22 +5610,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1511</v>
+        <v>0.1504</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1511</v>
+        <v>0.15</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1511</v>
+        <v>0.1504</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1511</v>
+        <v>0.15</v>
       </c>
       <c r="F131" t="n">
-        <v>969798.2872</v>
+        <v>1030000</v>
       </c>
       <c r="G131" t="n">
-        <v>75640337.22110131</v>
+        <v>46461896.1614013</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5719,7 +5635,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5736,22 +5652,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1511</v>
+        <v>0.1483</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1511</v>
+        <v>0.1481</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1511</v>
+        <v>0.1483</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1511</v>
+        <v>0.148</v>
       </c>
       <c r="F132" t="n">
-        <v>1347522</v>
+        <v>6512888.0793</v>
       </c>
       <c r="G132" t="n">
-        <v>75640337.22110131</v>
+        <v>39949008.0821013</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5761,7 +5677,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5778,22 +5694,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1515</v>
+        <v>0.148</v>
       </c>
       <c r="C133" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="D133" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1515</v>
+        <v>0.148</v>
       </c>
       <c r="F133" t="n">
-        <v>200000</v>
+        <v>2896014</v>
       </c>
       <c r="G133" t="n">
-        <v>75840337.22110131</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5803,7 +5719,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5820,22 +5736,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="C134" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="D134" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="E134" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="F134" t="n">
-        <v>2895523.3183</v>
+        <v>881009.3478</v>
       </c>
       <c r="G134" t="n">
-        <v>75840337.22110131</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5845,7 +5761,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5862,22 +5778,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="E135" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="F135" t="n">
-        <v>183714.1831</v>
+        <v>15307571.5703</v>
       </c>
       <c r="G135" t="n">
-        <v>75656623.03800131</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5887,7 +5803,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5904,22 +5820,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="E136" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="F136" t="n">
-        <v>10966</v>
+        <v>22469261.0919</v>
       </c>
       <c r="G136" t="n">
-        <v>75656623.03800131</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5929,7 +5845,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5946,22 +5862,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="F137" t="n">
-        <v>26113</v>
+        <v>336710</v>
       </c>
       <c r="G137" t="n">
-        <v>75656623.03800131</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5971,7 +5887,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5988,22 +5904,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="D138" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1519</v>
+        <v>0.148</v>
       </c>
       <c r="F138" t="n">
-        <v>10321.9206</v>
+        <v>20212.981</v>
       </c>
       <c r="G138" t="n">
-        <v>75656623.03800131</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -6013,7 +5929,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6030,22 +5946,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="C139" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="D139" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="E139" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0001</v>
+        <v>2009875.0243</v>
       </c>
       <c r="G139" t="n">
-        <v>75656623.03810132</v>
+        <v>37052994.0821013</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6055,7 +5971,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6072,22 +5988,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1527</v>
+        <v>0.15</v>
       </c>
       <c r="C140" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="D140" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="E140" t="n">
-        <v>0.1527</v>
+        <v>0.15</v>
       </c>
       <c r="F140" t="n">
-        <v>280514.4157199351</v>
+        <v>66712.9509</v>
       </c>
       <c r="G140" t="n">
-        <v>75937137.45382126</v>
+        <v>37119707.0330013</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6097,7 +6013,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6114,22 +6030,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1539</v>
+        <v>0.15</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1525</v>
+        <v>0.15</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1539</v>
+        <v>0.15</v>
       </c>
       <c r="E141" t="n">
-        <v>0.1525</v>
+        <v>0.15</v>
       </c>
       <c r="F141" t="n">
-        <v>375094.9446</v>
+        <v>212465.8354</v>
       </c>
       <c r="G141" t="n">
-        <v>75562042.50922126</v>
+        <v>37119707.0330013</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6139,7 +6055,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6156,22 +6072,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1539</v>
+        <v>0.1482</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1539</v>
+        <v>0.1482</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1539</v>
+        <v>0.1482</v>
       </c>
       <c r="E142" t="n">
-        <v>0.1539</v>
+        <v>0.1482</v>
       </c>
       <c r="F142" t="n">
-        <v>324074.0740740741</v>
+        <v>7711.7271</v>
       </c>
       <c r="G142" t="n">
-        <v>75886116.58329533</v>
+        <v>37111995.3059013</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6181,7 +6097,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6198,22 +6114,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1538</v>
+        <v>0.15</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1522</v>
+        <v>0.15</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1538</v>
+        <v>0.15</v>
       </c>
       <c r="E143" t="n">
-        <v>0.1522</v>
+        <v>0.15</v>
       </c>
       <c r="F143" t="n">
-        <v>4000000</v>
+        <v>137000.0994</v>
       </c>
       <c r="G143" t="n">
-        <v>71886116.58329533</v>
+        <v>37248995.4053013</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6223,7 +6139,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6240,22 +6156,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="C144" t="n">
-        <v>0.152</v>
+        <v>0.1482</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1539</v>
+        <v>0.15</v>
       </c>
       <c r="E144" t="n">
-        <v>0.152</v>
+        <v>0.1482</v>
       </c>
       <c r="F144" t="n">
-        <v>888890.4059</v>
+        <v>746675.8636</v>
       </c>
       <c r="G144" t="n">
-        <v>70997226.17739533</v>
+        <v>36502319.5417013</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6265,7 +6181,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6282,22 +6198,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1539</v>
+        <v>0.1482</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1539</v>
+        <v>0.1482</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1539</v>
+        <v>0.1482</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1539</v>
+        <v>0.1482</v>
       </c>
       <c r="F145" t="n">
-        <v>318776.071</v>
+        <v>8412.690399999999</v>
       </c>
       <c r="G145" t="n">
-        <v>71316002.24839532</v>
+        <v>36502319.5417013</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6307,7 +6223,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6324,22 +6240,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1539</v>
+        <v>0.1482</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1539</v>
+        <v>0.148</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1539</v>
+        <v>0.1482</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1539</v>
+        <v>0.148</v>
       </c>
       <c r="F146" t="n">
-        <v>307023.6194</v>
+        <v>100000</v>
       </c>
       <c r="G146" t="n">
-        <v>71316002.24839532</v>
+        <v>36402319.5417013</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6349,7 +6265,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6366,22 +6282,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1539</v>
+        <v>0.148</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1539</v>
+        <v>0.148</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1539</v>
+        <v>0.148</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1539</v>
+        <v>0.148</v>
       </c>
       <c r="F147" t="n">
-        <v>22391.16309291748</v>
+        <v>42635.0366</v>
       </c>
       <c r="G147" t="n">
-        <v>71316002.24839532</v>
+        <v>36402319.5417013</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6391,7 +6307,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6408,22 +6324,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.154</v>
+        <v>0.148</v>
       </c>
       <c r="C148" t="n">
-        <v>0.154</v>
+        <v>0.148</v>
       </c>
       <c r="D148" t="n">
-        <v>0.154</v>
+        <v>0.148</v>
       </c>
       <c r="E148" t="n">
-        <v>0.154</v>
+        <v>0.148</v>
       </c>
       <c r="F148" t="n">
-        <v>35682</v>
+        <v>1437401.4394</v>
       </c>
       <c r="G148" t="n">
-        <v>71351684.24839532</v>
+        <v>36402319.5417013</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6433,7 +6349,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6450,22 +6366,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1523</v>
+        <v>0.148</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1522</v>
+        <v>0.148</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1523</v>
+        <v>0.148</v>
       </c>
       <c r="E149" t="n">
-        <v>0.1522</v>
+        <v>0.148</v>
       </c>
       <c r="F149" t="n">
-        <v>2380293.6467</v>
+        <v>2388656.2224</v>
       </c>
       <c r="G149" t="n">
-        <v>68971390.60169533</v>
+        <v>36402319.5417013</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6475,7 +6391,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6492,22 +6408,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1522</v>
+        <v>0.1499</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1522</v>
+        <v>0.1499</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1522</v>
+        <v>0.1499</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1522</v>
+        <v>0.1499</v>
       </c>
       <c r="F150" t="n">
-        <v>100000</v>
+        <v>4410.721</v>
       </c>
       <c r="G150" t="n">
-        <v>68971390.60169533</v>
+        <v>36406730.2627013</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6517,7 +6433,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6534,22 +6450,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1522</v>
+        <v>0.1499</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1522</v>
+        <v>0.1499</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1522</v>
+        <v>0.1499</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1522</v>
+        <v>0.1499</v>
       </c>
       <c r="F151" t="n">
-        <v>101581.3032</v>
+        <v>41134.5552</v>
       </c>
       <c r="G151" t="n">
-        <v>68971390.60169533</v>
+        <v>36406730.2627013</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6559,7 +6475,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6576,22 +6492,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1539</v>
+        <v>0.1479</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1539</v>
+        <v>0.1479</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1539</v>
+        <v>0.1479</v>
       </c>
       <c r="E152" t="n">
-        <v>0.1539</v>
+        <v>0.1479</v>
       </c>
       <c r="F152" t="n">
-        <v>5020.7165</v>
+        <v>1926359.2888</v>
       </c>
       <c r="G152" t="n">
-        <v>68976411.31819533</v>
+        <v>34480370.9739013</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6601,7 +6517,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6618,22 +6534,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1539</v>
+        <v>0.1479</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1539</v>
+        <v>0.1479</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1539</v>
+        <v>0.1479</v>
       </c>
       <c r="E153" t="n">
-        <v>0.1539</v>
+        <v>0.1479</v>
       </c>
       <c r="F153" t="n">
-        <v>1358710.6956</v>
+        <v>83403.4687</v>
       </c>
       <c r="G153" t="n">
-        <v>68976411.31819533</v>
+        <v>34480370.9739013</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6643,7 +6559,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6660,22 +6576,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.154</v>
+        <v>0.1479</v>
       </c>
       <c r="C154" t="n">
-        <v>0.154</v>
+        <v>0.1475</v>
       </c>
       <c r="D154" t="n">
-        <v>0.154</v>
+        <v>0.1479</v>
       </c>
       <c r="E154" t="n">
-        <v>0.154</v>
+        <v>0.1475</v>
       </c>
       <c r="F154" t="n">
-        <v>182770.444</v>
+        <v>258106.5979</v>
       </c>
       <c r="G154" t="n">
-        <v>69159181.76219533</v>
+        <v>34222264.3760013</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6685,7 +6601,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6702,22 +6618,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.154</v>
+        <v>0.1499</v>
       </c>
       <c r="C155" t="n">
-        <v>0.154</v>
+        <v>0.1475</v>
       </c>
       <c r="D155" t="n">
-        <v>0.154</v>
+        <v>0.1499</v>
       </c>
       <c r="E155" t="n">
-        <v>0.154</v>
+        <v>0.1475</v>
       </c>
       <c r="F155" t="n">
-        <v>91585.7758</v>
+        <v>4777957</v>
       </c>
       <c r="G155" t="n">
-        <v>69159181.76219533</v>
+        <v>34222264.3760013</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6727,7 +6643,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6744,22 +6660,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1539</v>
+        <v>0.1475</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1539</v>
+        <v>0.1475</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1539</v>
+        <v>0.1475</v>
       </c>
       <c r="E156" t="n">
-        <v>0.1539</v>
+        <v>0.1475</v>
       </c>
       <c r="F156" t="n">
-        <v>20644.879</v>
+        <v>1093.6834</v>
       </c>
       <c r="G156" t="n">
-        <v>69138536.88319534</v>
+        <v>34222264.3760013</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6769,7 +6685,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6786,22 +6702,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1539</v>
+        <v>0.147</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1521</v>
+        <v>0.147</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1539</v>
+        <v>0.147</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1521</v>
+        <v>0.147</v>
       </c>
       <c r="F157" t="n">
-        <v>292956.3372</v>
+        <v>88214.837</v>
       </c>
       <c r="G157" t="n">
-        <v>68845580.54599534</v>
+        <v>34134049.5390013</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6811,7 +6727,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6828,22 +6744,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1539</v>
+        <v>0.1451</v>
       </c>
       <c r="C158" t="n">
-        <v>0.1539</v>
+        <v>0.1451</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1539</v>
+        <v>0.1451</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1539</v>
+        <v>0.1451</v>
       </c>
       <c r="F158" t="n">
-        <v>12354</v>
+        <v>16254.7071</v>
       </c>
       <c r="G158" t="n">
-        <v>68857934.54599534</v>
+        <v>34117794.8319013</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6853,7 +6769,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6870,22 +6786,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1539</v>
+        <v>0.1475</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1539</v>
+        <v>0.1475</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1539</v>
+        <v>0.1475</v>
       </c>
       <c r="E159" t="n">
-        <v>0.1539</v>
+        <v>0.1475</v>
       </c>
       <c r="F159" t="n">
-        <v>504110.908</v>
+        <v>20283.6637</v>
       </c>
       <c r="G159" t="n">
-        <v>68857934.54599534</v>
+        <v>34138078.4956013</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6895,7 +6811,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6912,22 +6828,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.154</v>
+        <v>0.1475</v>
       </c>
       <c r="C160" t="n">
-        <v>0.154</v>
+        <v>0.1475</v>
       </c>
       <c r="D160" t="n">
-        <v>0.154</v>
+        <v>0.1475</v>
       </c>
       <c r="E160" t="n">
-        <v>0.154</v>
+        <v>0.1475</v>
       </c>
       <c r="F160" t="n">
-        <v>4082931.308</v>
+        <v>4300907.9675</v>
       </c>
       <c r="G160" t="n">
-        <v>72940865.85399534</v>
+        <v>34138078.4956013</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6937,7 +6853,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6954,22 +6870,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1545</v>
+        <v>0.1475</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1545</v>
+        <v>0.1475</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1545</v>
+        <v>0.1475</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1545</v>
+        <v>0.1475</v>
       </c>
       <c r="F161" t="n">
-        <v>3358253.9444</v>
+        <v>2401006.3871</v>
       </c>
       <c r="G161" t="n">
-        <v>76299119.79839534</v>
+        <v>34138078.4956013</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6979,7 +6895,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6996,40 +6912,40 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1531</v>
+        <v>0.1483</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1531</v>
+        <v>0.1483</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1531</v>
+        <v>0.1483</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1531</v>
+        <v>0.1483</v>
       </c>
       <c r="F162" t="n">
-        <v>2010668.0029</v>
+        <v>6747.0568</v>
       </c>
       <c r="G162" t="n">
-        <v>74288451.79549533</v>
+        <v>34144825.5524013</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>0.1499</v>
+        <v>0.1489</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>1.016347565043362</v>
+        <v>1</v>
       </c>
       <c r="N162" t="inlineStr"/>
     </row>
@@ -7038,32 +6954,38 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1531</v>
+        <v>0.1483</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1531</v>
+        <v>0.1483</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1531</v>
+        <v>0.1483</v>
       </c>
       <c r="E163" t="n">
-        <v>0.1531</v>
+        <v>0.1483</v>
       </c>
       <c r="F163" t="n">
-        <v>1759551</v>
+        <v>395541.0328</v>
       </c>
       <c r="G163" t="n">
-        <v>74288451.79549533</v>
+        <v>34144825.5524013</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7074,32 +6996,38 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1533</v>
+        <v>0.1468</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1533</v>
+        <v>0.1468</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1533</v>
+        <v>0.1468</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1533</v>
+        <v>0.1468</v>
       </c>
       <c r="F164" t="n">
-        <v>1707543</v>
+        <v>217966.6985</v>
       </c>
       <c r="G164" t="n">
-        <v>75995994.79549533</v>
+        <v>33926858.8539013</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7110,22 +7038,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1545</v>
+        <v>0.1483</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1545</v>
+        <v>0.1485</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1545</v>
+        <v>0.1485</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1545</v>
+        <v>0.1483</v>
       </c>
       <c r="F165" t="n">
-        <v>3453493.7736</v>
+        <v>218824.4059</v>
       </c>
       <c r="G165" t="n">
-        <v>79449488.56909533</v>
+        <v>34145683.25980131</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7134,8 +7062,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7146,32 +7080,38 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1545</v>
+        <v>0.1469</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1545</v>
+        <v>0.1469</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1545</v>
+        <v>0.1469</v>
       </c>
       <c r="E166" t="n">
-        <v>0.1545</v>
+        <v>0.1469</v>
       </c>
       <c r="F166" t="n">
-        <v>3228172.2877</v>
+        <v>6230</v>
       </c>
       <c r="G166" t="n">
-        <v>79449488.56909533</v>
+        <v>34139453.25980131</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7182,32 +7122,38 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1545</v>
+        <v>0.1471</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1545</v>
+        <v>0.1471</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1545</v>
+        <v>0.1471</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1545</v>
+        <v>0.1471</v>
       </c>
       <c r="F167" t="n">
-        <v>155000</v>
+        <v>20190343.1746</v>
       </c>
       <c r="G167" t="n">
-        <v>79449488.56909533</v>
+        <v>54329796.4344013</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7218,32 +7164,38 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1545</v>
+        <v>0.1471</v>
       </c>
       <c r="C168" t="n">
-        <v>0.1545</v>
+        <v>0.1471</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1545</v>
+        <v>0.1471</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1545</v>
+        <v>0.1471</v>
       </c>
       <c r="F168" t="n">
-        <v>6470716.94</v>
+        <v>6354553.7071</v>
       </c>
       <c r="G168" t="n">
-        <v>79449488.56909533</v>
+        <v>54329796.4344013</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7254,32 +7206,38 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1545</v>
+        <v>0.1485</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1545</v>
+        <v>0.1485</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1545</v>
+        <v>0.1485</v>
       </c>
       <c r="E169" t="n">
-        <v>0.1545</v>
+        <v>0.1485</v>
       </c>
       <c r="F169" t="n">
-        <v>1103667.7635</v>
+        <v>1987364.8538</v>
       </c>
       <c r="G169" t="n">
-        <v>79449488.56909533</v>
+        <v>56317161.2882013</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7290,32 +7248,38 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1545</v>
+        <v>0.1484</v>
       </c>
       <c r="C170" t="n">
-        <v>0.1545</v>
+        <v>0.1484</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1545</v>
+        <v>0.1484</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1545</v>
+        <v>0.1484</v>
       </c>
       <c r="F170" t="n">
-        <v>50000</v>
+        <v>28017.3915</v>
       </c>
       <c r="G170" t="n">
-        <v>79449488.56909533</v>
+        <v>56289143.8967013</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7326,32 +7290,38 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1545</v>
+        <v>0.1488</v>
       </c>
       <c r="C171" t="n">
-        <v>0.1533</v>
+        <v>0.1488</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1545</v>
+        <v>0.1488</v>
       </c>
       <c r="E171" t="n">
-        <v>0.1533</v>
+        <v>0.1488</v>
       </c>
       <c r="F171" t="n">
-        <v>250000</v>
+        <v>564252.9271</v>
       </c>
       <c r="G171" t="n">
-        <v>79199488.56909533</v>
+        <v>56853396.8238013</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7362,32 +7332,38 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1533</v>
+        <v>0.1488</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1533</v>
+        <v>0.1488</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1533</v>
+        <v>0.1488</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1533</v>
+        <v>0.1488</v>
       </c>
       <c r="F172" t="n">
-        <v>1612361.5069</v>
+        <v>461799.5492</v>
       </c>
       <c r="G172" t="n">
-        <v>79199488.56909533</v>
+        <v>56853396.8238013</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7398,32 +7374,38 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1534</v>
+        <v>0.1489</v>
       </c>
       <c r="C173" t="n">
-        <v>0.1534</v>
+        <v>0.1489</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1534</v>
+        <v>0.1489</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1534</v>
+        <v>0.1489</v>
       </c>
       <c r="F173" t="n">
-        <v>5335001.8683</v>
+        <v>33373.7754</v>
       </c>
       <c r="G173" t="n">
-        <v>84534490.43739533</v>
+        <v>56886770.5992013</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7434,32 +7416,38 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.154</v>
+        <v>0.1489</v>
       </c>
       <c r="C174" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="D174" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="E174" t="n">
-        <v>0.154</v>
+        <v>0.1489</v>
       </c>
       <c r="F174" t="n">
-        <v>50000</v>
+        <v>15275479.5188</v>
       </c>
       <c r="G174" t="n">
-        <v>84584490.43739533</v>
+        <v>72162250.1180013</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7470,32 +7458,38 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="C175" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="D175" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="E175" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="F175" t="n">
-        <v>50000</v>
+        <v>454653.6815</v>
       </c>
       <c r="G175" t="n">
-        <v>84584490.43739533</v>
+        <v>72162250.1180013</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7506,32 +7500,38 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="C176" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="D176" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="E176" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="F176" t="n">
-        <v>500000</v>
+        <v>19943.4746</v>
       </c>
       <c r="G176" t="n">
-        <v>84584490.43739533</v>
+        <v>72162250.1180013</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7542,32 +7542,38 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="C177" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="D177" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="E177" t="n">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
       <c r="F177" t="n">
-        <v>307919.5517</v>
+        <v>74776.1303</v>
       </c>
       <c r="G177" t="n">
-        <v>84584490.43739533</v>
+        <v>72162250.1180013</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7578,32 +7584,38 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.154</v>
+        <v>0.1485</v>
       </c>
       <c r="C178" t="n">
-        <v>0.154</v>
+        <v>0.1485</v>
       </c>
       <c r="D178" t="n">
-        <v>0.154</v>
+        <v>0.1485</v>
       </c>
       <c r="E178" t="n">
-        <v>0.154</v>
+        <v>0.1485</v>
       </c>
       <c r="F178" t="n">
-        <v>325000</v>
+        <v>64373.526</v>
       </c>
       <c r="G178" t="n">
-        <v>84584490.43739533</v>
+        <v>72097876.5920013</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7614,32 +7626,38 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.154</v>
+        <v>0.1485</v>
       </c>
       <c r="C179" t="n">
-        <v>0.154</v>
+        <v>0.1485</v>
       </c>
       <c r="D179" t="n">
-        <v>0.154</v>
+        <v>0.1485</v>
       </c>
       <c r="E179" t="n">
-        <v>0.154</v>
+        <v>0.1485</v>
       </c>
       <c r="F179" t="n">
-        <v>192207.7922077922</v>
+        <v>846328.108</v>
       </c>
       <c r="G179" t="n">
-        <v>84584490.43739533</v>
+        <v>72097876.5920013</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7650,32 +7668,38 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1539</v>
+        <v>0.1485</v>
       </c>
       <c r="C180" t="n">
-        <v>0.1539</v>
+        <v>0.1485</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1539</v>
+        <v>0.1485</v>
       </c>
       <c r="E180" t="n">
-        <v>0.1539</v>
+        <v>0.1485</v>
       </c>
       <c r="F180" t="n">
-        <v>264902.0074</v>
+        <v>206815.554</v>
       </c>
       <c r="G180" t="n">
-        <v>84319588.42999533</v>
+        <v>72097876.5920013</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7686,36 +7710,2766 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="F181" t="n">
+        <v>310493.1479</v>
+      </c>
+      <c r="G181" t="n">
+        <v>72097876.5920013</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1620000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>70477876.5920013</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="F183" t="n">
+        <v>217633.8359</v>
+      </c>
+      <c r="G183" t="n">
+        <v>70695510.4279013</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="F184" t="n">
+        <v>299946.984</v>
+      </c>
+      <c r="G184" t="n">
+        <v>70695510.4279013</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1239828.9551</v>
+      </c>
+      <c r="G185" t="n">
+        <v>70695510.4279013</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="F186" t="n">
+        <v>18889.5464</v>
+      </c>
+      <c r="G186" t="n">
+        <v>70676620.8815013</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="F187" t="n">
+        <v>481972.5917</v>
+      </c>
+      <c r="G187" t="n">
+        <v>71158593.4732013</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1000300.09</v>
+      </c>
+      <c r="G188" t="n">
+        <v>71158593.4732013</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="F189" t="n">
+        <v>420234.0702</v>
+      </c>
+      <c r="G189" t="n">
+        <v>71158593.4732013</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1026052.4763</v>
+      </c>
+      <c r="G190" t="n">
+        <v>70132540.9969013</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.1485</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2754242.2139</v>
+      </c>
+      <c r="G191" t="n">
+        <v>72886783.2108013</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.1484</v>
+      </c>
+      <c r="F192" t="n">
+        <v>120153.5163</v>
+      </c>
+      <c r="G192" t="n">
+        <v>72766629.69450131</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2663155.8528</v>
+      </c>
+      <c r="G193" t="n">
+        <v>75429785.54730131</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F194" t="n">
+        <v>100524.8877</v>
+      </c>
+      <c r="G194" t="n">
+        <v>75530310.43500131</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.1509</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1033143.603905832</v>
+      </c>
+      <c r="G195" t="n">
+        <v>75530310.43500131</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1136341.7982</v>
+      </c>
+      <c r="G196" t="n">
+        <v>75530310.43500131</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F197" t="n">
+        <v>332529.5428</v>
+      </c>
+      <c r="G197" t="n">
+        <v>75530310.43500131</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F198" t="n">
+        <v>7874.7797</v>
+      </c>
+      <c r="G198" t="n">
+        <v>75530310.43500131</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F199" t="n">
+        <v>681386.1699</v>
+      </c>
+      <c r="G199" t="n">
+        <v>75530310.43500131</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F200" t="n">
+        <v>538577.6733</v>
+      </c>
+      <c r="G200" t="n">
+        <v>75530310.43500131</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="F201" t="n">
+        <v>110026.7861</v>
+      </c>
+      <c r="G201" t="n">
+        <v>75640337.22110131</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="F202" t="n">
+        <v>969798.2872</v>
+      </c>
+      <c r="G202" t="n">
+        <v>75640337.22110131</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1347522</v>
+      </c>
+      <c r="G203" t="n">
+        <v>75640337.22110131</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.1515</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.1515</v>
+      </c>
+      <c r="F204" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>75840337.22110131</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2895523.3183</v>
+      </c>
+      <c r="G205" t="n">
+        <v>75840337.22110131</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="F206" t="n">
+        <v>183714.1831</v>
+      </c>
+      <c r="G206" t="n">
+        <v>75656623.03800131</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="F207" t="n">
+        <v>10966</v>
+      </c>
+      <c r="G207" t="n">
+        <v>75656623.03800131</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="F208" t="n">
+        <v>26113</v>
+      </c>
+      <c r="G208" t="n">
+        <v>75656623.03800131</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="F209" t="n">
+        <v>10321.9206</v>
+      </c>
+      <c r="G209" t="n">
+        <v>75656623.03800131</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1.015147750167898</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G210" t="n">
+        <v>75656623.03810132</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.1527</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.1527</v>
+      </c>
+      <c r="F211" t="n">
+        <v>280514.4157199351</v>
+      </c>
+      <c r="G211" t="n">
+        <v>75937137.45382126</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="F212" t="n">
+        <v>375094.9446</v>
+      </c>
+      <c r="G212" t="n">
+        <v>75562042.50922126</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="F213" t="n">
+        <v>324074.0740740741</v>
+      </c>
+      <c r="G213" t="n">
+        <v>75886116.58329533</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.1538</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.1538</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="F214" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>71886116.58329533</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F215" t="n">
+        <v>888890.4059</v>
+      </c>
+      <c r="G215" t="n">
+        <v>70997226.17739533</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="F216" t="n">
+        <v>318776.071</v>
+      </c>
+      <c r="G216" t="n">
+        <v>71316002.24839532</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="F217" t="n">
+        <v>307023.6194</v>
+      </c>
+      <c r="G217" t="n">
+        <v>71316002.24839532</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="F218" t="n">
+        <v>22391.16309291748</v>
+      </c>
+      <c r="G218" t="n">
+        <v>71316002.24839532</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F219" t="n">
+        <v>35682</v>
+      </c>
+      <c r="G219" t="n">
+        <v>71351684.24839532</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.1523</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.1523</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2380293.6467</v>
+      </c>
+      <c r="G220" t="n">
+        <v>68971390.60169533</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="F221" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G221" t="n">
+        <v>68971390.60169533</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="F222" t="n">
+        <v>101581.3032</v>
+      </c>
+      <c r="G222" t="n">
+        <v>68971390.60169533</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="F223" t="n">
+        <v>5020.7165</v>
+      </c>
+      <c r="G223" t="n">
+        <v>68976411.31819533</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1358710.6956</v>
+      </c>
+      <c r="G224" t="n">
+        <v>68976411.31819533</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F225" t="n">
+        <v>182770.444</v>
+      </c>
+      <c r="G225" t="n">
+        <v>69159181.76219533</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F226" t="n">
+        <v>91585.7758</v>
+      </c>
+      <c r="G226" t="n">
+        <v>69159181.76219533</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="F227" t="n">
+        <v>20644.879</v>
+      </c>
+      <c r="G227" t="n">
+        <v>69138536.88319534</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.1521</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.1521</v>
+      </c>
+      <c r="F228" t="n">
+        <v>292956.3372</v>
+      </c>
+      <c r="G228" t="n">
+        <v>68845580.54599534</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="F229" t="n">
+        <v>12354</v>
+      </c>
+      <c r="G229" t="n">
+        <v>68857934.54599534</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="F230" t="n">
+        <v>504110.908</v>
+      </c>
+      <c r="G230" t="n">
+        <v>68857934.54599534</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F231" t="n">
+        <v>4082931.308</v>
+      </c>
+      <c r="G231" t="n">
+        <v>72940865.85399534</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="F232" t="n">
+        <v>3358253.9444</v>
+      </c>
+      <c r="G232" t="n">
+        <v>76299119.79839534</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2010668.0029</v>
+      </c>
+      <c r="G233" t="n">
+        <v>74288451.79549533</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1759551</v>
+      </c>
+      <c r="G234" t="n">
+        <v>74288451.79549533</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1707543</v>
+      </c>
+      <c r="G235" t="n">
+        <v>75995994.79549533</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3453493.7736</v>
+      </c>
+      <c r="G236" t="n">
+        <v>79449488.56909533</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="F237" t="n">
+        <v>3228172.2877</v>
+      </c>
+      <c r="G237" t="n">
+        <v>79449488.56909533</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="F238" t="n">
+        <v>155000</v>
+      </c>
+      <c r="G238" t="n">
+        <v>79449488.56909533</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="F239" t="n">
+        <v>6470716.94</v>
+      </c>
+      <c r="G239" t="n">
+        <v>79449488.56909533</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1103667.7635</v>
+      </c>
+      <c r="G240" t="n">
+        <v>79449488.56909533</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="F241" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G241" t="n">
+        <v>79449488.56909533</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="F242" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G242" t="n">
+        <v>79199488.56909533</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1612361.5069</v>
+      </c>
+      <c r="G243" t="n">
+        <v>79199488.56909533</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.1534</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.1534</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.1534</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.1534</v>
+      </c>
+      <c r="F244" t="n">
+        <v>5335001.8683</v>
+      </c>
+      <c r="G244" t="n">
+        <v>84534490.43739533</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F245" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G245" t="n">
+        <v>84584490.43739533</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F246" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G246" t="n">
+        <v>84584490.43739533</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F247" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G247" t="n">
+        <v>84584490.43739533</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F248" t="n">
+        <v>307919.5517</v>
+      </c>
+      <c r="G248" t="n">
+        <v>84584490.43739533</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F249" t="n">
+        <v>325000</v>
+      </c>
+      <c r="G249" t="n">
+        <v>84584490.43739533</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F250" t="n">
+        <v>192207.7922077922</v>
+      </c>
+      <c r="G250" t="n">
+        <v>84584490.43739533</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.1539</v>
+      </c>
+      <c r="F251" t="n">
+        <v>264902.0074</v>
+      </c>
+      <c r="G251" t="n">
+        <v>84319588.42999533</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
         <v>0.1532</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C252" t="n">
         <v>0.1532</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D252" t="n">
         <v>0.1532</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E252" t="n">
         <v>0.1532</v>
       </c>
-      <c r="F181" t="n">
+      <c r="F252" t="n">
         <v>969336.8406</v>
       </c>
-      <c r="G181" t="n">
+      <c r="G252" t="n">
         <v>83350251.58939533</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest NPXS.xlsx
+++ b/BackTest/2020-01-16 BackTest NPXS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N252"/>
+  <dimension ref="A1:M252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,21 @@
         <v>18039500.36256002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.1503</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +723,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +760,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +795,21 @@
         <v>21085580.6969508</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.1531</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +834,21 @@
         <v>21775235.86935081</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.1434</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +873,21 @@
         <v>18445779.40385081</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +914,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +951,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +988,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1025,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1062,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1097,21 @@
         <v>18393921.0334508</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1138,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1175,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1212,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1249,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1286,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1323,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1360,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1397,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1434,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1471,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1508,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1545,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1582,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1619,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1656,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1693,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1730,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1767,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1804,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1841,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1878,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1915,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1952,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1989,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +2026,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2063,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2100,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2137,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,22 +2172,19 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2190,22 +2211,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2232,22 +2248,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,22 +2285,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2316,22 +2322,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2358,22 +2359,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2400,22 +2396,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2442,22 +2433,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2484,22 +2470,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2526,22 +2507,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2568,22 +2544,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2610,22 +2581,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2652,22 +2618,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2694,22 +2655,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2736,22 +2692,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2778,22 +2729,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2820,22 +2766,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2860,26 +2801,19 @@
         <v>14539096.8031508</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2904,26 +2838,19 @@
         <v>14539096.8031508</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2948,26 +2875,19 @@
         <v>14542596.8031508</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2992,26 +2912,19 @@
         <v>13011904.4778508</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3036,26 +2949,19 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3080,26 +2986,19 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3124,26 +3023,19 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3168,26 +3060,19 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3212,26 +3097,19 @@
         <v>13241517.0965508</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3258,22 +3136,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3298,26 +3171,19 @@
         <v>12699498.0965508</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3342,26 +3208,19 @@
         <v>12703048.0965508</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3386,24 +3245,19 @@
         <v>7642624.304150804</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3430,22 +3284,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3470,26 +3319,19 @@
         <v>7663775.304150804</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.1506</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3514,26 +3356,19 @@
         <v>27826778.8335508</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.1506</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3558,24 +3393,19 @@
         <v>21889883.6665508</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3602,22 +3432,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3644,22 +3469,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3686,22 +3506,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3728,22 +3543,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3770,22 +3580,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3812,22 +3617,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3854,22 +3654,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3896,22 +3691,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3938,22 +3728,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3980,22 +3765,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4022,22 +3802,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4062,26 +3837,19 @@
         <v>36456719.5766508</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.1452</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4106,26 +3874,19 @@
         <v>37122061.1051508</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.1452</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4150,26 +3911,19 @@
         <v>40492205.1553508</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.1453</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4194,26 +3948,19 @@
         <v>40170093.5219508</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4238,26 +3985,19 @@
         <v>36991521.0568508</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.1492</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4284,22 +4024,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4326,22 +4061,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4368,22 +4098,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4410,22 +4135,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4452,22 +4172,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4494,22 +4209,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4536,22 +4246,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4578,22 +4283,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4620,22 +4320,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4662,22 +4357,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4704,22 +4394,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4746,22 +4431,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4788,22 +4468,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4828,26 +4503,19 @@
         <v>29005745.93787884</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.1465</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4874,22 +4542,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4916,22 +4579,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4958,22 +4616,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5000,22 +4653,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5042,22 +4690,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5084,22 +4727,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5126,22 +4764,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5168,22 +4801,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5210,22 +4838,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5252,22 +4875,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5294,22 +4912,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5336,22 +4949,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5378,22 +4986,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5420,22 +5023,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5462,22 +5060,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5504,22 +5097,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5546,22 +5134,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5588,22 +5171,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5630,22 +5208,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5672,22 +5245,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5714,22 +5282,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5756,22 +5319,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5798,22 +5356,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5840,22 +5393,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5882,22 +5430,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5924,22 +5467,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5966,22 +5504,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6008,22 +5541,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6050,22 +5578,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6092,22 +5615,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6134,22 +5652,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6176,22 +5689,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6218,22 +5726,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6260,22 +5763,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6302,22 +5800,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6344,22 +5837,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6386,22 +5874,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6428,22 +5911,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6470,22 +5948,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6512,22 +5985,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6554,22 +6022,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6596,22 +6059,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6638,22 +6096,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6680,22 +6133,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6722,22 +6170,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6764,22 +6207,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6806,22 +6244,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6848,22 +6281,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6890,22 +6318,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6932,22 +6355,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6974,22 +6392,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7016,22 +6429,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7058,22 +6466,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7100,22 +6503,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7142,22 +6540,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7184,22 +6577,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7226,22 +6614,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7268,22 +6651,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7310,22 +6688,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7352,22 +6725,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7394,22 +6762,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7436,22 +6799,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7478,22 +6836,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7520,22 +6873,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7562,22 +6910,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7604,22 +6947,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7646,22 +6984,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7688,22 +7021,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7730,22 +7058,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7772,22 +7095,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7814,22 +7132,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7856,22 +7169,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7898,22 +7206,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7940,22 +7243,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7982,22 +7280,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8024,22 +7317,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8064,24 +7352,21 @@
         <v>71158593.4732013</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>0.1485</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8108,22 +7393,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8150,22 +7430,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8190,24 +7465,19 @@
         <v>72766629.69450131</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8234,22 +7504,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8276,22 +7541,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8318,22 +7578,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8360,22 +7615,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8402,22 +7652,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8444,22 +7689,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8484,24 +7724,21 @@
         <v>75530310.43500131</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8526,24 +7763,21 @@
         <v>75530310.43500131</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8568,24 +7802,21 @@
         <v>75640337.22110131</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8610,24 +7841,21 @@
         <v>75640337.22110131</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>0.1511</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8652,24 +7880,21 @@
         <v>75640337.22110131</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>0.1511</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8696,22 +7921,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8738,22 +7958,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8780,22 +7995,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8822,22 +8032,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8864,22 +8069,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8906,22 +8106,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1.015147750167898</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8948,16 +8143,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8984,16 +8180,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9020,16 +8217,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9056,16 +8254,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9090,18 +8289,17 @@
         <v>71886116.58329533</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9126,18 +8324,15 @@
         <v>70997226.17739533</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9162,18 +8357,15 @@
         <v>71316002.24839532</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9198,18 +8390,15 @@
         <v>71316002.24839532</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9234,18 +8423,15 @@
         <v>71316002.24839532</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9270,18 +8456,15 @@
         <v>71351684.24839532</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9306,18 +8489,15 @@
         <v>68971390.60169533</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9342,18 +8522,15 @@
         <v>68971390.60169533</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9378,18 +8555,15 @@
         <v>68971390.60169533</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9414,18 +8588,15 @@
         <v>68976411.31819533</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9450,18 +8621,15 @@
         <v>68976411.31819533</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9486,18 +8654,15 @@
         <v>69159181.76219533</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9524,16 +8689,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9558,18 +8720,15 @@
         <v>69138536.88319534</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9596,16 +8755,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9632,16 +8788,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9668,16 +8821,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9702,18 +8852,15 @@
         <v>72940865.85399534</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9740,16 +8887,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9776,16 +8920,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9812,16 +8953,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9848,16 +8986,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9884,16 +9019,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9920,16 +9052,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9954,18 +9083,15 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9992,16 +9118,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10028,16 +9151,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10064,16 +9184,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10098,18 +9215,15 @@
         <v>79199488.56909533</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10136,16 +9250,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10170,18 +9281,15 @@
         <v>84534490.43739533</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10206,18 +9314,15 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10242,18 +9347,15 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10280,16 +9382,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10314,18 +9413,15 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10352,16 +9448,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10388,16 +9481,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10424,16 +9514,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10458,20 +9545,17 @@
         <v>83350251.58939533</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest NPXS.xlsx
+++ b/BackTest/2020-01-16 BackTest NPXS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,10 +550,14 @@
         <v>20052235.31376002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.15</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -583,11 +587,19 @@
         <v>20099733.73676002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -619,8 +631,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,10 +667,14 @@
         <v>18541261.78516002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -682,12 +704,14 @@
         <v>18039500.36256002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0.1503</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -721,10 +745,14 @@
         <v>18039500.36256002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -758,10 +786,14 @@
         <v>21310126.44415081</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -795,12 +827,12 @@
         <v>21085580.6969508</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -834,12 +866,12 @@
         <v>21775235.86935081</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.1434</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -873,12 +905,12 @@
         <v>18445779.40385081</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -915,7 +947,9 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -952,7 +986,9 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -989,7 +1025,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1026,7 +1064,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1063,7 +1103,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1097,12 +1139,12 @@
         <v>18393921.0334508</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1139,7 +1181,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1176,7 +1220,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1213,7 +1259,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1250,7 +1298,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1287,7 +1337,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1324,7 +1376,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1361,7 +1415,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1398,7 +1454,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1435,7 +1493,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1472,7 +1532,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1509,7 +1571,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1546,7 +1610,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1583,7 +1649,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1620,7 +1688,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1657,7 +1727,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1694,7 +1766,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1731,7 +1805,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1768,7 +1844,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1805,7 +1883,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1842,7 +1922,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1879,7 +1961,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1916,7 +2000,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1953,7 +2039,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1990,7 +2078,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2027,7 +2117,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2064,7 +2156,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2101,7 +2195,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2138,7 +2234,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2175,7 +2273,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2212,7 +2312,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2249,7 +2351,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2286,7 +2390,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2323,7 +2429,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2360,7 +2468,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2397,7 +2507,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2434,7 +2546,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,7 +2585,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2508,7 +2624,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2545,7 +2663,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2582,7 +2702,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2619,7 +2741,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2656,7 +2780,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2693,7 +2819,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2730,7 +2858,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2767,7 +2897,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2804,7 +2936,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2841,7 +2975,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2878,7 +3014,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2915,7 +3053,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2952,7 +3092,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2989,7 +3131,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3026,7 +3170,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3063,7 +3209,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3100,7 +3248,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3137,7 +3287,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3174,7 +3326,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3211,7 +3365,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3245,10 +3401,12 @@
         <v>7642624.304150804</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,7 +3443,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3322,7 +3482,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3359,7 +3521,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3393,10 +3557,12 @@
         <v>21889883.6665508</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3433,7 +3599,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3470,7 +3638,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3507,7 +3677,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3544,7 +3716,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3581,7 +3755,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3618,7 +3794,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3655,7 +3833,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3692,7 +3872,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3729,7 +3911,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3766,7 +3950,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3803,7 +3989,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3840,7 +4028,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3877,7 +4067,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,7 +4106,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3951,7 +4145,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3988,7 +4184,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4025,7 +4223,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4062,7 +4262,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4099,7 +4301,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4136,7 +4340,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4173,7 +4379,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4210,7 +4418,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4247,7 +4457,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4284,7 +4496,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4321,7 +4535,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,7 +4574,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4395,7 +4613,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4432,7 +4652,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4469,7 +4691,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4506,7 +4730,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4543,7 +4769,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4580,7 +4808,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4617,7 +4847,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4654,7 +4886,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4691,7 +4925,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4728,7 +4964,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4765,7 +5003,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4802,7 +5042,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4839,7 +5081,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4876,7 +5120,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4913,7 +5159,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4950,7 +5198,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4987,7 +5237,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5024,7 +5276,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5061,7 +5315,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5098,7 +5354,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5135,7 +5393,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5172,7 +5432,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5209,7 +5471,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5246,7 +5510,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5283,7 +5549,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5320,7 +5588,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5357,7 +5627,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5394,7 +5666,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5431,7 +5705,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5468,7 +5744,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5505,7 +5783,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,7 +5822,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5579,7 +5861,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5616,7 +5900,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5653,7 +5939,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5690,7 +5978,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5727,7 +6017,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5764,7 +6056,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5801,7 +6095,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5838,7 +6134,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5875,7 +6173,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5912,7 +6212,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5949,7 +6251,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5986,7 +6290,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6023,7 +6329,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6060,7 +6368,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6097,7 +6407,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6134,7 +6446,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6171,7 +6485,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6208,7 +6524,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6245,7 +6563,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,7 +6602,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6319,7 +6641,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6356,7 +6680,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6393,7 +6719,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6430,7 +6758,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6467,7 +6797,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6504,7 +6836,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6541,7 +6875,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6578,7 +6914,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6615,7 +6953,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6652,7 +6992,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6689,7 +7031,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6726,7 +7070,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6763,7 +7109,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6800,7 +7148,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6837,7 +7187,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6874,7 +7226,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6911,7 +7265,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6948,7 +7304,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6985,7 +7343,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7022,7 +7382,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7059,7 +7421,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7096,7 +7460,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7133,7 +7499,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7170,7 +7538,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7207,7 +7577,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7244,7 +7616,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7281,7 +7655,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7318,7 +7694,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7352,12 +7730,12 @@
         <v>71158593.4732013</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0.1485</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7394,7 +7772,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7431,7 +7811,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7465,10 +7847,12 @@
         <v>72766629.69450131</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7505,7 +7889,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7542,7 +7928,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7579,7 +7967,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7616,7 +8006,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7653,7 +8045,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7690,7 +8084,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7724,12 +8120,12 @@
         <v>75530310.43500131</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7763,12 +8159,12 @@
         <v>75530310.43500131</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7802,12 +8198,12 @@
         <v>75640337.22110131</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7841,12 +8237,12 @@
         <v>75640337.22110131</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7880,12 +8276,12 @@
         <v>75640337.22110131</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7922,7 +8318,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7959,7 +8357,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7996,7 +8396,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8033,7 +8435,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8070,7 +8474,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8107,7 +8513,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8144,7 +8552,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8181,7 +8591,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8218,7 +8630,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8255,7 +8669,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,16 +8705,20 @@
         <v>71886116.58329533</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1.006968085106383</v>
+      </c>
       <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
@@ -8324,7 +8744,7 @@
         <v>70997226.17739533</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8357,7 +8777,7 @@
         <v>71316002.24839532</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8390,7 +8810,7 @@
         <v>71316002.24839532</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8423,7 +8843,7 @@
         <v>71316002.24839532</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8456,7 +8876,7 @@
         <v>71351684.24839532</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8489,7 +8909,7 @@
         <v>68971390.60169533</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8522,7 +8942,7 @@
         <v>68971390.60169533</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8555,7 +8975,7 @@
         <v>68971390.60169533</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8588,7 +9008,7 @@
         <v>68976411.31819533</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8621,7 +9041,7 @@
         <v>68976411.31819533</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8654,7 +9074,7 @@
         <v>69159181.76219533</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8687,7 +9107,7 @@
         <v>69159181.76219533</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8720,7 +9140,7 @@
         <v>69138536.88319534</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8753,7 +9173,7 @@
         <v>68845580.54599534</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8786,7 +9206,7 @@
         <v>68857934.54599534</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8819,7 +9239,7 @@
         <v>68857934.54599534</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8852,7 +9272,7 @@
         <v>72940865.85399534</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8885,7 +9305,7 @@
         <v>76299119.79839534</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8918,7 +9338,7 @@
         <v>74288451.79549533</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8951,7 +9371,7 @@
         <v>74288451.79549533</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8984,7 +9404,7 @@
         <v>75995994.79549533</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9017,7 +9437,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9083,7 +9503,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9215,7 +9635,7 @@
         <v>79199488.56909533</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9281,7 +9701,7 @@
         <v>84534490.43739533</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9314,7 +9734,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9347,7 +9767,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9413,7 +9833,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9545,7 +9965,7 @@
         <v>83350251.58939533</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9556,6 +9976,6 @@
       <c r="M252" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest NPXS.xlsx
+++ b/BackTest/2020-01-16 BackTest NPXS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>20052235.31376002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -587,2792 +583,2372 @@
         <v>20099733.73676002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1505</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1505</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1258471.9516</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18841261.78516002</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="F8" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18541261.78516002</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="F9" t="n">
+        <v>501761.4226</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18039500.36256002</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="F10" t="n">
+        <v>441989.9793</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18039500.36256002</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3270626.08159079</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21310126.44415081</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1434</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1434</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1434</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1434</v>
+      </c>
+      <c r="F12" t="n">
+        <v>224545.7472</v>
+      </c>
+      <c r="G12" t="n">
+        <v>21085580.6969508</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>689655.1724</v>
+      </c>
+      <c r="G13" t="n">
+        <v>21775235.86935081</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1498</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1498</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1498</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1498</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3329456.4655</v>
+      </c>
+      <c r="G14" t="n">
+        <v>18445779.40385081</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="F15" t="n">
+        <v>535556.3704</v>
+      </c>
+      <c r="G15" t="n">
+        <v>17910223.0334508</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="F16" t="n">
+        <v>560532.8966</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17910223.0334508</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17915223.0334508</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7338.22548365577</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17915223.0334508</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="F19" t="n">
+        <v>478698</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18393921.0334508</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1492</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1491</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1005000.6773</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18393921.0334508</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1264811.0105</v>
+      </c>
+      <c r="G21" t="n">
+        <v>18393921.0334508</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1526</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1526</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>18398921.0334508</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F23" t="n">
+        <v>619697.4013</v>
+      </c>
+      <c r="G23" t="n">
+        <v>17779223.63215081</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F24" t="n">
+        <v>280302.5986</v>
+      </c>
+      <c r="G24" t="n">
+        <v>17779223.63215081</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="F25" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>17979223.63215081</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1504</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4374333.6575</v>
+      </c>
+      <c r="G26" t="n">
+        <v>13604889.97465081</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1524</v>
+      </c>
+      <c r="F27" t="n">
+        <v>22222</v>
+      </c>
+      <c r="G27" t="n">
+        <v>13627111.97465081</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1475</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1475</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1021980.3371</v>
+      </c>
+      <c r="G28" t="n">
+        <v>12605131.63755081</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>690529.1587</v>
+      </c>
+      <c r="G29" t="n">
+        <v>13295660.79625081</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4399.5584</v>
+      </c>
+      <c r="G30" t="n">
+        <v>13295660.79625081</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="F31" t="n">
+        <v>173792.4696</v>
+      </c>
+      <c r="G31" t="n">
+        <v>13295660.79625081</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="F32" t="n">
+        <v>540902.5632</v>
+      </c>
+      <c r="G32" t="n">
+        <v>13295660.79625081</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="F33" t="n">
+        <v>26402.1284</v>
+      </c>
+      <c r="G33" t="n">
+        <v>13322062.92465081</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="F34" t="n">
+        <v>106694.15</v>
+      </c>
+      <c r="G34" t="n">
+        <v>13215368.77465081</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="F35" t="n">
+        <v>17292.9122</v>
+      </c>
+      <c r="G35" t="n">
+        <v>13198075.86245081</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9582</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13188493.86245081</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1508</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1508</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1508</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1508</v>
+      </c>
+      <c r="F37" t="n">
+        <v>118988.6144</v>
+      </c>
+      <c r="G37" t="n">
+        <v>13069505.24805081</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1507</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1507</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.1507</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1507</v>
+      </c>
+      <c r="F38" t="n">
+        <v>262136.6409</v>
+      </c>
+      <c r="G38" t="n">
+        <v>12807368.60715081</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1505</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1505</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1505</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1505</v>
+      </c>
+      <c r="F39" t="n">
+        <v>56884.6491</v>
+      </c>
+      <c r="G39" t="n">
+        <v>12750483.95805081</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12740483.95805081</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3770623.8742</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8969860.083850808</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1491</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1491</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.1491</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1491</v>
+      </c>
+      <c r="F42" t="n">
+        <v>47528.7509</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9017388.834750809</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="F43" t="n">
+        <v>594858.7681</v>
+      </c>
+      <c r="G43" t="n">
+        <v>8422530.066650808</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5370766.9247</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8422530.066650808</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3641093.3998</v>
+      </c>
+      <c r="G45" t="n">
+        <v>12063623.46645081</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F46" t="n">
+        <v>898940.6967</v>
+      </c>
+      <c r="G46" t="n">
+        <v>12962564.16315081</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="F47" t="n">
+        <v>285800</v>
+      </c>
+      <c r="G47" t="n">
+        <v>12676764.16315081</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10525316.5872</v>
+      </c>
+      <c r="G48" t="n">
+        <v>12676764.16315081</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7712884.9144</v>
+      </c>
+      <c r="G49" t="n">
+        <v>12676764.16315081</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3209640.2607</v>
+      </c>
+      <c r="G50" t="n">
+        <v>12676764.16315081</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="F51" t="n">
+        <v>33510698.6793</v>
+      </c>
+      <c r="G51" t="n">
+        <v>12676764.16315081</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2699955.7212</v>
+      </c>
+      <c r="G52" t="n">
+        <v>12676764.16315081</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="F53" t="n">
+        <v>658710.6967</v>
+      </c>
+      <c r="G53" t="n">
+        <v>13335474.85985081</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F54" t="n">
+        <v>285885.7657</v>
+      </c>
+      <c r="G54" t="n">
+        <v>13621360.6255508</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="F55" t="n">
+        <v>562653.1405</v>
+      </c>
+      <c r="G55" t="n">
+        <v>14184013.7660508</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="F56" t="n">
+        <v>616390.9172</v>
+      </c>
+      <c r="G56" t="n">
+        <v>14184013.7660508</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="F57" t="n">
+        <v>681472</v>
+      </c>
+      <c r="G57" t="n">
+        <v>13502541.7660508</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6260124.423</v>
+      </c>
+      <c r="G58" t="n">
+        <v>13502541.7660508</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6247436.7807</v>
+      </c>
+      <c r="G59" t="n">
+        <v>7255104.985350804</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="F60" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>7605104.985350804</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1696348.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5908756.485350804</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4082995.3415</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5908756.485350804</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="F63" t="n">
+        <v>264784.5766</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5908756.485350804</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1728083.7381</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5908756.485350804</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="F65" t="n">
+        <v>902382.9999000001</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5908756.485350804</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8630340.3178</v>
+      </c>
+      <c r="G66" t="n">
+        <v>14539096.8031508</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7123200.9999</v>
+      </c>
+      <c r="G67" t="n">
+        <v>14539096.8031508</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3500</v>
+      </c>
+      <c r="G68" t="n">
+        <v>14542596.8031508</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1530692.3253</v>
+      </c>
+      <c r="G69" t="n">
+        <v>13011904.4778508</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F70" t="n">
+        <v>226062.6187</v>
+      </c>
+      <c r="G70" t="n">
+        <v>13237967.0965508</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="F71" t="n">
+        <v>659994.9201</v>
+      </c>
+      <c r="G71" t="n">
+        <v>13237967.0965508</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="F72" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>13237967.0965508</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6569331.7387</v>
+      </c>
+      <c r="G73" t="n">
+        <v>13237967.0965508</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3550</v>
+      </c>
+      <c r="G74" t="n">
+        <v>13241517.0965508</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="F75" t="n">
+        <v>542019</v>
+      </c>
+      <c r="G75" t="n">
+        <v>12699498.0965508</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="F76" t="n">
+        <v>5080674.1026</v>
+      </c>
+      <c r="G76" t="n">
+        <v>12699498.0965508</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1505</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1505</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1258471.9516</v>
-      </c>
-      <c r="G7" t="n">
-        <v>18841261.78516002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3550</v>
+      </c>
+      <c r="G77" t="n">
+        <v>12703048.0965508</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.1502</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="F8" t="n">
-        <v>300000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>18541261.78516002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="F9" t="n">
-        <v>501761.4226</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18039500.36256002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="F10" t="n">
-        <v>441989.9793</v>
-      </c>
-      <c r="G10" t="n">
-        <v>18039500.36256002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.1524</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1524</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3270626.08159079</v>
-      </c>
-      <c r="G11" t="n">
-        <v>21310126.44415081</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1434</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1434</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1434</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.1434</v>
-      </c>
-      <c r="F12" t="n">
-        <v>224545.7472</v>
-      </c>
-      <c r="G12" t="n">
-        <v>21085580.6969508</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F13" t="n">
-        <v>689655.1724</v>
-      </c>
-      <c r="G13" t="n">
-        <v>21775235.86935081</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.1498</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1498</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1498</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1498</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3329456.4655</v>
-      </c>
-      <c r="G14" t="n">
-        <v>18445779.40385081</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="F15" t="n">
-        <v>535556.3704</v>
-      </c>
-      <c r="G15" t="n">
-        <v>17910223.0334508</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="F16" t="n">
-        <v>560532.8966</v>
-      </c>
-      <c r="G16" t="n">
-        <v>17910223.0334508</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>17915223.0334508</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7338.22548365577</v>
-      </c>
-      <c r="G18" t="n">
-        <v>17915223.0334508</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="F19" t="n">
-        <v>478698</v>
-      </c>
-      <c r="G19" t="n">
-        <v>18393921.0334508</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1492</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1491</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1005000.6773</v>
-      </c>
-      <c r="G20" t="n">
-        <v>18393921.0334508</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1264811.0105</v>
-      </c>
-      <c r="G21" t="n">
-        <v>18393921.0334508</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1526</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.1526</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>18398921.0334508</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F23" t="n">
-        <v>619697.4013</v>
-      </c>
-      <c r="G23" t="n">
-        <v>17779223.63215081</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F24" t="n">
-        <v>280302.5986</v>
-      </c>
-      <c r="G24" t="n">
-        <v>17779223.63215081</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1524</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.1524</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="F25" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G25" t="n">
-        <v>17979223.63215081</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4374333.6575</v>
-      </c>
-      <c r="G26" t="n">
-        <v>13604889.97465081</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.1524</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.1524</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.1524</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.1524</v>
-      </c>
-      <c r="F27" t="n">
-        <v>22222</v>
-      </c>
-      <c r="G27" t="n">
-        <v>13627111.97465081</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.1475</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.1475</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1021980.3371</v>
-      </c>
-      <c r="G28" t="n">
-        <v>12605131.63755081</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F29" t="n">
-        <v>690529.1587</v>
-      </c>
-      <c r="G29" t="n">
-        <v>13295660.79625081</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4399.5584</v>
-      </c>
-      <c r="G30" t="n">
-        <v>13295660.79625081</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="F31" t="n">
-        <v>173792.4696</v>
-      </c>
-      <c r="G31" t="n">
-        <v>13295660.79625081</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="F32" t="n">
-        <v>540902.5632</v>
-      </c>
-      <c r="G32" t="n">
-        <v>13295660.79625081</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="F33" t="n">
-        <v>26402.1284</v>
-      </c>
-      <c r="G33" t="n">
-        <v>13322062.92465081</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="F34" t="n">
-        <v>106694.15</v>
-      </c>
-      <c r="G34" t="n">
-        <v>13215368.77465081</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="F35" t="n">
-        <v>17292.9122</v>
-      </c>
-      <c r="G35" t="n">
-        <v>13198075.86245081</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="F36" t="n">
-        <v>9582</v>
-      </c>
-      <c r="G36" t="n">
-        <v>13188493.86245081</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.1508</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.1508</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.1508</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.1508</v>
-      </c>
-      <c r="F37" t="n">
-        <v>118988.6144</v>
-      </c>
-      <c r="G37" t="n">
-        <v>13069505.24805081</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.1507</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.1507</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.1507</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.1507</v>
-      </c>
-      <c r="F38" t="n">
-        <v>262136.6409</v>
-      </c>
-      <c r="G38" t="n">
-        <v>12807368.60715081</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.1505</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.1505</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.1505</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.1505</v>
-      </c>
-      <c r="F39" t="n">
-        <v>56884.6491</v>
-      </c>
-      <c r="G39" t="n">
-        <v>12750483.95805081</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="F40" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G40" t="n">
-        <v>12740483.95805081</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3770623.8742</v>
-      </c>
-      <c r="G41" t="n">
-        <v>8969860.083850808</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.1491</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.1491</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.1491</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.1491</v>
-      </c>
-      <c r="F42" t="n">
-        <v>47528.7509</v>
-      </c>
-      <c r="G42" t="n">
-        <v>9017388.834750809</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="F43" t="n">
-        <v>594858.7681</v>
-      </c>
-      <c r="G43" t="n">
-        <v>8422530.066650808</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5370766.9247</v>
-      </c>
-      <c r="G44" t="n">
-        <v>8422530.066650808</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3641093.3998</v>
-      </c>
-      <c r="G45" t="n">
-        <v>12063623.46645081</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F46" t="n">
-        <v>898940.6967</v>
-      </c>
-      <c r="G46" t="n">
-        <v>12962564.16315081</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="F47" t="n">
-        <v>285800</v>
-      </c>
-      <c r="G47" t="n">
-        <v>12676764.16315081</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="F48" t="n">
-        <v>10525316.5872</v>
-      </c>
-      <c r="G48" t="n">
-        <v>12676764.16315081</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="F49" t="n">
-        <v>7712884.9144</v>
-      </c>
-      <c r="G49" t="n">
-        <v>12676764.16315081</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3209640.2607</v>
-      </c>
-      <c r="G50" t="n">
-        <v>12676764.16315081</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="F51" t="n">
-        <v>33510698.6793</v>
-      </c>
-      <c r="G51" t="n">
-        <v>12676764.16315081</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2699955.7212</v>
-      </c>
-      <c r="G52" t="n">
-        <v>12676764.16315081</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.1499</v>
-      </c>
-      <c r="F53" t="n">
-        <v>658710.6967</v>
-      </c>
-      <c r="G53" t="n">
-        <v>13335474.85985081</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F54" t="n">
-        <v>285885.7657</v>
-      </c>
-      <c r="G54" t="n">
-        <v>13621360.6255508</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="F55" t="n">
-        <v>562653.1405</v>
-      </c>
-      <c r="G55" t="n">
-        <v>14184013.7660508</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="F56" t="n">
-        <v>616390.9172</v>
-      </c>
-      <c r="G56" t="n">
-        <v>14184013.7660508</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="F57" t="n">
-        <v>681472</v>
-      </c>
-      <c r="G57" t="n">
-        <v>13502541.7660508</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="F58" t="n">
-        <v>6260124.423</v>
-      </c>
-      <c r="G58" t="n">
-        <v>13502541.7660508</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="F59" t="n">
-        <v>6247436.7807</v>
-      </c>
-      <c r="G59" t="n">
-        <v>7255104.985350804</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="F60" t="n">
-        <v>350000</v>
-      </c>
-      <c r="G60" t="n">
-        <v>7605104.985350804</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1696348.5</v>
-      </c>
-      <c r="G61" t="n">
-        <v>5908756.485350804</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4082995.3415</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5908756.485350804</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="F63" t="n">
-        <v>264784.5766</v>
-      </c>
-      <c r="G63" t="n">
-        <v>5908756.485350804</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1728083.7381</v>
-      </c>
-      <c r="G64" t="n">
-        <v>5908756.485350804</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="F65" t="n">
-        <v>902382.9999000001</v>
-      </c>
-      <c r="G65" t="n">
-        <v>5908756.485350804</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="F66" t="n">
-        <v>8630340.3178</v>
-      </c>
-      <c r="G66" t="n">
-        <v>14539096.8031508</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="F67" t="n">
-        <v>7123200.9999</v>
-      </c>
-      <c r="G67" t="n">
-        <v>14539096.8031508</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3500</v>
-      </c>
-      <c r="G68" t="n">
-        <v>14542596.8031508</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1530692.3253</v>
-      </c>
-      <c r="G69" t="n">
-        <v>13011904.4778508</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F70" t="n">
-        <v>226062.6187</v>
-      </c>
-      <c r="G70" t="n">
-        <v>13237967.0965508</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="F71" t="n">
-        <v>659994.9201</v>
-      </c>
-      <c r="G71" t="n">
-        <v>13237967.0965508</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="F72" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G72" t="n">
-        <v>13237967.0965508</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="F73" t="n">
-        <v>6569331.7387</v>
-      </c>
-      <c r="G73" t="n">
-        <v>13237967.0965508</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="F74" t="n">
-        <v>3550</v>
-      </c>
-      <c r="G74" t="n">
-        <v>13241517.0965508</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="F75" t="n">
-        <v>542019</v>
-      </c>
-      <c r="G75" t="n">
-        <v>12699498.0965508</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="F76" t="n">
-        <v>5080674.1026</v>
-      </c>
-      <c r="G76" t="n">
-        <v>12699498.0965508</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="F77" t="n">
-        <v>3550</v>
-      </c>
-      <c r="G77" t="n">
-        <v>12703048.0965508</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3404,14 +2980,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3443,14 +3013,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3479,17 +3043,15 @@
         <v>7663775.304150804</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.1506</v>
+      </c>
       <c r="J80" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.1506</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3522,11 +3084,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>0.1504</v>
+        <v>0.1506</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3561,11 +3123,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>0.1504</v>
+        <v>0.1506</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3599,14 +3161,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3638,14 +3194,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3677,14 +3227,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3716,14 +3260,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3755,14 +3293,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3794,14 +3326,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3833,14 +3359,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3872,14 +3392,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3911,14 +3425,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3950,14 +3458,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3989,14 +3491,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4028,14 +3524,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4067,14 +3557,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4106,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4145,14 +3623,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4184,14 +3656,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4223,14 +3689,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4262,14 +3722,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4301,14 +3755,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4340,14 +3788,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4379,14 +3821,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4418,14 +3854,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4457,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4496,14 +3920,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4535,14 +3953,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4574,14 +3986,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4613,14 +4019,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4652,14 +4052,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4691,14 +4085,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4730,14 +4118,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4769,14 +4151,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4808,14 +4184,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4847,14 +4217,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4886,14 +4250,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4925,14 +4283,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4964,14 +4316,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5003,14 +4349,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5042,14 +4382,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5081,14 +4415,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5120,14 +4448,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5159,14 +4481,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5198,14 +4514,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5237,14 +4547,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5276,14 +4580,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5315,14 +4613,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5354,14 +4646,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5393,14 +4679,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5432,14 +4712,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5471,14 +4745,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5510,14 +4778,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5549,14 +4811,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5588,14 +4844,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5627,14 +4877,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5666,14 +4910,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5705,14 +4943,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5744,14 +4976,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5783,14 +5009,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5822,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5861,14 +5075,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5900,14 +5108,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5939,14 +5141,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5978,14 +5174,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6017,14 +5207,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6056,14 +5240,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6095,14 +5273,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6134,14 +5306,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6173,14 +5339,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6212,14 +5372,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6251,14 +5405,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6290,14 +5438,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6329,14 +5471,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6368,14 +5504,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6407,14 +5537,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6446,14 +5570,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6485,14 +5603,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6524,14 +5636,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6563,14 +5669,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6602,14 +5702,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6641,14 +5735,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6680,14 +5768,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6719,14 +5801,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6758,14 +5834,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6797,14 +5867,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6836,14 +5900,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6875,14 +5933,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6914,14 +5966,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6953,14 +5999,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6992,14 +6032,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7031,14 +6065,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7070,14 +6098,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7109,14 +6131,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7148,14 +6164,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7187,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7226,14 +6230,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7265,14 +6263,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7304,14 +6296,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7343,14 +6329,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7382,14 +6362,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7421,14 +6395,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7460,14 +6428,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7499,14 +6461,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7538,14 +6494,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7577,14 +6527,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7616,14 +6560,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7655,14 +6593,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7694,14 +6626,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7733,14 +6659,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7772,14 +6692,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7811,14 +6725,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7850,14 +6758,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7889,14 +6791,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7928,14 +6824,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7967,14 +6857,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8006,14 +6890,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8045,14 +6923,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8084,14 +6956,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8123,14 +6989,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8162,14 +7022,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8201,14 +7055,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8240,14 +7088,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8279,14 +7121,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8318,14 +7154,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8357,14 +7187,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8396,14 +7220,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8435,14 +7253,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8474,14 +7286,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8513,14 +7319,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8552,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8591,14 +7385,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8630,14 +7418,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8669,14 +7451,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8705,19 +7481,13 @@
         <v>71886116.58329533</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
-        <v>1.006968085106383</v>
+        <v>1</v>
       </c>
       <c r="M214" t="inlineStr"/>
     </row>
@@ -8744,7 +7514,7 @@
         <v>70997226.17739533</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8777,7 +7547,7 @@
         <v>71316002.24839532</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8810,7 +7580,7 @@
         <v>71316002.24839532</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8843,7 +7613,7 @@
         <v>71316002.24839532</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8876,7 +7646,7 @@
         <v>71351684.24839532</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8909,7 +7679,7 @@
         <v>68971390.60169533</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8942,7 +7712,7 @@
         <v>68971390.60169533</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8975,7 +7745,7 @@
         <v>68971390.60169533</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9008,7 +7778,7 @@
         <v>68976411.31819533</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9041,7 +7811,7 @@
         <v>68976411.31819533</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9074,7 +7844,7 @@
         <v>69159181.76219533</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9107,7 +7877,7 @@
         <v>69159181.76219533</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9140,7 +7910,7 @@
         <v>69138536.88319534</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9173,7 +7943,7 @@
         <v>68845580.54599534</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9206,7 +7976,7 @@
         <v>68857934.54599534</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9239,7 +8009,7 @@
         <v>68857934.54599534</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9272,7 +8042,7 @@
         <v>72940865.85399534</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9305,7 +8075,7 @@
         <v>76299119.79839534</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9338,7 +8108,7 @@
         <v>74288451.79549533</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9371,7 +8141,7 @@
         <v>74288451.79549533</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9404,7 +8174,7 @@
         <v>75995994.79549533</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9437,7 +8207,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9976,6 +8746,6 @@
       <c r="M252" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest NPXS.xlsx
+++ b/BackTest/2020-01-16 BackTest NPXS.xlsx
@@ -484,10 +484,14 @@
         <v>20052235.31376002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.15</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>20052235.31376002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>20052235.31376002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>20099733.73676002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.15</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -619,8 +643,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +682,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,19 @@
         <v>18039500.36256002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1503</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +762,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +801,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +837,17 @@
         <v>21085580.6969508</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +876,17 @@
         <v>21775235.86935081</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +915,17 @@
         <v>18445779.40385081</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +957,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +996,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1035,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1074,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1113,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1152,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1191,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1230,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1269,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1308,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1347,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1386,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1425,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1464,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1503,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1542,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1581,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1620,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1659,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1698,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1737,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1776,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1815,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1854,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1893,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1932,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1971,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2010,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2049,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2085,19 @@
         <v>8422530.066650808</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2126,19 @@
         <v>12063623.46645081</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2170,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2209,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2245,19 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2286,19 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2327,19 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2368,19 @@
         <v>12676764.16315081</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1489</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2412,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2451,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2490,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2529,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2568,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2607,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2646,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2685,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2724,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2763,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2802,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2841,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2880,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2919,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2955,19 @@
         <v>14539096.8031508</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2996,19 @@
         <v>14539096.8031508</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +3037,19 @@
         <v>14542596.8031508</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +3078,19 @@
         <v>13011904.4778508</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3119,19 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.1511</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3160,19 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3201,19 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3242,19 @@
         <v>13237967.0965508</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.1512</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3286,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2866,9 +3328,13 @@
         <v>0.152</v>
       </c>
       <c r="J75" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+        <v>0.15</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,15 +3363,17 @@
         <v>12699498.0965508</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.1502</v>
+      </c>
       <c r="J76" t="n">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -2942,11 +3410,11 @@
         <v>0.1502</v>
       </c>
       <c r="J77" t="n">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -2977,11 +3445,19 @@
         <v>7642624.304150804</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3013,8 +3489,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3049,9 +3531,13 @@
         <v>0.1506</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1506</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+        <v>0.15</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3080,15 +3566,17 @@
         <v>27826778.8335508</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.1506</v>
+      </c>
       <c r="J81" t="n">
-        <v>0.1506</v>
+        <v>0.15</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3123,11 +3611,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>0.1506</v>
+        <v>0.15</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3161,8 +3649,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3194,8 +3688,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3227,8 +3727,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3260,8 +3766,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3293,8 +3805,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3326,8 +3844,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3359,8 +3883,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3392,8 +3922,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3425,8 +3961,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3458,8 +4000,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3491,8 +4039,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3524,8 +4078,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3557,8 +4117,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3590,8 +4156,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3623,8 +4195,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3656,8 +4234,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3689,8 +4273,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3722,8 +4312,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3755,8 +4351,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3788,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3821,8 +4429,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3854,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4507,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3920,8 +4546,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3953,8 +4585,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3986,8 +4624,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4019,8 +4663,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4052,8 +4702,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4085,8 +4741,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4118,8 +4780,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4151,8 +4819,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4184,8 +4858,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4217,8 +4897,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4250,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4283,8 +4975,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4316,8 +5014,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4349,8 +5053,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4382,8 +5092,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4415,8 +5131,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4448,8 +5170,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4481,8 +5209,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4514,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4547,8 +5287,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4580,8 +5326,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4613,8 +5365,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4646,8 +5404,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4679,8 +5443,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4712,8 +5482,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4745,8 +5521,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4778,8 +5560,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4811,8 +5599,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4844,8 +5638,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4877,8 +5677,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4910,8 +5716,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4943,8 +5755,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4976,8 +5794,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5009,8 +5833,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5042,8 +5872,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5075,8 +5911,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5108,8 +5950,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5141,8 +5989,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5174,8 +6028,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5207,8 +6067,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5240,8 +6106,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5273,8 +6145,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5306,8 +6184,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5339,8 +6223,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5372,8 +6262,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5405,8 +6301,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5438,8 +6340,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5471,8 +6379,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5504,8 +6418,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5537,8 +6457,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5570,8 +6496,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5603,8 +6535,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5636,8 +6574,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5669,8 +6613,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5702,8 +6652,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5735,8 +6691,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5768,8 +6730,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5801,8 +6769,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5834,8 +6808,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5867,8 +6847,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5900,8 +6886,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5933,8 +6925,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5966,8 +6964,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5999,8 +7003,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6032,8 +7042,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6065,8 +7081,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6098,8 +7120,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6131,8 +7159,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6164,8 +7198,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6197,8 +7237,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6230,8 +7276,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6263,8 +7315,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6296,8 +7354,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6329,8 +7393,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6362,8 +7432,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6395,8 +7471,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6428,8 +7510,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6461,8 +7549,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6494,8 +7588,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6527,8 +7627,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6560,8 +7666,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6593,8 +7705,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6626,8 +7744,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6659,8 +7783,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6692,8 +7822,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6725,8 +7861,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6758,8 +7900,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6791,8 +7939,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6824,8 +7978,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6857,8 +8017,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6890,8 +8056,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6923,8 +8095,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6956,8 +8134,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6989,8 +8173,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7022,8 +8212,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7055,8 +8251,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7088,8 +8290,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7121,8 +8329,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7154,8 +8368,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7187,8 +8407,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7220,8 +8446,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7253,8 +8485,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7286,8 +8524,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7319,8 +8563,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7352,8 +8602,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7385,8 +8641,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7418,8 +8680,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7448,13 +8716,19 @@
         <v>75886116.58329533</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L213" t="n">
-        <v>1</v>
+        <v>1.021</v>
       </c>
       <c r="M213" t="inlineStr"/>
     </row>
@@ -7481,7 +8755,7 @@
         <v>71886116.58329533</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7514,7 +8788,7 @@
         <v>70997226.17739533</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7613,7 +8887,7 @@
         <v>71316002.24839532</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7646,7 +8920,7 @@
         <v>71351684.24839532</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7679,7 +8953,7 @@
         <v>68971390.60169533</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7778,7 +9052,7 @@
         <v>68976411.31819533</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7811,7 +9085,7 @@
         <v>68976411.31819533</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7844,7 +9118,7 @@
         <v>69159181.76219533</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7877,7 +9151,7 @@
         <v>69159181.76219533</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7910,7 +9184,7 @@
         <v>69138536.88319534</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7943,7 +9217,7 @@
         <v>68845580.54599534</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8009,7 +9283,7 @@
         <v>68857934.54599534</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8042,7 +9316,7 @@
         <v>72940865.85399534</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8075,7 +9349,7 @@
         <v>76299119.79839534</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8108,7 +9382,7 @@
         <v>74288451.79549533</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8141,7 +9415,7 @@
         <v>74288451.79549533</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8174,7 +9448,7 @@
         <v>75995994.79549533</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8207,7 +9481,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8240,7 +9514,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8273,7 +9547,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8306,7 +9580,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8339,7 +9613,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8372,7 +9646,7 @@
         <v>79449488.56909533</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8405,7 +9679,7 @@
         <v>79199488.56909533</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8438,7 +9712,7 @@
         <v>79199488.56909533</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8471,7 +9745,7 @@
         <v>84534490.43739533</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8504,7 +9778,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8537,7 +9811,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8570,7 +9844,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8603,7 +9877,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8636,7 +9910,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8669,7 +9943,7 @@
         <v>84584490.43739533</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8702,7 +9976,7 @@
         <v>84319588.42999533</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8735,7 +10009,7 @@
         <v>83350251.58939533</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest NPXS.xlsx
+++ b/BackTest/2020-01-16 BackTest NPXS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M252"/>
+  <dimension ref="A1:L252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>17797</v>
       </c>
       <c r="G2" t="n">
-        <v>20052235.31376002</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>133006.6666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>20052235.31376002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>74519</v>
       </c>
       <c r="G4" t="n">
-        <v>20052235.31376002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,15 @@
         <v>77628.1841</v>
       </c>
       <c r="G5" t="n">
-        <v>20052235.31376002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +563,15 @@
         <v>47498.423</v>
       </c>
       <c r="G6" t="n">
-        <v>20099733.73676002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +593,15 @@
         <v>1258471.9516</v>
       </c>
       <c r="G7" t="n">
-        <v>18841261.78516002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +623,15 @@
         <v>300000</v>
       </c>
       <c r="G8" t="n">
-        <v>18541261.78516002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,26 +653,15 @@
         <v>501761.4226</v>
       </c>
       <c r="G9" t="n">
-        <v>18039500.36256002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1503</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,24 +683,15 @@
         <v>441989.9793</v>
       </c>
       <c r="G10" t="n">
-        <v>18039500.36256002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -795,24 +713,15 @@
         <v>3270626.08159079</v>
       </c>
       <c r="G11" t="n">
-        <v>21310126.44415081</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,24 +743,15 @@
         <v>224545.7472</v>
       </c>
       <c r="G12" t="n">
-        <v>21085580.6969508</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -873,24 +773,15 @@
         <v>689655.1724</v>
       </c>
       <c r="G13" t="n">
-        <v>21775235.86935081</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -912,24 +803,15 @@
         <v>3329456.4655</v>
       </c>
       <c r="G14" t="n">
-        <v>18445779.40385081</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -951,24 +833,15 @@
         <v>535556.3704</v>
       </c>
       <c r="G15" t="n">
-        <v>17910223.0334508</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -990,24 +863,15 @@
         <v>560532.8966</v>
       </c>
       <c r="G16" t="n">
-        <v>17910223.0334508</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1029,24 +893,15 @@
         <v>5000</v>
       </c>
       <c r="G17" t="n">
-        <v>17915223.0334508</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1068,24 +923,15 @@
         <v>7338.22548365577</v>
       </c>
       <c r="G18" t="n">
-        <v>17915223.0334508</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1107,24 +953,15 @@
         <v>478698</v>
       </c>
       <c r="G19" t="n">
-        <v>18393921.0334508</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1146,24 +983,15 @@
         <v>1005000.6773</v>
       </c>
       <c r="G20" t="n">
-        <v>18393921.0334508</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1185,24 +1013,15 @@
         <v>1264811.0105</v>
       </c>
       <c r="G21" t="n">
-        <v>18393921.0334508</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1224,24 +1043,15 @@
         <v>5000</v>
       </c>
       <c r="G22" t="n">
-        <v>18398921.0334508</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1263,24 +1073,15 @@
         <v>619697.4013</v>
       </c>
       <c r="G23" t="n">
-        <v>17779223.63215081</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1302,24 +1103,15 @@
         <v>280302.5986</v>
       </c>
       <c r="G24" t="n">
-        <v>17779223.63215081</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1341,24 +1133,15 @@
         <v>200000</v>
       </c>
       <c r="G25" t="n">
-        <v>17979223.63215081</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1380,24 +1163,15 @@
         <v>4374333.6575</v>
       </c>
       <c r="G26" t="n">
-        <v>13604889.97465081</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1419,24 +1193,15 @@
         <v>22222</v>
       </c>
       <c r="G27" t="n">
-        <v>13627111.97465081</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1458,24 +1223,15 @@
         <v>1021980.3371</v>
       </c>
       <c r="G28" t="n">
-        <v>12605131.63755081</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1497,24 +1253,15 @@
         <v>690529.1587</v>
       </c>
       <c r="G29" t="n">
-        <v>13295660.79625081</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1536,24 +1283,15 @@
         <v>4399.5584</v>
       </c>
       <c r="G30" t="n">
-        <v>13295660.79625081</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1575,24 +1313,15 @@
         <v>173792.4696</v>
       </c>
       <c r="G31" t="n">
-        <v>13295660.79625081</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1614,24 +1343,15 @@
         <v>540902.5632</v>
       </c>
       <c r="G32" t="n">
-        <v>13295660.79625081</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1653,24 +1373,15 @@
         <v>26402.1284</v>
       </c>
       <c r="G33" t="n">
-        <v>13322062.92465081</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1692,24 +1403,15 @@
         <v>106694.15</v>
       </c>
       <c r="G34" t="n">
-        <v>13215368.77465081</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1731,24 +1433,15 @@
         <v>17292.9122</v>
       </c>
       <c r="G35" t="n">
-        <v>13198075.86245081</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1770,24 +1463,15 @@
         <v>9582</v>
       </c>
       <c r="G36" t="n">
-        <v>13188493.86245081</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1809,24 +1493,15 @@
         <v>118988.6144</v>
       </c>
       <c r="G37" t="n">
-        <v>13069505.24805081</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1848,24 +1523,15 @@
         <v>262136.6409</v>
       </c>
       <c r="G38" t="n">
-        <v>12807368.60715081</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1887,24 +1553,15 @@
         <v>56884.6491</v>
       </c>
       <c r="G39" t="n">
-        <v>12750483.95805081</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1926,24 +1583,15 @@
         <v>10000</v>
       </c>
       <c r="G40" t="n">
-        <v>12740483.95805081</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1965,24 +1613,15 @@
         <v>3770623.8742</v>
       </c>
       <c r="G41" t="n">
-        <v>8969860.083850808</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2004,24 +1643,15 @@
         <v>47528.7509</v>
       </c>
       <c r="G42" t="n">
-        <v>9017388.834750809</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2043,24 +1673,15 @@
         <v>594858.7681</v>
       </c>
       <c r="G43" t="n">
-        <v>8422530.066650808</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2082,26 +1703,15 @@
         <v>5370766.9247</v>
       </c>
       <c r="G44" t="n">
-        <v>8422530.066650808</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2123,26 +1733,15 @@
         <v>3641093.3998</v>
       </c>
       <c r="G45" t="n">
-        <v>12063623.46645081</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2164,24 +1763,15 @@
         <v>898940.6967</v>
       </c>
       <c r="G46" t="n">
-        <v>12962564.16315081</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2203,24 +1793,15 @@
         <v>285800</v>
       </c>
       <c r="G47" t="n">
-        <v>12676764.16315081</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2242,26 +1823,15 @@
         <v>10525316.5872</v>
       </c>
       <c r="G48" t="n">
-        <v>12676764.16315081</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2283,26 +1853,15 @@
         <v>7712884.9144</v>
       </c>
       <c r="G49" t="n">
-        <v>12676764.16315081</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2324,26 +1883,15 @@
         <v>3209640.2607</v>
       </c>
       <c r="G50" t="n">
-        <v>12676764.16315081</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2365,26 +1913,15 @@
         <v>33510698.6793</v>
       </c>
       <c r="G51" t="n">
-        <v>12676764.16315081</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.1489</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2406,24 +1943,15 @@
         <v>2699955.7212</v>
       </c>
       <c r="G52" t="n">
-        <v>12676764.16315081</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2445,24 +1973,15 @@
         <v>658710.6967</v>
       </c>
       <c r="G53" t="n">
-        <v>13335474.85985081</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2484,24 +2003,15 @@
         <v>285885.7657</v>
       </c>
       <c r="G54" t="n">
-        <v>13621360.6255508</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2523,24 +2033,15 @@
         <v>562653.1405</v>
       </c>
       <c r="G55" t="n">
-        <v>14184013.7660508</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2562,24 +2063,15 @@
         <v>616390.9172</v>
       </c>
       <c r="G56" t="n">
-        <v>14184013.7660508</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2601,24 +2093,15 @@
         <v>681472</v>
       </c>
       <c r="G57" t="n">
-        <v>13502541.7660508</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2640,24 +2123,15 @@
         <v>6260124.423</v>
       </c>
       <c r="G58" t="n">
-        <v>13502541.7660508</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2679,24 +2153,15 @@
         <v>6247436.7807</v>
       </c>
       <c r="G59" t="n">
-        <v>7255104.985350804</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2718,24 +2183,15 @@
         <v>350000</v>
       </c>
       <c r="G60" t="n">
-        <v>7605104.985350804</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2757,24 +2213,15 @@
         <v>1696348.5</v>
       </c>
       <c r="G61" t="n">
-        <v>5908756.485350804</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2796,24 +2243,15 @@
         <v>4082995.3415</v>
       </c>
       <c r="G62" t="n">
-        <v>5908756.485350804</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2835,24 +2273,15 @@
         <v>264784.5766</v>
       </c>
       <c r="G63" t="n">
-        <v>5908756.485350804</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2874,24 +2303,15 @@
         <v>1728083.7381</v>
       </c>
       <c r="G64" t="n">
-        <v>5908756.485350804</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2913,24 +2333,15 @@
         <v>902382.9999000001</v>
       </c>
       <c r="G65" t="n">
-        <v>5908756.485350804</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2952,26 +2363,15 @@
         <v>8630340.3178</v>
       </c>
       <c r="G66" t="n">
-        <v>14539096.8031508</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2993,26 +2393,15 @@
         <v>7123200.9999</v>
       </c>
       <c r="G67" t="n">
-        <v>14539096.8031508</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3034,26 +2423,15 @@
         <v>3500</v>
       </c>
       <c r="G68" t="n">
-        <v>14542596.8031508</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3075,26 +2453,15 @@
         <v>1530692.3253</v>
       </c>
       <c r="G69" t="n">
-        <v>13011904.4778508</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3116,26 +2483,15 @@
         <v>226062.6187</v>
       </c>
       <c r="G70" t="n">
-        <v>13237967.0965508</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.1511</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3157,26 +2513,15 @@
         <v>659994.9201</v>
       </c>
       <c r="G71" t="n">
-        <v>13237967.0965508</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3198,26 +2543,15 @@
         <v>50000</v>
       </c>
       <c r="G72" t="n">
-        <v>13237967.0965508</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3239,26 +2573,15 @@
         <v>6569331.7387</v>
       </c>
       <c r="G73" t="n">
-        <v>13237967.0965508</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.1512</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3280,24 +2603,15 @@
         <v>3550</v>
       </c>
       <c r="G74" t="n">
-        <v>13241517.0965508</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3319,26 +2633,15 @@
         <v>542019</v>
       </c>
       <c r="G75" t="n">
-        <v>12699498.0965508</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3360,26 +2663,15 @@
         <v>5080674.1026</v>
       </c>
       <c r="G76" t="n">
-        <v>12699498.0965508</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3401,26 +2693,15 @@
         <v>3550</v>
       </c>
       <c r="G77" t="n">
-        <v>12703048.0965508</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.1502</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3442,26 +2723,15 @@
         <v>5060423.7924</v>
       </c>
       <c r="G78" t="n">
-        <v>7642624.304150804</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.152</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3483,24 +2753,15 @@
         <v>21151</v>
       </c>
       <c r="G79" t="n">
-        <v>7663775.304150804</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3522,26 +2783,15 @@
         <v>1374819.6034</v>
       </c>
       <c r="G80" t="n">
-        <v>7663775.304150804</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.1506</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3563,26 +2813,15 @@
         <v>20163003.5294</v>
       </c>
       <c r="G81" t="n">
-        <v>27826778.8335508</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.1506</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3604,24 +2843,15 @@
         <v>5936895.167</v>
       </c>
       <c r="G82" t="n">
-        <v>21889883.6665508</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3643,24 +2873,15 @@
         <v>10187777.8422</v>
       </c>
       <c r="G83" t="n">
-        <v>32077661.5087508</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3682,24 +2903,15 @@
         <v>16406</v>
       </c>
       <c r="G84" t="n">
-        <v>32094067.5087508</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3721,24 +2933,15 @@
         <v>1349975.1817</v>
       </c>
       <c r="G85" t="n">
-        <v>32094067.5087508</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3760,24 +2963,15 @@
         <v>56022.6022</v>
       </c>
       <c r="G86" t="n">
-        <v>32094067.5087508</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3799,24 +2993,15 @@
         <v>4498569.6696</v>
       </c>
       <c r="G87" t="n">
-        <v>32094067.5087508</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3838,24 +3023,15 @@
         <v>14630055.5444</v>
       </c>
       <c r="G88" t="n">
-        <v>46724123.0531508</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3877,24 +3053,15 @@
         <v>2043661.0983</v>
       </c>
       <c r="G89" t="n">
-        <v>44680461.9548508</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3916,24 +3083,15 @@
         <v>1114742.6348</v>
       </c>
       <c r="G90" t="n">
-        <v>43565719.3200508</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3955,24 +3113,15 @@
         <v>50000</v>
       </c>
       <c r="G91" t="n">
-        <v>43515719.3200508</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3994,24 +3143,15 @@
         <v>6970841.3598</v>
       </c>
       <c r="G92" t="n">
-        <v>36544877.96025079</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4033,24 +3173,15 @@
         <v>88158.3836</v>
       </c>
       <c r="G93" t="n">
-        <v>36456719.5766508</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4072,24 +3203,15 @@
         <v>97073.519</v>
       </c>
       <c r="G94" t="n">
-        <v>36456719.5766508</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4111,24 +3233,15 @@
         <v>665341.5285</v>
       </c>
       <c r="G95" t="n">
-        <v>37122061.1051508</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4150,24 +3263,15 @@
         <v>3370144.0502</v>
       </c>
       <c r="G96" t="n">
-        <v>40492205.1553508</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4189,24 +3293,15 @@
         <v>322111.6334</v>
       </c>
       <c r="G97" t="n">
-        <v>40170093.5219508</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4228,24 +3323,15 @@
         <v>3178572.4651</v>
       </c>
       <c r="G98" t="n">
-        <v>36991521.0568508</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4267,24 +3353,15 @@
         <v>1004474.5497</v>
       </c>
       <c r="G99" t="n">
-        <v>37995995.6065508</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4306,24 +3383,15 @@
         <v>376312.888</v>
       </c>
       <c r="G100" t="n">
-        <v>37619682.7185508</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4345,24 +3413,15 @@
         <v>376312.888</v>
       </c>
       <c r="G101" t="n">
-        <v>37619682.7185508</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4384,24 +3443,15 @@
         <v>145578.0423280423</v>
       </c>
       <c r="G102" t="n">
-        <v>37765260.76087885</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4423,24 +3473,15 @@
         <v>650298.6066000001</v>
       </c>
       <c r="G103" t="n">
-        <v>37114962.15427884</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4462,24 +3503,15 @@
         <v>397830.3491</v>
       </c>
       <c r="G104" t="n">
-        <v>36717131.80517884</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4501,24 +3533,15 @@
         <v>100000</v>
       </c>
       <c r="G105" t="n">
-        <v>36617131.80517884</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4540,24 +3563,15 @@
         <v>945046.5882</v>
       </c>
       <c r="G106" t="n">
-        <v>36617131.80517884</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4579,24 +3593,15 @@
         <v>765678.2585</v>
       </c>
       <c r="G107" t="n">
-        <v>36617131.80517884</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4618,24 +3623,15 @@
         <v>221471.4447</v>
       </c>
       <c r="G108" t="n">
-        <v>36395660.36047884</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4657,24 +3653,15 @@
         <v>155452.8715</v>
       </c>
       <c r="G109" t="n">
-        <v>36395660.36047884</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4696,24 +3683,15 @@
         <v>4843.4912</v>
       </c>
       <c r="G110" t="n">
-        <v>36400503.85167884</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4735,24 +3713,15 @@
         <v>9068668.197699999</v>
       </c>
       <c r="G111" t="n">
-        <v>27331835.65397884</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4774,24 +3743,15 @@
         <v>1673910.2839</v>
       </c>
       <c r="G112" t="n">
-        <v>29005745.93787884</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4813,24 +3773,15 @@
         <v>303057.9173</v>
       </c>
       <c r="G113" t="n">
-        <v>29308803.85517884</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4852,24 +3803,15 @@
         <v>138578.0423</v>
       </c>
       <c r="G114" t="n">
-        <v>29170225.81287884</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4891,24 +3833,21 @@
         <v>3156638.1621</v>
       </c>
       <c r="G115" t="n">
-        <v>32326863.97497884</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>0.1472</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4930,24 +3869,19 @@
         <v>380036.5594</v>
       </c>
       <c r="G116" t="n">
-        <v>32326863.97497884</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4969,24 +3903,19 @@
         <v>234423.220578486</v>
       </c>
       <c r="G117" t="n">
-        <v>32561287.19555732</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5008,24 +3937,19 @@
         <v>82941.45110000001</v>
       </c>
       <c r="G118" t="n">
-        <v>32561287.19555732</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5047,24 +3971,19 @@
         <v>1458225.3402</v>
       </c>
       <c r="G119" t="n">
-        <v>32561287.19555732</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5086,24 +4005,19 @@
         <v>1261622.0533</v>
       </c>
       <c r="G120" t="n">
-        <v>32561287.19555732</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5125,24 +4039,19 @@
         <v>2047342.5728</v>
       </c>
       <c r="G121" t="n">
-        <v>30513944.62275732</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5164,24 +4073,19 @@
         <v>2.1513944223108e-05</v>
       </c>
       <c r="G122" t="n">
-        <v>30513944.62277884</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5203,24 +4107,19 @@
         <v>614383.3596224624</v>
       </c>
       <c r="G123" t="n">
-        <v>31128327.9824013</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5242,24 +4141,19 @@
         <v>1825228.5787</v>
       </c>
       <c r="G124" t="n">
-        <v>29303099.4037013</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5281,24 +4175,19 @@
         <v>14666.7407</v>
       </c>
       <c r="G125" t="n">
-        <v>29317766.1444013</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5320,24 +4209,19 @@
         <v>252714</v>
       </c>
       <c r="G126" t="n">
-        <v>29065052.1444013</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5359,24 +4243,19 @@
         <v>167005.7308</v>
       </c>
       <c r="G127" t="n">
-        <v>29065052.1444013</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5398,24 +4277,19 @@
         <v>19834578.267</v>
       </c>
       <c r="G128" t="n">
-        <v>48899630.4114013</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5437,24 +4311,19 @@
         <v>5187376</v>
       </c>
       <c r="G129" t="n">
-        <v>48899630.4114013</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5476,24 +4345,19 @@
         <v>1407734.25</v>
       </c>
       <c r="G130" t="n">
-        <v>47491896.1614013</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5515,24 +4379,19 @@
         <v>1030000</v>
       </c>
       <c r="G131" t="n">
-        <v>46461896.1614013</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5554,24 +4413,19 @@
         <v>6512888.0793</v>
       </c>
       <c r="G132" t="n">
-        <v>39949008.0821013</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5593,24 +4447,19 @@
         <v>2896014</v>
       </c>
       <c r="G133" t="n">
-        <v>37052994.0821013</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5632,24 +4481,19 @@
         <v>881009.3478</v>
       </c>
       <c r="G134" t="n">
-        <v>37052994.0821013</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5671,24 +4515,19 @@
         <v>15307571.5703</v>
       </c>
       <c r="G135" t="n">
-        <v>37052994.0821013</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5710,24 +4549,19 @@
         <v>22469261.0919</v>
       </c>
       <c r="G136" t="n">
-        <v>37052994.0821013</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5749,24 +4583,19 @@
         <v>336710</v>
       </c>
       <c r="G137" t="n">
-        <v>37052994.0821013</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5788,24 +4617,19 @@
         <v>20212.981</v>
       </c>
       <c r="G138" t="n">
-        <v>37052994.0821013</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5827,24 +4651,19 @@
         <v>2009875.0243</v>
       </c>
       <c r="G139" t="n">
-        <v>37052994.0821013</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5866,24 +4685,19 @@
         <v>66712.9509</v>
       </c>
       <c r="G140" t="n">
-        <v>37119707.0330013</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5905,24 +4719,19 @@
         <v>212465.8354</v>
       </c>
       <c r="G141" t="n">
-        <v>37119707.0330013</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5944,24 +4753,19 @@
         <v>7711.7271</v>
       </c>
       <c r="G142" t="n">
-        <v>37111995.3059013</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5983,24 +4787,19 @@
         <v>137000.0994</v>
       </c>
       <c r="G143" t="n">
-        <v>37248995.4053013</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6022,24 +4821,19 @@
         <v>746675.8636</v>
       </c>
       <c r="G144" t="n">
-        <v>36502319.5417013</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6061,24 +4855,19 @@
         <v>8412.690399999999</v>
       </c>
       <c r="G145" t="n">
-        <v>36502319.5417013</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6100,24 +4889,19 @@
         <v>100000</v>
       </c>
       <c r="G146" t="n">
-        <v>36402319.5417013</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6139,24 +4923,19 @@
         <v>42635.0366</v>
       </c>
       <c r="G147" t="n">
-        <v>36402319.5417013</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6178,24 +4957,19 @@
         <v>1437401.4394</v>
       </c>
       <c r="G148" t="n">
-        <v>36402319.5417013</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6217,24 +4991,19 @@
         <v>2388656.2224</v>
       </c>
       <c r="G149" t="n">
-        <v>36402319.5417013</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6256,24 +5025,19 @@
         <v>4410.721</v>
       </c>
       <c r="G150" t="n">
-        <v>36406730.2627013</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6295,24 +5059,19 @@
         <v>41134.5552</v>
       </c>
       <c r="G151" t="n">
-        <v>36406730.2627013</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6334,24 +5093,19 @@
         <v>1926359.2888</v>
       </c>
       <c r="G152" t="n">
-        <v>34480370.9739013</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6373,24 +5127,19 @@
         <v>83403.4687</v>
       </c>
       <c r="G153" t="n">
-        <v>34480370.9739013</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6412,24 +5161,19 @@
         <v>258106.5979</v>
       </c>
       <c r="G154" t="n">
-        <v>34222264.3760013</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6451,24 +5195,19 @@
         <v>4777957</v>
       </c>
       <c r="G155" t="n">
-        <v>34222264.3760013</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6490,24 +5229,19 @@
         <v>1093.6834</v>
       </c>
       <c r="G156" t="n">
-        <v>34222264.3760013</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6529,24 +5263,19 @@
         <v>88214.837</v>
       </c>
       <c r="G157" t="n">
-        <v>34134049.5390013</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6568,24 +5297,19 @@
         <v>16254.7071</v>
       </c>
       <c r="G158" t="n">
-        <v>34117794.8319013</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6607,24 +5331,19 @@
         <v>20283.6637</v>
       </c>
       <c r="G159" t="n">
-        <v>34138078.4956013</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6646,24 +5365,19 @@
         <v>4300907.9675</v>
       </c>
       <c r="G160" t="n">
-        <v>34138078.4956013</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6685,24 +5399,19 @@
         <v>2401006.3871</v>
       </c>
       <c r="G161" t="n">
-        <v>34138078.4956013</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6724,24 +5433,19 @@
         <v>6747.0568</v>
       </c>
       <c r="G162" t="n">
-        <v>34144825.5524013</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6763,24 +5467,19 @@
         <v>395541.0328</v>
       </c>
       <c r="G163" t="n">
-        <v>34144825.5524013</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6802,24 +5501,19 @@
         <v>217966.6985</v>
       </c>
       <c r="G164" t="n">
-        <v>33926858.8539013</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6841,24 +5535,19 @@
         <v>218824.4059</v>
       </c>
       <c r="G165" t="n">
-        <v>34145683.25980131</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6880,24 +5569,19 @@
         <v>6230</v>
       </c>
       <c r="G166" t="n">
-        <v>34139453.25980131</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6919,24 +5603,19 @@
         <v>20190343.1746</v>
       </c>
       <c r="G167" t="n">
-        <v>54329796.4344013</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6958,24 +5637,19 @@
         <v>6354553.7071</v>
       </c>
       <c r="G168" t="n">
-        <v>54329796.4344013</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6997,24 +5671,19 @@
         <v>1987364.8538</v>
       </c>
       <c r="G169" t="n">
-        <v>56317161.2882013</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7036,24 +5705,19 @@
         <v>28017.3915</v>
       </c>
       <c r="G170" t="n">
-        <v>56289143.8967013</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7075,24 +5739,19 @@
         <v>564252.9271</v>
       </c>
       <c r="G171" t="n">
-        <v>56853396.8238013</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7114,24 +5773,19 @@
         <v>461799.5492</v>
       </c>
       <c r="G172" t="n">
-        <v>56853396.8238013</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7153,24 +5807,19 @@
         <v>33373.7754</v>
       </c>
       <c r="G173" t="n">
-        <v>56886770.5992013</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7192,24 +5841,19 @@
         <v>15275479.5188</v>
       </c>
       <c r="G174" t="n">
-        <v>72162250.1180013</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7231,24 +5875,19 @@
         <v>454653.6815</v>
       </c>
       <c r="G175" t="n">
-        <v>72162250.1180013</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7270,24 +5909,19 @@
         <v>19943.4746</v>
       </c>
       <c r="G176" t="n">
-        <v>72162250.1180013</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7309,24 +5943,19 @@
         <v>74776.1303</v>
       </c>
       <c r="G177" t="n">
-        <v>72162250.1180013</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7348,24 +5977,19 @@
         <v>64373.526</v>
       </c>
       <c r="G178" t="n">
-        <v>72097876.5920013</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7387,24 +6011,21 @@
         <v>846328.108</v>
       </c>
       <c r="G179" t="n">
-        <v>72097876.5920013</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>0.1485</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7426,24 +6047,21 @@
         <v>206815.554</v>
       </c>
       <c r="G180" t="n">
-        <v>72097876.5920013</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>0.1485</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7465,24 +6083,21 @@
         <v>310493.1479</v>
       </c>
       <c r="G181" t="n">
-        <v>72097876.5920013</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>0.1485</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7504,24 +6119,21 @@
         <v>1620000</v>
       </c>
       <c r="G182" t="n">
-        <v>70477876.5920013</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>0.1485</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7543,24 +6155,19 @@
         <v>217633.8359</v>
       </c>
       <c r="G183" t="n">
-        <v>70695510.4279013</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7582,24 +6189,19 @@
         <v>299946.984</v>
       </c>
       <c r="G184" t="n">
-        <v>70695510.4279013</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7621,24 +6223,19 @@
         <v>1239828.9551</v>
       </c>
       <c r="G185" t="n">
-        <v>70695510.4279013</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7660,24 +6257,19 @@
         <v>18889.5464</v>
       </c>
       <c r="G186" t="n">
-        <v>70676620.8815013</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7699,24 +6291,19 @@
         <v>481972.5917</v>
       </c>
       <c r="G187" t="n">
-        <v>71158593.4732013</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7738,24 +6325,19 @@
         <v>1000300.09</v>
       </c>
       <c r="G188" t="n">
-        <v>71158593.4732013</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7777,24 +6359,21 @@
         <v>420234.0702</v>
       </c>
       <c r="G189" t="n">
-        <v>71158593.4732013</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>0.1485</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7816,24 +6395,21 @@
         <v>1026052.4763</v>
       </c>
       <c r="G190" t="n">
-        <v>70132540.9969013</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>0.1485</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7855,24 +6431,21 @@
         <v>2754242.2139</v>
       </c>
       <c r="G191" t="n">
-        <v>72886783.2108013</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>0.1484</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7894,24 +6467,21 @@
         <v>120153.5163</v>
       </c>
       <c r="G192" t="n">
-        <v>72766629.69450131</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>0.1485</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7933,24 +6503,21 @@
         <v>2663155.8528</v>
       </c>
       <c r="G193" t="n">
-        <v>75429785.54730131</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>0.1484</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7972,24 +6539,21 @@
         <v>100524.8877</v>
       </c>
       <c r="G194" t="n">
-        <v>75530310.43500131</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>0.1499</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8011,24 +6575,21 @@
         <v>1033143.603905832</v>
       </c>
       <c r="G195" t="n">
-        <v>75530310.43500131</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8050,24 +6611,19 @@
         <v>1136341.7982</v>
       </c>
       <c r="G196" t="n">
-        <v>75530310.43500131</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8089,24 +6645,19 @@
         <v>332529.5428</v>
       </c>
       <c r="G197" t="n">
-        <v>75530310.43500131</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8128,24 +6679,21 @@
         <v>7874.7797</v>
       </c>
       <c r="G198" t="n">
-        <v>75530310.43500131</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8167,24 +6715,21 @@
         <v>681386.1699</v>
       </c>
       <c r="G199" t="n">
-        <v>75530310.43500131</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8206,24 +6751,21 @@
         <v>538577.6733</v>
       </c>
       <c r="G200" t="n">
-        <v>75530310.43500131</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8245,24 +6787,21 @@
         <v>110026.7861</v>
       </c>
       <c r="G201" t="n">
-        <v>75640337.22110131</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8284,24 +6823,21 @@
         <v>969798.2872</v>
       </c>
       <c r="G202" t="n">
-        <v>75640337.22110131</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>0.1511</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8323,24 +6859,19 @@
         <v>1347522</v>
       </c>
       <c r="G203" t="n">
-        <v>75640337.22110131</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8362,24 +6893,19 @@
         <v>200000</v>
       </c>
       <c r="G204" t="n">
-        <v>75840337.22110131</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8401,24 +6927,19 @@
         <v>2895523.3183</v>
       </c>
       <c r="G205" t="n">
-        <v>75840337.22110131</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8440,24 +6961,19 @@
         <v>183714.1831</v>
       </c>
       <c r="G206" t="n">
-        <v>75656623.03800131</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8479,24 +6995,19 @@
         <v>10966</v>
       </c>
       <c r="G207" t="n">
-        <v>75656623.03800131</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8518,24 +7029,19 @@
         <v>26113</v>
       </c>
       <c r="G208" t="n">
-        <v>75656623.03800131</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8557,24 +7063,19 @@
         <v>10321.9206</v>
       </c>
       <c r="G209" t="n">
-        <v>75656623.03800131</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8596,24 +7097,19 @@
         <v>0.0001</v>
       </c>
       <c r="G210" t="n">
-        <v>75656623.03810132</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8635,24 +7131,19 @@
         <v>280514.4157199351</v>
       </c>
       <c r="G211" t="n">
-        <v>75937137.45382126</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8674,24 +7165,19 @@
         <v>375094.9446</v>
       </c>
       <c r="G212" t="n">
-        <v>75562042.50922126</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8713,24 +7199,19 @@
         <v>324074.0740740741</v>
       </c>
       <c r="G213" t="n">
-        <v>75886116.58329533</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1.021</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8752,18 +7233,19 @@
         <v>4000000</v>
       </c>
       <c r="G214" t="n">
-        <v>71886116.58329533</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8785,18 +7267,19 @@
         <v>888890.4059</v>
       </c>
       <c r="G215" t="n">
-        <v>70997226.17739533</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8818,18 +7301,19 @@
         <v>318776.071</v>
       </c>
       <c r="G216" t="n">
-        <v>71316002.24839532</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8851,18 +7335,19 @@
         <v>307023.6194</v>
       </c>
       <c r="G217" t="n">
-        <v>71316002.24839532</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8884,18 +7369,19 @@
         <v>22391.16309291748</v>
       </c>
       <c r="G218" t="n">
-        <v>71316002.24839532</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8917,18 +7403,19 @@
         <v>35682</v>
       </c>
       <c r="G219" t="n">
-        <v>71351684.24839532</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8950,18 +7437,17 @@
         <v>2380293.6467</v>
       </c>
       <c r="G220" t="n">
-        <v>68971390.60169533</v>
-      </c>
-      <c r="H220" t="n">
         <v>2</v>
       </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8983,18 +7469,15 @@
         <v>100000</v>
       </c>
       <c r="G221" t="n">
-        <v>68971390.60169533</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9016,18 +7499,15 @@
         <v>101581.3032</v>
       </c>
       <c r="G222" t="n">
-        <v>68971390.60169533</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9049,18 +7529,15 @@
         <v>5020.7165</v>
       </c>
       <c r="G223" t="n">
-        <v>68976411.31819533</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9082,18 +7559,15 @@
         <v>1358710.6956</v>
       </c>
       <c r="G224" t="n">
-        <v>68976411.31819533</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9115,18 +7589,15 @@
         <v>182770.444</v>
       </c>
       <c r="G225" t="n">
-        <v>69159181.76219533</v>
-      </c>
-      <c r="H225" t="n">
         <v>2</v>
       </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9148,18 +7619,15 @@
         <v>91585.7758</v>
       </c>
       <c r="G226" t="n">
-        <v>69159181.76219533</v>
-      </c>
-      <c r="H226" t="n">
         <v>2</v>
       </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9181,18 +7649,15 @@
         <v>20644.879</v>
       </c>
       <c r="G227" t="n">
-        <v>69138536.88319534</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9214,18 +7679,15 @@
         <v>292956.3372</v>
       </c>
       <c r="G228" t="n">
-        <v>68845580.54599534</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9247,18 +7709,15 @@
         <v>12354</v>
       </c>
       <c r="G229" t="n">
-        <v>68857934.54599534</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9280,18 +7739,15 @@
         <v>504110.908</v>
       </c>
       <c r="G230" t="n">
-        <v>68857934.54599534</v>
-      </c>
-      <c r="H230" t="n">
         <v>2</v>
       </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9313,18 +7769,15 @@
         <v>4082931.308</v>
       </c>
       <c r="G231" t="n">
-        <v>72940865.85399534</v>
-      </c>
-      <c r="H231" t="n">
         <v>2</v>
       </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9346,18 +7799,15 @@
         <v>3358253.9444</v>
       </c>
       <c r="G232" t="n">
-        <v>76299119.79839534</v>
-      </c>
-      <c r="H232" t="n">
         <v>2</v>
       </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9379,18 +7829,15 @@
         <v>2010668.0029</v>
       </c>
       <c r="G233" t="n">
-        <v>74288451.79549533</v>
-      </c>
-      <c r="H233" t="n">
         <v>2</v>
       </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9412,18 +7859,15 @@
         <v>1759551</v>
       </c>
       <c r="G234" t="n">
-        <v>74288451.79549533</v>
-      </c>
-      <c r="H234" t="n">
         <v>2</v>
       </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9445,18 +7889,15 @@
         <v>1707543</v>
       </c>
       <c r="G235" t="n">
-        <v>75995994.79549533</v>
-      </c>
-      <c r="H235" t="n">
         <v>2</v>
       </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9478,18 +7919,15 @@
         <v>3453493.7736</v>
       </c>
       <c r="G236" t="n">
-        <v>79449488.56909533</v>
-      </c>
-      <c r="H236" t="n">
         <v>2</v>
       </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9511,18 +7949,15 @@
         <v>3228172.2877</v>
       </c>
       <c r="G237" t="n">
-        <v>79449488.56909533</v>
-      </c>
-      <c r="H237" t="n">
         <v>2</v>
       </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9544,18 +7979,15 @@
         <v>155000</v>
       </c>
       <c r="G238" t="n">
-        <v>79449488.56909533</v>
-      </c>
-      <c r="H238" t="n">
         <v>2</v>
       </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9577,18 +8009,15 @@
         <v>6470716.94</v>
       </c>
       <c r="G239" t="n">
-        <v>79449488.56909533</v>
-      </c>
-      <c r="H239" t="n">
         <v>2</v>
       </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9610,18 +8039,15 @@
         <v>1103667.7635</v>
       </c>
       <c r="G240" t="n">
-        <v>79449488.56909533</v>
-      </c>
-      <c r="H240" t="n">
         <v>2</v>
       </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9643,18 +8069,15 @@
         <v>50000</v>
       </c>
       <c r="G241" t="n">
-        <v>79449488.56909533</v>
-      </c>
-      <c r="H241" t="n">
         <v>2</v>
       </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9676,18 +8099,15 @@
         <v>250000</v>
       </c>
       <c r="G242" t="n">
-        <v>79199488.56909533</v>
-      </c>
-      <c r="H242" t="n">
         <v>2</v>
       </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9709,18 +8129,15 @@
         <v>1612361.5069</v>
       </c>
       <c r="G243" t="n">
-        <v>79199488.56909533</v>
-      </c>
-      <c r="H243" t="n">
         <v>2</v>
       </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9742,18 +8159,15 @@
         <v>5335001.8683</v>
       </c>
       <c r="G244" t="n">
-        <v>84534490.43739533</v>
-      </c>
-      <c r="H244" t="n">
         <v>2</v>
       </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9775,18 +8189,15 @@
         <v>50000</v>
       </c>
       <c r="G245" t="n">
-        <v>84584490.43739533</v>
-      </c>
-      <c r="H245" t="n">
         <v>2</v>
       </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9808,18 +8219,15 @@
         <v>50000</v>
       </c>
       <c r="G246" t="n">
-        <v>84584490.43739533</v>
-      </c>
-      <c r="H246" t="n">
         <v>2</v>
       </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9841,18 +8249,15 @@
         <v>500000</v>
       </c>
       <c r="G247" t="n">
-        <v>84584490.43739533</v>
-      </c>
-      <c r="H247" t="n">
         <v>2</v>
       </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9874,18 +8279,15 @@
         <v>307919.5517</v>
       </c>
       <c r="G248" t="n">
-        <v>84584490.43739533</v>
-      </c>
-      <c r="H248" t="n">
         <v>2</v>
       </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9907,18 +8309,15 @@
         <v>325000</v>
       </c>
       <c r="G249" t="n">
-        <v>84584490.43739533</v>
-      </c>
-      <c r="H249" t="n">
         <v>2</v>
       </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9940,18 +8339,15 @@
         <v>192207.7922077922</v>
       </c>
       <c r="G250" t="n">
-        <v>84584490.43739533</v>
-      </c>
-      <c r="H250" t="n">
         <v>2</v>
       </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9973,18 +8369,15 @@
         <v>264902.0074</v>
       </c>
       <c r="G251" t="n">
-        <v>84319588.42999533</v>
-      </c>
-      <c r="H251" t="n">
         <v>2</v>
       </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10006,18 +8399,15 @@
         <v>969336.8406</v>
       </c>
       <c r="G252" t="n">
-        <v>83350251.58939533</v>
-      </c>
-      <c r="H252" t="n">
         <v>2</v>
       </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
